--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>variable</t>
   </si>
@@ -78,139 +78,187 @@
     <t>uninsured_adults</t>
   </si>
   <si>
-    <t>primary_care_provider_rate_per_100000</t>
+    <t>preventable_hospital_stays</t>
+  </si>
+  <si>
+    <t>diabetes_monitoring</t>
+  </si>
+  <si>
+    <t>hospice_use</t>
+  </si>
+  <si>
+    <t>high_school_graduation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since state data sources were used for Kentucky, New Hampshire, North Carolina, Pennsylvania, South Carolina, and Utah, these states have more recent data available.</t>
+  </si>
+  <si>
+    <t>college_degrees</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>children_in_poverty</t>
+  </si>
+  <si>
+    <t>income_inequality</t>
+  </si>
+  <si>
+    <t>inadequate_social_support</t>
+  </si>
+  <si>
+    <t>single-parent_households</t>
+  </si>
+  <si>
+    <t>violent_crime</t>
+  </si>
+  <si>
+    <t>homicides</t>
+  </si>
+  <si>
+    <t>air_pollution_-_particulate_matter</t>
+  </si>
+  <si>
+    <t>air_pollution-ozone_days</t>
+  </si>
+  <si>
+    <t>access_to_healthy_foods</t>
+  </si>
+  <si>
+    <t>excessive_drinking</t>
+  </si>
+  <si>
+    <t>primary_care_physicians</t>
+  </si>
+  <si>
+    <t>mammography_screening</t>
+  </si>
+  <si>
+    <t>some_college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children_in_single-parent_households </t>
+  </si>
+  <si>
+    <t>access_to_recreational_facilities</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>%_below_18_years_of_age</t>
+  </si>
+  <si>
+    <t>%_65_and_older</t>
+  </si>
+  <si>
+    <t>%_non-hispanic_african_american</t>
+  </si>
+  <si>
+    <t>%_american_indian_and_alaskan_native</t>
+  </si>
+  <si>
+    <t>%_asian</t>
+  </si>
+  <si>
+    <t>%_native_hawaiian/other_pacific_islander</t>
+  </si>
+  <si>
+    <t>%_hispanic</t>
+  </si>
+  <si>
+    <t>%_not_proficient_in_english</t>
+  </si>
+  <si>
+    <t>%_females</t>
+  </si>
+  <si>
+    <t>%_rural</t>
+  </si>
+  <si>
+    <t>diabetes_prevalence</t>
+  </si>
+  <si>
+    <t>hiv_prevalence</t>
+  </si>
+  <si>
+    <t>physical_inactivity</t>
+  </si>
+  <si>
+    <t>mental_health_providers</t>
+  </si>
+  <si>
+    <t>median_household_income</t>
+  </si>
+  <si>
+    <t>high_housing_costs</t>
+  </si>
+  <si>
+    <t>children_eligible_for_free_lunch</t>
+  </si>
+  <si>
+    <t>illiteracy</t>
+  </si>
+  <si>
+    <t>driving_alone_to_work</t>
+  </si>
+  <si>
+    <t>uninsured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since state data sources were used for Alaska, Alabama, Arkansas, California, Connecticut, Florida, Hawaii, Idaho, Kentucky, Montana, North Dakota, New Jersey, Oklahoma, South Dakota, and Tennessee, these states have more recent data available.</t>
+  </si>
+  <si>
+    <t>children_in_single-parent_households</t>
+  </si>
+  <si>
+    <t>limited_access_to_healthy_foods</t>
+  </si>
+  <si>
+    <t>fast_food_restaurants</t>
+  </si>
+  <si>
+    <t>health_care_costs</t>
+  </si>
+  <si>
+    <t>could_not_see_doctor_due_to_cost</t>
+  </si>
+  <si>
+    <t>dentists</t>
+  </si>
+  <si>
+    <t>liquor_store_density</t>
   </si>
   <si>
     <t>primary_care_provider_rate</t>
   </si>
   <si>
-    <t>ratio_of_population_to_primary_care</t>
-  </si>
-  <si>
-    <t>preventable_hospital_stays</t>
-  </si>
-  <si>
-    <t>diabetes_monitoring</t>
-  </si>
-  <si>
-    <t>hospice_use</t>
-  </si>
-  <si>
-    <t>high_school_graduation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since state data sources were used for Kentucky, New Hampshire, North Carolina, Pennsylvania, South Carolina, and Utah, these states have more recent data available.</t>
-  </si>
-  <si>
-    <t>college_degrees</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>children_in_poverty</t>
-  </si>
-  <si>
-    <t>income_inequality</t>
-  </si>
-  <si>
-    <t>inadequate_social_support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">children_in_single-parent_households </t>
-  </si>
-  <si>
-    <t>violent_crime</t>
-  </si>
-  <si>
-    <t>homicides</t>
-  </si>
-  <si>
-    <t>air_pollution-particulate_matter_days</t>
-  </si>
-  <si>
-    <t>air_pollution-ozone_days</t>
-  </si>
-  <si>
-    <t>access_to_healthy_foods</t>
-  </si>
-  <si>
-    <t>liquor_store_density</t>
-  </si>
-  <si>
-    <t>excessive_drinking</t>
-  </si>
-  <si>
-    <t>mammography_screening</t>
-  </si>
-  <si>
-    <t>some_college</t>
-  </si>
-  <si>
-    <t>access_to_recreational_facilities</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>%_below_18_years_of_age</t>
-  </si>
-  <si>
-    <t>%_65_and_older</t>
-  </si>
-  <si>
-    <t>%_non-hispanic_african_american</t>
-  </si>
-  <si>
-    <t>%_american_indian_and_alaskan_native</t>
-  </si>
-  <si>
-    <t>%_asian</t>
-  </si>
-  <si>
-    <t>%_native_hawaiian/other_pacific_islander</t>
-  </si>
-  <si>
-    <t>%_hispanic</t>
-  </si>
-  <si>
-    <t>%_not_proficient_in_english</t>
-  </si>
-  <si>
-    <t>%_females</t>
-  </si>
-  <si>
-    <t>%_rural</t>
-  </si>
-  <si>
-    <t>diabetes_prevalence</t>
-  </si>
-  <si>
-    <t>hiv_prevalence</t>
-  </si>
-  <si>
-    <t>physical_inactivity</t>
-  </si>
-  <si>
-    <t>mental_health_providers</t>
-  </si>
-  <si>
-    <t>median_household_income</t>
-  </si>
-  <si>
-    <t>high_housing_costs</t>
-  </si>
-  <si>
-    <t>children_eligible_for_free_lunch</t>
-  </si>
-  <si>
-    <t>illiteracy</t>
-  </si>
-  <si>
-    <t>liquor_store_density_100k</t>
-  </si>
-  <si>
-    <t>driving_alone_to_work</t>
+    <t xml:space="preserve">No years listed in documentation. States years of availability are state-specific.</t>
+  </si>
+  <si>
+    <t>drinking_water_violations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the 2013 release, they note it is fiscal year 2012. Which fiscal year they are referring to is unclear.</t>
+  </si>
+  <si>
+    <t>%_non-hispanic_white</t>
+  </si>
+  <si>
+    <t>premature_age-adjusted_mortality</t>
+  </si>
+  <si>
+    <t>child_mortality</t>
+  </si>
+  <si>
+    <t>infant_mortality</t>
+  </si>
+  <si>
+    <t>uninsured_children</t>
+  </si>
+  <si>
+    <t>access_to_parks</t>
   </si>
   <si>
     <t>smoking_during_pregnancy</t>
@@ -234,7 +282,7 @@
     <t>did_not_get_needed_health_care</t>
   </si>
   <si>
-    <t>lead_poisoned_children_(wi)</t>
+    <t>lead_poisoned_children</t>
   </si>
   <si>
     <t>municipal_water_(wi)</t>
@@ -289,6 +337,99 @@
   </si>
   <si>
     <t>insured_adults_(fl)</t>
+  </si>
+  <si>
+    <t>communicable_disease</t>
+  </si>
+  <si>
+    <t>coronary_heart_disease_hospitalizations</t>
+  </si>
+  <si>
+    <t>cerebrovascular_disease_hospitalizations</t>
+  </si>
+  <si>
+    <t>inflicted_injury_hospitalizations</t>
+  </si>
+  <si>
+    <t>cancer_incidence</t>
+  </si>
+  <si>
+    <t>alcohol-related_hospitalizations</t>
+  </si>
+  <si>
+    <t>drug_arrests</t>
+  </si>
+  <si>
+    <t>childhood_immunizations</t>
+  </si>
+  <si>
+    <t>local_health_department_staffing</t>
+  </si>
+  <si>
+    <t>dental_utilization</t>
+  </si>
+  <si>
+    <t>cholesterol_screening</t>
+  </si>
+  <si>
+    <t>reading_proficiency</t>
+  </si>
+  <si>
+    <t>w-2_enrollment</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>older_adults_living_alone</t>
+  </si>
+  <si>
+    <t>hate_crimes</t>
+  </si>
+  <si>
+    <t>child_abuse</t>
+  </si>
+  <si>
+    <t>injury_hospitalizations</t>
+  </si>
+  <si>
+    <t>fall_fatalities_65+</t>
+  </si>
+  <si>
+    <t>year_structure_built</t>
+  </si>
+  <si>
+    <t>male_population_0-17</t>
+  </si>
+  <si>
+    <t>male_population_18-44</t>
+  </si>
+  <si>
+    <t>male_population_45-64</t>
+  </si>
+  <si>
+    <t>male_population_65+</t>
+  </si>
+  <si>
+    <t>total_male_population</t>
+  </si>
+  <si>
+    <t>female_population_0-17</t>
+  </si>
+  <si>
+    <t>female_population_18-44</t>
+  </si>
+  <si>
+    <t>female_population_45-64</t>
+  </si>
+  <si>
+    <t>female_population_65+</t>
+  </si>
+  <si>
+    <t>total_female_population</t>
+  </si>
+  <si>
+    <t>population_growth</t>
   </si>
 </sst>
 </file>
@@ -330,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -348,25 +489,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,17 +970,16 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="44.203125"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="43.8515625"/>
     <col bestFit="1" min="2" max="2" style="1" width="11.8515625"/>
     <col bestFit="1" min="3" max="3" style="1" width="9.76171875"/>
     <col bestFit="1" min="4" max="4" style="1" width="8.9609375"/>
     <col bestFit="1" min="5" max="5" style="1" width="10.87109375"/>
     <col bestFit="1" min="6" max="6" style="1" width="10.08203125"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="40.7109375"/>
-    <col min="8" max="8" style="1" width="9.140625"/>
-    <col min="9" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" style="2" width="87.28125"/>
+    <col min="8" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -893,8 +1018,8 @@
       <c r="D2" s="1">
         <v>2006</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -909,8 +1034,8 @@
       <c r="D3" s="1">
         <v>2008</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -925,8 +1050,8 @@
       <c r="D4" s="1">
         <v>2008</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -941,8 +1066,8 @@
       <c r="D5" s="1">
         <v>2008</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -957,8 +1082,8 @@
       <c r="D6" s="1">
         <v>2006</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -973,8 +1098,8 @@
       <c r="D7" s="1">
         <v>2008</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -989,19 +1114,19 @@
       <c r="D8" s="1">
         <v>2008</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>2007</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>2007</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
@@ -1013,8 +1138,8 @@
       <c r="D9" s="1">
         <v>2008</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -1029,11 +1154,11 @@
       <c r="D10" s="1">
         <v>2006</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" ht="28.5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -1064,8 +1189,8 @@
       <c r="D12" s="1">
         <v>2006</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -1080,8 +1205,8 @@
       <c r="D13" s="1">
         <v>2005</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -1091,13 +1216,13 @@
         <v>2010</v>
       </c>
       <c r="C14" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D14" s="1">
         <v>2006</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1107,13 +1232,13 @@
         <v>2010</v>
       </c>
       <c r="C15" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D15" s="1">
         <v>2006</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1123,15 +1248,23 @@
         <v>2010</v>
       </c>
       <c r="C16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F16" s="1">
         <v>2006</v>
       </c>
-      <c r="D16" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17">
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" ht="28.5">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1144,72 +1277,62 @@
       <c r="D17" s="1">
         <v>2006</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>2010</v>
       </c>
       <c r="C18" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D18" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>2007</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>2010</v>
       </c>
       <c r="C19" s="1">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D19" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2001</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2006</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" ht="57">
+        <v>2008</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>2010</v>
       </c>
       <c r="C20" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E20" s="5">
         <v>2007</v>
       </c>
-      <c r="F20" s="5">
-        <v>2008</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -1234,13 +1357,13 @@
         <v>2010</v>
       </c>
       <c r="C22" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D22" s="1">
         <v>2008</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -1250,7 +1373,7 @@
         <v>2010</v>
       </c>
       <c r="C23" s="1">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D23" s="1">
         <v>2007</v>
@@ -1271,6 +1394,7 @@
         <v>2007</v>
       </c>
       <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -1280,16 +1404,16 @@
         <v>2010</v>
       </c>
       <c r="C25" s="1">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+        <v>2006</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1">
@@ -1299,9 +1423,10 @@
         <v>2005</v>
       </c>
       <c r="D26" s="1">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -1314,10 +1439,10 @@
         <v>2005</v>
       </c>
       <c r="D27" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>2005</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -1327,87 +1452,83 @@
         <v>2010</v>
       </c>
       <c r="C28" s="1">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D28" s="1">
         <v>2006</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C29" s="1">
         <v>2005</v>
       </c>
       <c r="D29" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+        <v>2007</v>
+      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C30" s="1">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D30" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C31" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D31" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C32" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D32" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
         <v>2011</v>
       </c>
       <c r="C33" s="1">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="D33" s="1">
         <v>2007</v>
@@ -1416,7 +1537,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1">
         <v>2011</v>
@@ -1431,22 +1552,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <v>2011</v>
       </c>
       <c r="C35" s="1">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="D35" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <v>2011</v>
@@ -1461,7 +1582,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1">
         <v>2011</v>
@@ -1476,1121 +1597,3516 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <v>2011</v>
       </c>
       <c r="C38" s="1">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="D38" s="1">
-        <v>2009</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1">
         <v>2011</v>
       </c>
       <c r="C39" s="1">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D39" s="1">
-        <v>2008</v>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
         <v>2011</v>
       </c>
       <c r="C40" s="1">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D40" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>2007</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
+      <c r="A41" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>2011</v>
       </c>
       <c r="C41" s="1">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D41" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D42" s="1">
         <v>2007</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2008</v>
-      </c>
       <c r="E42" s="1"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B43" s="1">
         <v>2011</v>
       </c>
       <c r="C43" s="1">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D43" s="1">
         <v>2007</v>
       </c>
       <c r="E43" s="1"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1">
         <v>2011</v>
       </c>
       <c r="C44" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D44" s="1">
         <v>2007</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="1"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" ht="28.5">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E45" s="1">
         <v>2008</v>
       </c>
-      <c r="F44" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1">
         <v>2011</v>
       </c>
       <c r="C46" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D46" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1">
         <v>2011</v>
       </c>
       <c r="C47" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D47" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E47" s="1"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1">
         <v>2011</v>
       </c>
       <c r="C48" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D48" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E48" s="1">
         <v>2007</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B49" s="1">
         <v>2011</v>
       </c>
       <c r="C49" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D49" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" ht="57">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1">
         <v>2011</v>
       </c>
       <c r="C50" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D50" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1">
         <v>2011</v>
       </c>
       <c r="C51" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D51" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="10"/>
+        <v>2008</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1">
         <v>2011</v>
       </c>
       <c r="C52" s="1">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="D52" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E52" s="1"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
+      <c r="A53" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B53" s="1">
         <v>2011</v>
       </c>
       <c r="C53" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D53" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1">
         <v>2011</v>
       </c>
       <c r="C54" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D54" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
-        <v>34</v>
+      <c r="A55" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B55" s="1">
         <v>2011</v>
       </c>
       <c r="C55" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D55" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E55" s="1"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1">
         <v>2011</v>
       </c>
       <c r="C56" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D56" s="1">
         <v>2008</v>
       </c>
       <c r="E56" s="1"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1">
         <v>2011</v>
       </c>
       <c r="C57" s="1">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D57" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1">
         <v>2011</v>
       </c>
       <c r="C58" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D58" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1">
         <v>2011</v>
       </c>
       <c r="C59" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D59" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E59" s="1"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1">
         <v>2011</v>
       </c>
       <c r="C60" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D60" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E60" s="1"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1">
         <v>2011</v>
       </c>
       <c r="C61" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C68" s="1">
         <v>2008</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D68" s="1">
         <v>2008</v>
       </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D62" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C63" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D63" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C64" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D64" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C65" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D65" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C66" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D66" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C67" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D67" s="11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C68" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D68" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E68" s="1"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D69" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="11">
+      <c r="A70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="1">
         <v>2011</v>
       </c>
       <c r="C70" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C74" s="1">
         <v>2005</v>
       </c>
-      <c r="D70" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C71" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D71" s="11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C72" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D72" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C73" s="12">
+      <c r="D74" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D78" s="1">
         <v>2008</v>
       </c>
-      <c r="D73" s="12">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D82" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C74" s="12">
-        <v>2007</v>
-      </c>
-      <c r="D74" s="12">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C75" s="12">
-        <v>2008</v>
-      </c>
-      <c r="D75" s="12">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C76" s="12">
-        <v>2003</v>
-      </c>
-      <c r="D76" s="12">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C77" s="12">
-        <v>2008</v>
-      </c>
-      <c r="D77" s="12">
-        <v>2008</v>
-      </c>
-      <c r="E77" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C78" s="12">
-        <v>2008</v>
-      </c>
-      <c r="D78" s="12">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C79" s="12">
-        <v>2005</v>
-      </c>
-      <c r="D79" s="12">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C80" s="12">
-        <v>2006</v>
-      </c>
-      <c r="D80" s="12">
-        <v>2006</v>
-      </c>
-      <c r="E80" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F80" s="1">
-        <v>2006</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B81" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C81" s="12">
-        <v>2003</v>
-      </c>
-      <c r="D81" s="12">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C82" s="12">
-        <v>2008</v>
-      </c>
-      <c r="D82" s="12">
-        <v>2008</v>
-      </c>
+      <c r="G82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C83" s="12">
-        <v>2005</v>
-      </c>
-      <c r="D83" s="12">
-        <v>2009</v>
-      </c>
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="G84" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B85" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B86" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B87" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="A133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="A135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D136" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="A140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="A142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="A143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="A144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="A145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25">
+      <c r="A146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25">
+      <c r="A147" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25">
+      <c r="A148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E148" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25">
+      <c r="A149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25">
+      <c r="A150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25">
+      <c r="A151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25">
+      <c r="A152" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25">
+      <c r="A153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="G153" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25">
+      <c r="A154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25">
+      <c r="A155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25">
+      <c r="A156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25">
+      <c r="A157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D157" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25">
+      <c r="A158" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25">
+      <c r="A159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D159" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25">
+      <c r="A160" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D160" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25">
+      <c r="A161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D161" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G92" s="6" t="s">
+    </row>
+    <row r="162" ht="14.25">
+      <c r="A162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25">
+      <c r="A163" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25">
+      <c r="A164" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="s">
+      <c r="B164" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25">
+      <c r="A165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25">
+      <c r="A166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D166" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25">
+      <c r="A167" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25">
+      <c r="A168" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25">
+      <c r="A169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25">
+      <c r="A170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25">
+      <c r="A171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25">
+      <c r="A172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" ht="14.25">
+      <c r="A173" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" ht="14.25">
+      <c r="A174" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" ht="14.25">
+      <c r="A175" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25">
+      <c r="A176" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25">
+      <c r="A177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25">
+      <c r="A178" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25">
+      <c r="A179" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25">
+      <c r="A180" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E180" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25">
+      <c r="A181" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E181" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F181" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25">
+      <c r="A182" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25">
+      <c r="A183" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B94" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="s">
+      <c r="B183" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25">
+      <c r="A184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25">
+      <c r="A185" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25">
+      <c r="A186" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B95" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B100" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B104" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B105" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="s">
+      <c r="B186" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D186" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25">
+      <c r="A187" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25">
+      <c r="A188" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25">
+      <c r="A189" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E189" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25">
+      <c r="A190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25">
+      <c r="A191" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D191" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25">
+      <c r="A192" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="s">
+      <c r="B192" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25">
+      <c r="A193" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="s">
+      <c r="B193" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="G193" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25">
+      <c r="A194" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G109" s="8" t="s">
+      <c r="B194" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25">
+      <c r="A195" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="s">
+      <c r="B195" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25">
+      <c r="A196" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G110" s="6" t="s">
+      <c r="B196" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25">
+      <c r="A197" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25">
+      <c r="A198" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25">
+      <c r="A199" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25">
+      <c r="A200" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25">
+      <c r="A201" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25">
+      <c r="A202" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25">
+      <c r="A203" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25">
+      <c r="A204" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="s">
+      <c r="B204" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25">
+      <c r="A205" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25">
+      <c r="A206" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G111" s="6" t="s">
+      <c r="B206" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25">
+      <c r="A207" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25">
+      <c r="A208" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25">
+      <c r="A209" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25">
+      <c r="A210" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25">
+      <c r="A211" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25">
+      <c r="A212" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25">
+      <c r="A213" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25">
+      <c r="A214" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25">
+      <c r="A215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25">
+      <c r="A216" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25">
+      <c r="A217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25">
+      <c r="A218" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25">
+      <c r="A219" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25">
+      <c r="A220" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25">
+      <c r="A221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25">
+      <c r="A222" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25">
+      <c r="A223" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B223" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25">
+      <c r="A224" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25">
+      <c r="A225" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25">
+      <c r="A226" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25">
+      <c r="A227" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="s">
+      <c r="B227" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25">
+      <c r="A228" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25">
+      <c r="A229" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25">
+      <c r="A230" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G112" s="6" t="s">
+      <c r="B230" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25">
+      <c r="A231" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B231" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25">
+      <c r="A232" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B232" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25">
+      <c r="A233" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B233" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25">
+      <c r="A234" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25">
+      <c r="A235" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25">
+      <c r="A236" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="s">
+      <c r="B236" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25">
+      <c r="A237" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25">
+      <c r="A238" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25">
+      <c r="A239" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25">
+      <c r="A240" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B114" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B240" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25">
+      <c r="A241" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25">
+      <c r="A242" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25">
+      <c r="A243" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25">
+      <c r="A244" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25">
+      <c r="A245" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25">
+      <c r="A246" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25">
+      <c r="A247" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25">
+      <c r="A248" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25">
+      <c r="A249" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25">
+      <c r="A250" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25">
+      <c r="A251" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25">
+      <c r="A252" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25">
+      <c r="A253" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25">
+      <c r="A254" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25">
+      <c r="A255" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25">
+      <c r="A256" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B256" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25">
+      <c r="A257" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B257" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25">
+      <c r="A258" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25">
+      <c r="A259" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25">
+      <c r="A260" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B260" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25">
+      <c r="A261" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B261" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25">
+      <c r="A262" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B262" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25">
+      <c r="A263" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B263" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25">
+      <c r="A264" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25">
+      <c r="A265" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B265" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25">
+      <c r="A266" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B266" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25">
+      <c r="A267" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B267" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25">
+      <c r="A268" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B270" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="A271" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>variable</t>
   </si>
@@ -102,334 +102,385 @@
     <t>children_in_poverty</t>
   </si>
   <si>
+    <t>gini_coefficient</t>
+  </si>
+  <si>
+    <t>inadequate_social_support</t>
+  </si>
+  <si>
+    <t>single-parent_households</t>
+  </si>
+  <si>
+    <t>violent_crime</t>
+  </si>
+  <si>
+    <t>homicides</t>
+  </si>
+  <si>
+    <t>air_pollution-particulate_matter_days</t>
+  </si>
+  <si>
+    <t>air_pollution-ozone_days</t>
+  </si>
+  <si>
+    <t>access_to_healthy_foods</t>
+  </si>
+  <si>
+    <t>excessive_drinking</t>
+  </si>
+  <si>
+    <t>primary_care_physicians</t>
+  </si>
+  <si>
+    <t>mammography_screening</t>
+  </si>
+  <si>
+    <t>some_college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children_in_single-parent_households </t>
+  </si>
+  <si>
+    <t>access_to_recreational_facilities</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>%_below_18_years_of_age</t>
+  </si>
+  <si>
+    <t>%_65_and_older</t>
+  </si>
+  <si>
+    <t>%_non-hispanic_african_american</t>
+  </si>
+  <si>
+    <t>%_american_indian_and_alaskan_native</t>
+  </si>
+  <si>
+    <t>%_asian</t>
+  </si>
+  <si>
+    <t>%_native_hawaiian/other_pacific_islander</t>
+  </si>
+  <si>
+    <t>%_hispanic</t>
+  </si>
+  <si>
+    <t>%_not_proficient_in_english</t>
+  </si>
+  <si>
+    <t>%_females</t>
+  </si>
+  <si>
+    <t>%_rural</t>
+  </si>
+  <si>
+    <t>diabetes_prevalence</t>
+  </si>
+  <si>
+    <t>hiv_prevalence</t>
+  </si>
+  <si>
+    <t>physical_inactivity</t>
+  </si>
+  <si>
+    <t>mental_health_providers</t>
+  </si>
+  <si>
+    <t>median_household_income</t>
+  </si>
+  <si>
+    <t>high_housing_costs</t>
+  </si>
+  <si>
+    <t>children_eligible_for_free_lunch</t>
+  </si>
+  <si>
+    <t>illiteracy</t>
+  </si>
+  <si>
+    <t>driving_alone_to_work</t>
+  </si>
+  <si>
+    <t>uninsured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since state data sources were used for Alaska, Alabama, Arkansas, California, Connecticut, Florida, Hawaii, Idaho, Kentucky, Montana, North Dakota, New Jersey, Oklahoma, South Dakota, and Tennessee, these states have more recent data available.</t>
+  </si>
+  <si>
+    <t>children_in_single-parent_households</t>
+  </si>
+  <si>
+    <t>limited_access_to_healthy_foods</t>
+  </si>
+  <si>
+    <t>fast_food_restaurants</t>
+  </si>
+  <si>
+    <t>health_care_costs</t>
+  </si>
+  <si>
+    <t>could_not_see_doctor_due_to_cost</t>
+  </si>
+  <si>
+    <t>dentists</t>
+  </si>
+  <si>
+    <t>liquor_store_density</t>
+  </si>
+  <si>
+    <t>primary_care_provider_rate</t>
+  </si>
+  <si>
+    <t>food_environment_index</t>
+  </si>
+  <si>
+    <t>access_to_exercise_opportunities</t>
+  </si>
+  <si>
+    <t>alcohol-impaired_driving_deaths</t>
+  </si>
+  <si>
+    <t>injury_deaths</t>
+  </si>
+  <si>
+    <t>air_pollution_-_particulate_matter</t>
+  </si>
+  <si>
+    <t>drinking_water_violations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It notes fiscal year 2012 to fiscal year 2013. When exactly the fiscal year starts and ends is unclear.</t>
+  </si>
+  <si>
+    <t>severe_housing_problems</t>
+  </si>
+  <si>
+    <t>long_commute_-_driving_alone</t>
+  </si>
+  <si>
+    <t>%_non-hispanic_white</t>
+  </si>
+  <si>
+    <t>premature_age-adjusted_mortality</t>
+  </si>
+  <si>
+    <t>child_mortality</t>
+  </si>
+  <si>
+    <t>infant_mortality</t>
+  </si>
+  <si>
+    <t>drug_poisoning_deaths</t>
+  </si>
+  <si>
+    <t>food_insecurity</t>
+  </si>
+  <si>
+    <t>uninsured_children</t>
+  </si>
+  <si>
+    <t>other_primary_care_providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No years listed in documentation. States years of availability are state-specific.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the 2013 release, they note it is fiscal year 2012. Which fiscal year they are referring to is unclear.</t>
+  </si>
+  <si>
+    <t>access_to_parks</t>
+  </si>
+  <si>
+    <t>smoking_during_pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only available for the state of Wisconsin. No documentation available.</t>
+  </si>
+  <si>
+    <t>motor_vehicle_crash_occupancy_rate</t>
+  </si>
+  <si>
+    <t>on-road_motor_vehicle_crash-related_er_visits</t>
+  </si>
+  <si>
+    <t>off-road_motor_vehicle_crash-related_er_visits</t>
+  </si>
+  <si>
+    <t>no_recent_dental_visit</t>
+  </si>
+  <si>
+    <t>did_not_get_needed_health_care</t>
+  </si>
+  <si>
+    <t>lead_poisoned_children</t>
+  </si>
+  <si>
+    <t>municipal_water_(wi)</t>
+  </si>
+  <si>
+    <t>contaminants_in_municipal_water_(wi)</t>
+  </si>
+  <si>
+    <t>obese_adults_(ny)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only available for the state of New York. No documentation available.</t>
+  </si>
+  <si>
+    <t>no_leisure_time_physical_activity_(ny)</t>
+  </si>
+  <si>
+    <t>binge_drinking_(ny)</t>
+  </si>
+  <si>
+    <t>excessive_drinking_(ny)</t>
+  </si>
+  <si>
+    <t>adult_smoking_(ny)</t>
+  </si>
+  <si>
+    <t>fair_or_poor_health_(ny)</t>
+  </si>
+  <si>
+    <t>dental_visit_within_the_past_year_(ny)</t>
+  </si>
+  <si>
+    <t>adult_smoking_(fl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only available for the state of Florida. No documentation available.</t>
+  </si>
+  <si>
+    <t>overweight_or_obese_adults_(fl)</t>
+  </si>
+  <si>
+    <t>fruit_and_vegetable_consumption_(fl)</t>
+  </si>
+  <si>
+    <t>adults_engaging_in_moderate_physical_activity_(f</t>
+  </si>
+  <si>
+    <t>excessive_drinking_(fl)</t>
+  </si>
+  <si>
+    <t>adults_who_have_a_personal_doctor_(fl)</t>
+  </si>
+  <si>
+    <t>insured_adults_(fl)</t>
+  </si>
+  <si>
+    <t>communicable_disease</t>
+  </si>
+  <si>
+    <t>coronary_heart_disease_hospitalizations</t>
+  </si>
+  <si>
+    <t>cerebrovascular_disease_hospitalizations</t>
+  </si>
+  <si>
+    <t>self-inflicted_injury_hospitalizations</t>
+  </si>
+  <si>
+    <t>cancer_incidence</t>
+  </si>
+  <si>
+    <t>alcohol-related_hospitalizations</t>
+  </si>
+  <si>
+    <t>drug_arrests</t>
+  </si>
+  <si>
+    <t>childhood_immunizations</t>
+  </si>
+  <si>
+    <t>local_health_department_staffing</t>
+  </si>
+  <si>
+    <t>dental_utilization</t>
+  </si>
+  <si>
+    <t>cholesterol_screening</t>
+  </si>
+  <si>
+    <t>reading_proficiency</t>
+  </si>
+  <si>
+    <t>w-2_enrollment</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>older_adults_living_alone</t>
+  </si>
+  <si>
+    <t>hate_crimes</t>
+  </si>
+  <si>
+    <t>child_abuse</t>
+  </si>
+  <si>
+    <t>injury_hospitalizations</t>
+  </si>
+  <si>
+    <t>fall_fatalities_65+</t>
+  </si>
+  <si>
+    <t>year_structure_built</t>
+  </si>
+  <si>
+    <t>male_population_0-17</t>
+  </si>
+  <si>
+    <t>male_population_18-44</t>
+  </si>
+  <si>
+    <t>male_population_45-64</t>
+  </si>
+  <si>
+    <t>male_population_65+</t>
+  </si>
+  <si>
+    <t>total_male_population</t>
+  </si>
+  <si>
+    <t>female_population_0-17</t>
+  </si>
+  <si>
+    <t>female_population_18-44</t>
+  </si>
+  <si>
+    <t>female_population_45-64</t>
+  </si>
+  <si>
+    <t>female_population_65+</t>
+  </si>
+  <si>
+    <t>total_female_population</t>
+  </si>
+  <si>
+    <t>population_growth</t>
+  </si>
+  <si>
+    <t>breastfeeding</t>
+  </si>
+  <si>
+    <t>influenza_immunizations_65+</t>
+  </si>
+  <si>
+    <t>cervical_cancer_screening</t>
+  </si>
+  <si>
+    <t>colon_cancer_screening</t>
+  </si>
+  <si>
     <t>income_inequality</t>
   </si>
   <si>
-    <t>inadequate_social_support</t>
-  </si>
-  <si>
-    <t>single-parent_households</t>
-  </si>
-  <si>
-    <t>violent_crime</t>
-  </si>
-  <si>
-    <t>homicides</t>
-  </si>
-  <si>
-    <t>air_pollution_-_particulate_matter</t>
-  </si>
-  <si>
-    <t>air_pollution-ozone_days</t>
-  </si>
-  <si>
-    <t>access_to_healthy_foods</t>
-  </si>
-  <si>
-    <t>excessive_drinking</t>
-  </si>
-  <si>
-    <t>primary_care_physicians</t>
-  </si>
-  <si>
-    <t>mammography_screening</t>
-  </si>
-  <si>
-    <t>some_college</t>
-  </si>
-  <si>
-    <t xml:space="preserve">children_in_single-parent_households </t>
-  </si>
-  <si>
-    <t>access_to_recreational_facilities</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>%_below_18_years_of_age</t>
-  </si>
-  <si>
-    <t>%_65_and_older</t>
-  </si>
-  <si>
-    <t>%_non-hispanic_african_american</t>
-  </si>
-  <si>
-    <t>%_american_indian_and_alaskan_native</t>
-  </si>
-  <si>
-    <t>%_asian</t>
-  </si>
-  <si>
-    <t>%_native_hawaiian/other_pacific_islander</t>
-  </si>
-  <si>
-    <t>%_hispanic</t>
-  </si>
-  <si>
-    <t>%_not_proficient_in_english</t>
-  </si>
-  <si>
-    <t>%_females</t>
-  </si>
-  <si>
-    <t>%_rural</t>
-  </si>
-  <si>
-    <t>diabetes_prevalence</t>
-  </si>
-  <si>
-    <t>hiv_prevalence</t>
-  </si>
-  <si>
-    <t>physical_inactivity</t>
-  </si>
-  <si>
-    <t>mental_health_providers</t>
-  </si>
-  <si>
-    <t>median_household_income</t>
-  </si>
-  <si>
-    <t>high_housing_costs</t>
-  </si>
-  <si>
-    <t>children_eligible_for_free_lunch</t>
-  </si>
-  <si>
-    <t>illiteracy</t>
-  </si>
-  <si>
-    <t>driving_alone_to_work</t>
-  </si>
-  <si>
-    <t>uninsured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since state data sources were used for Alaska, Alabama, Arkansas, California, Connecticut, Florida, Hawaii, Idaho, Kentucky, Montana, North Dakota, New Jersey, Oklahoma, South Dakota, and Tennessee, these states have more recent data available.</t>
-  </si>
-  <si>
-    <t>children_in_single-parent_households</t>
-  </si>
-  <si>
-    <t>limited_access_to_healthy_foods</t>
-  </si>
-  <si>
-    <t>fast_food_restaurants</t>
-  </si>
-  <si>
-    <t>health_care_costs</t>
-  </si>
-  <si>
-    <t>could_not_see_doctor_due_to_cost</t>
-  </si>
-  <si>
-    <t>dentists</t>
-  </si>
-  <si>
-    <t>liquor_store_density</t>
-  </si>
-  <si>
-    <t>primary_care_provider_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No years listed in documentation. States years of availability are state-specific.</t>
-  </si>
-  <si>
-    <t>drinking_water_violations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the 2013 release, they note it is fiscal year 2012. Which fiscal year they are referring to is unclear.</t>
-  </si>
-  <si>
-    <t>%_non-hispanic_white</t>
-  </si>
-  <si>
-    <t>premature_age-adjusted_mortality</t>
-  </si>
-  <si>
-    <t>child_mortality</t>
-  </si>
-  <si>
-    <t>infant_mortality</t>
-  </si>
-  <si>
-    <t>uninsured_children</t>
-  </si>
-  <si>
-    <t>access_to_parks</t>
-  </si>
-  <si>
-    <t>smoking_during_pregnancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only available for the state of Wisconsin. No documentation available.</t>
-  </si>
-  <si>
-    <t>motor_vehicle_crash_occupancy_rate</t>
-  </si>
-  <si>
-    <t>on-road_motor_vehicle_crash-related_er_visits</t>
-  </si>
-  <si>
-    <t>off-road_motor_vehicle_crash-related_er_visits</t>
-  </si>
-  <si>
-    <t>no_recent_dental_visit</t>
-  </si>
-  <si>
-    <t>did_not_get_needed_health_care</t>
-  </si>
-  <si>
-    <t>lead_poisoned_children</t>
-  </si>
-  <si>
-    <t>municipal_water_(wi)</t>
-  </si>
-  <si>
-    <t>contaminants_in_municipal_water_(wi)</t>
-  </si>
-  <si>
-    <t>obese_adults_(ny)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only available for the state of New York. No documentation available.</t>
-  </si>
-  <si>
-    <t>no_leisure_time_physical_activity_(ny)</t>
-  </si>
-  <si>
-    <t>binge_drinking_(ny)</t>
-  </si>
-  <si>
-    <t>excessive_drinking_(ny)</t>
-  </si>
-  <si>
-    <t>adult_smoking_(ny)</t>
-  </si>
-  <si>
-    <t>fair_or_poor_health_(ny)</t>
-  </si>
-  <si>
-    <t>dental_visit_within_the_past_year_(ny)</t>
-  </si>
-  <si>
-    <t>adult_smoking_(fl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only available for the state of Florida. No documentation available.</t>
-  </si>
-  <si>
-    <t>overweight_or_obese_adults_(fl)</t>
-  </si>
-  <si>
-    <t>fruit_and_vegetable_consumption_(fl)</t>
-  </si>
-  <si>
-    <t>adults_engaging_in_moderate_physical_activity_(f</t>
-  </si>
-  <si>
-    <t>excessive_drinking_(fl)</t>
-  </si>
-  <si>
-    <t>adults_who_have_a_personal_doctor_(fl)</t>
-  </si>
-  <si>
-    <t>insured_adults_(fl)</t>
-  </si>
-  <si>
-    <t>communicable_disease</t>
-  </si>
-  <si>
-    <t>coronary_heart_disease_hospitalizations</t>
-  </si>
-  <si>
-    <t>cerebrovascular_disease_hospitalizations</t>
-  </si>
-  <si>
-    <t>inflicted_injury_hospitalizations</t>
-  </si>
-  <si>
-    <t>cancer_incidence</t>
-  </si>
-  <si>
-    <t>alcohol-related_hospitalizations</t>
-  </si>
-  <si>
-    <t>drug_arrests</t>
-  </si>
-  <si>
-    <t>childhood_immunizations</t>
-  </si>
-  <si>
-    <t>local_health_department_staffing</t>
-  </si>
-  <si>
-    <t>dental_utilization</t>
-  </si>
-  <si>
-    <t>cholesterol_screening</t>
-  </si>
-  <si>
-    <t>reading_proficiency</t>
-  </si>
-  <si>
-    <t>w-2_enrollment</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
-    <t>older_adults_living_alone</t>
-  </si>
-  <si>
-    <t>hate_crimes</t>
-  </si>
-  <si>
-    <t>child_abuse</t>
-  </si>
-  <si>
-    <t>injury_hospitalizations</t>
-  </si>
-  <si>
-    <t>fall_fatalities_65+</t>
-  </si>
-  <si>
-    <t>year_structure_built</t>
-  </si>
-  <si>
-    <t>male_population_0-17</t>
-  </si>
-  <si>
-    <t>male_population_18-44</t>
-  </si>
-  <si>
-    <t>male_population_45-64</t>
-  </si>
-  <si>
-    <t>male_population_65+</t>
-  </si>
-  <si>
-    <t>total_male_population</t>
-  </si>
-  <si>
-    <t>female_population_0-17</t>
-  </si>
-  <si>
-    <t>female_population_18-44</t>
-  </si>
-  <si>
-    <t>female_population_45-64</t>
-  </si>
-  <si>
-    <t>female_population_65+</t>
-  </si>
-  <si>
-    <t>total_female_population</t>
-  </si>
-  <si>
-    <t>population_growth</t>
+    <t>social_associations</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1386,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
@@ -1413,7 +1464,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1">
@@ -1651,7 +1702,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="1">
@@ -1664,7 +1715,7 @@
         <v>2008</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42">
@@ -1859,7 +1910,7 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B53" s="1">
@@ -2642,7 +2693,7 @@
       <c r="G101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B102" s="1">
@@ -3137,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C135" s="1">
         <v>2008</v>
@@ -3151,13 +3202,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C136" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D136" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="137" ht="14.25">
@@ -3165,13 +3216,13 @@
         <v>9</v>
       </c>
       <c r="B137" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C137" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D137" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="138" ht="14.25">
@@ -3179,13 +3230,13 @@
         <v>10</v>
       </c>
       <c r="B138" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C138" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D138" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="139" ht="14.25">
@@ -3193,13 +3244,13 @@
         <v>11</v>
       </c>
       <c r="B139" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C139" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D139" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="140" ht="14.25">
@@ -3207,13 +3258,13 @@
         <v>12</v>
       </c>
       <c r="B140" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C140" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D140" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="141" ht="14.25">
@@ -3221,209 +3272,192 @@
         <v>13</v>
       </c>
       <c r="B141" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C141" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D141" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B142" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C142" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D142" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B143" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C143" s="1">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D143" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B144" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C144" s="1">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D144" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B145" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C145" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D145" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B146" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C146" s="1">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="D146" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B147" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C147" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D147" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B148" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C148" s="1">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D148" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E148" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F148" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>14</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B149" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C149" s="1">
         <v>2011</v>
       </c>
       <c r="D149" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E149" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F149" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>14</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B150" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C150" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D150" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B151" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C151" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D151" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B152" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C152" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D152" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B153" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="G153" s="7" t="s">
-        <v>73</v>
+        <v>2014</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B154" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C154" s="1">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D154" s="1">
         <v>2011</v>
@@ -3431,10 +3465,10 @@
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B155" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C155" s="1">
         <v>2011</v>
@@ -3445,432 +3479,409 @@
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B156" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C156" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D156" s="1">
         <v>2011</v>
       </c>
+      <c r="G156" s="2"/>
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B157" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C157" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D157" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B158" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C158" s="1">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D158" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B159" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C159" s="1">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D159" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B160" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C160" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D160" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B161" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C161" s="1">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D161" s="1">
         <v>2012</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B162" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C162" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D162" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="1" t="s">
-        <v>66</v>
+      <c r="A163" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B163" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C163" s="1">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D163" s="1">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B164" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C164" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D164" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B165" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C165" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D165" s="1">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B166" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C166" s="1">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D166" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B167" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C167" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D167" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B168" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C168" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D168" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="169" ht="14.25">
       <c r="A169" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B169" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C169" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D169" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="170" ht="14.25">
       <c r="A170" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B170" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C170" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D170" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B171" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C171" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D171" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B172" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C172" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D172" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+        <v>2012</v>
+      </c>
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B173" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C173" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D173" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+        <v>2012</v>
+      </c>
     </row>
     <row r="174" ht="14.25">
       <c r="A174" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B174" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C174" s="1">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D174" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+        <v>2012</v>
+      </c>
     </row>
     <row r="175" ht="14.25">
       <c r="A175" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B175" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C175" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D175" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="176" ht="14.25">
       <c r="A176" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B176" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C176" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D176" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B177" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C177" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D177" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B178" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C178" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D178" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B179" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C179" s="1">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D179" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="180" ht="14.25">
-      <c r="A180" s="5" t="s">
-        <v>78</v>
+      <c r="A180" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B180" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C180" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D180" s="1">
         <v>2010</v>
-      </c>
-      <c r="E180" s="1">
-        <v>2006</v>
-      </c>
-      <c r="F180" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="181" ht="14.25">
       <c r="A181" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B181" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C181" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D181" s="1">
         <v>2010</v>
-      </c>
-      <c r="E181" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F181" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="182" ht="14.25">
       <c r="A182" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B182" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C182" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D182" s="1">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="5" t="s">
-        <v>68</v>
+      <c r="A183" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B183" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C183" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D183" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="184" ht="14.25">
       <c r="A184" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B184" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C184" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D184" s="1">
         <v>2010</v>
@@ -3878,55 +3889,55 @@
     </row>
     <row r="185" ht="14.25">
       <c r="A185" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B185" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C185" s="1">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D185" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="186" ht="14.25">
       <c r="A186" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B186" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C186" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D186" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="187" ht="14.25">
       <c r="A187" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B187" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C187" s="1">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D187" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="188" ht="14.25">
       <c r="A188" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B188" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C188" s="1">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D188" s="1">
         <v>2011</v>
@@ -3934,22 +3945,22 @@
     </row>
     <row r="189" ht="14.25">
       <c r="A189" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B189" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C189" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D189" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E189" s="1">
         <v>2010</v>
       </c>
       <c r="F189" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>14</v>
@@ -3957,27 +3968,27 @@
     </row>
     <row r="190" ht="14.25">
       <c r="A190" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B190" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C190" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D190" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="191" ht="14.25">
       <c r="A191" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B191" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C191" s="1">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D191" s="1">
         <v>2011</v>
@@ -3985,1128 +3996,3844 @@
     </row>
     <row r="192" ht="14.25">
       <c r="A192" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B192" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C192" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D192" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="193" ht="14.25">
       <c r="A193" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B193" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="G193" s="2" t="s">
-        <v>83</v>
+        <v>2014</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="194" ht="14.25">
       <c r="A194" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B194" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>83</v>
+        <v>2014</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2013</v>
       </c>
     </row>
     <row r="195" ht="14.25">
       <c r="A195" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B195" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>83</v>
+        <v>2014</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="196" ht="14.25">
       <c r="A196" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B196" s="1">
-        <v>2010</v>
+        <v>2014</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E196" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F196" s="1">
+        <v>2011</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" ht="14.25">
       <c r="A197" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B197" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>83</v>
+        <v>2014</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="198" ht="14.25">
       <c r="A198" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B198" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="199" ht="14.25">
-      <c r="A199" s="5" t="s">
-        <v>89</v>
+      <c r="A199" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B199" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="200" ht="14.25">
       <c r="A200" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B200" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="201" ht="14.25">
       <c r="A201" s="1" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B201" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="202" ht="14.25">
       <c r="A202" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B202" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="203" ht="14.25">
       <c r="A203" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B203" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="204" ht="14.25">
       <c r="A204" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B204" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C204" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="205" ht="14.25">
       <c r="A205" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B205" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="206" ht="14.25">
       <c r="A206" s="1" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B206" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="207" ht="14.25">
       <c r="A207" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B207" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C207" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="208" ht="14.25">
-      <c r="A208" s="5" t="s">
-        <v>89</v>
+      <c r="A208" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B208" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C208" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="209" ht="14.25">
       <c r="A209" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B209" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B210" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="211" ht="14.25">
       <c r="A211" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B211" s="1">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F211" s="1">
+        <v>2010</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B212" s="1">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="C212" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F212" s="1">
+        <v>2010</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B213" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>93</v>
+        <v>2013</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D213" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="214" ht="14.25">
       <c r="A214" s="1" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B214" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>93</v>
+        <v>2013</v>
+      </c>
+      <c r="C214" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="215" ht="14.25">
       <c r="A215" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B215" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>93</v>
+        <v>2013</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="216" ht="14.25">
       <c r="A216" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B216" s="1">
-        <v>2011</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
       <c r="G216" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" ht="14.25">
       <c r="A217" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B217" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>93</v>
+        <v>2013</v>
+      </c>
+      <c r="C217" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="218" ht="14.25">
       <c r="A218" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B218" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>101</v>
+        <v>2013</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="219" ht="14.25">
       <c r="A219" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B219" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>101</v>
+        <v>2013</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="220" ht="14.25">
       <c r="A220" s="1" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B220" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>101</v>
+        <v>2013</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="221" ht="14.25">
       <c r="A221" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B221" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>101</v>
+        <v>2013</v>
+      </c>
+      <c r="C221" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="222" ht="14.25">
       <c r="A222" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B222" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>101</v>
+        <v>2013</v>
+      </c>
+      <c r="C222" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D222" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="223" ht="14.25">
       <c r="A223" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B223" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="2" t="s">
-        <v>101</v>
+        <v>2013</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2008</v>
       </c>
     </row>
     <row r="224" ht="14.25">
       <c r="A224" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B224" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+        <v>2013</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D224" s="1">
+        <v>2012</v>
+      </c>
       <c r="G224" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="225" ht="14.25">
       <c r="A225" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B225" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="226" ht="14.25">
       <c r="A226" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B226" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D226" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="227" ht="14.25">
       <c r="A227" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B227" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D227" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="228" ht="14.25">
       <c r="A228" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B228" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="229" ht="14.25">
       <c r="A229" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B229" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="230" ht="14.25">
       <c r="A230" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B230" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="231" ht="14.25">
-      <c r="A231" s="5" t="s">
-        <v>89</v>
+      <c r="A231" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B231" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D231" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="232" ht="14.25">
       <c r="A232" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B232" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="233" ht="14.25">
       <c r="A233" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B233" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="2" t="s">
-        <v>83</v>
+        <v>2013</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D233" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="234" ht="14.25">
       <c r="A234" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B234" s="1">
         <v>2013</v>
       </c>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="2" t="s">
-        <v>83</v>
+      <c r="C234" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D234" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="235" ht="14.25">
       <c r="A235" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B235" s="1">
         <v>2013</v>
       </c>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="C235" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2011</v>
+      </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="2" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B236" s="1">
         <v>2013</v>
       </c>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="C236" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D236" s="1">
+        <v>2011</v>
+      </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="2" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="237" ht="14.25">
       <c r="A237" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B237" s="1">
         <v>2013</v>
       </c>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="C237" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D237" s="1">
+        <v>2011</v>
+      </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="2" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B238" s="1">
         <v>2013</v>
       </c>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="2" t="s">
-        <v>83</v>
+      <c r="C238" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="239" ht="14.25">
       <c r="A239" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B239" s="1">
         <v>2013</v>
       </c>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="2" t="s">
-        <v>83</v>
+      <c r="C239" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="240" ht="14.25">
-      <c r="A240" s="5" t="s">
-        <v>89</v>
+      <c r="A240" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B240" s="1">
         <v>2013</v>
       </c>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="2" t="s">
-        <v>83</v>
+      <c r="C240" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="241" ht="14.25">
       <c r="A241" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B241" s="1">
         <v>2013</v>
       </c>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="2" t="s">
-        <v>83</v>
+      <c r="C241" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D241" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="242" ht="14.25">
       <c r="A242" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B242" s="1">
         <v>2013</v>
       </c>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="2" t="s">
-        <v>83</v>
+      <c r="C242" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D242" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="243" ht="14.25">
       <c r="A243" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B243" s="1">
         <v>2013</v>
       </c>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="C243" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E243" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F243" s="1">
+        <v>2010</v>
+      </c>
       <c r="G243" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" ht="14.25">
       <c r="A244" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B244" s="1">
         <v>2013</v>
       </c>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+      <c r="C244" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E244" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F244" s="1">
+        <v>2010</v>
+      </c>
       <c r="G244" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" ht="14.25">
       <c r="A245" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B245" s="1">
         <v>2013</v>
       </c>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="2" t="s">
-        <v>83</v>
+      <c r="C245" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D245" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="246" ht="14.25">
       <c r="A246" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B246" s="1">
         <v>2013</v>
       </c>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="2" t="s">
-        <v>83</v>
+      <c r="C246" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D246" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="247" ht="14.25">
       <c r="A247" s="1" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B247" s="1">
         <v>2013</v>
       </c>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="2" t="s">
-        <v>83</v>
+      <c r="C247" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="248" ht="14.25">
       <c r="A248" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B248" s="1">
         <v>2013</v>
       </c>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="2" t="s">
-        <v>83</v>
+      <c r="C248" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D248" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="249" ht="14.25">
       <c r="A249" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B249" s="1">
         <v>2013</v>
       </c>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="2" t="s">
-        <v>83</v>
+      <c r="C249" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="250" ht="14.25">
       <c r="A250" s="1" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B250" s="1">
         <v>2013</v>
       </c>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="2" t="s">
-        <v>83</v>
+      <c r="C250" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D250" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="251" ht="14.25">
       <c r="A251" s="1" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B251" s="1">
         <v>2013</v>
       </c>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="2" t="s">
-        <v>83</v>
+      <c r="C251" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D251" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="252" ht="14.25">
       <c r="A252" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B252" s="1">
         <v>2013</v>
       </c>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="C252" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E252" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2011</v>
+      </c>
       <c r="G252" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" ht="14.25">
       <c r="A253" s="1" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B253" s="1">
         <v>2013</v>
       </c>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="2" t="s">
-        <v>83</v>
+      <c r="C253" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D253" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="254" ht="14.25">
       <c r="A254" s="1" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B254" s="1">
         <v>2013</v>
       </c>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="2" t="s">
-        <v>83</v>
+      <c r="C254" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="255" ht="14.25">
       <c r="A255" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B255" s="1">
         <v>2013</v>
       </c>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="2" t="s">
-        <v>83</v>
+      <c r="C255" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D255" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="256" ht="14.25">
       <c r="A256" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B256" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
       <c r="G256" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="257" ht="14.25">
       <c r="A257" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B257" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G257" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B258" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G258" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="259" ht="14.25">
       <c r="A259" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B259" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G259" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" ht="14.25">
       <c r="A260" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B260" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G260" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B261" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G261" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="1" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B262" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G262" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B263" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G263" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B264" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
+        <v>2010</v>
+      </c>
       <c r="G264" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265" ht="14.25">
       <c r="A265" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B265" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B266" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267" ht="14.25">
       <c r="A267" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B267" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" ht="14.25">
       <c r="A268" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B268" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="269" ht="14.25">
       <c r="A269" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B269" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="270" ht="14.25">
       <c r="A270" s="1" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B270" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271" ht="14.25">
       <c r="A271" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B271" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="272" ht="14.25">
-      <c r="B272" s="1"/>
+      <c r="A272" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B272" s="1">
+        <v>2011</v>
+      </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="2"/>
+      <c r="G272" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="A273" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B273" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="A274" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B274" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="A275" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="A276" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="A277" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="A278" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="A279" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B279" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="A280" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="A281" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="A282" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B282" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="A283" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B283" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="A284" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B284" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B285" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="A286" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B286" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="A287" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B287" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25">
+      <c r="A288" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B288" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25">
+      <c r="A289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25">
+      <c r="A290" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B290" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25">
+      <c r="A291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B291" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25">
+      <c r="A292" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B292" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25">
+      <c r="A293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B293" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25">
+      <c r="A294" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B294" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25">
+      <c r="A295" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B295" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25">
+      <c r="A296" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B296" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25">
+      <c r="A297" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B297" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25">
+      <c r="A298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B298" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25">
+      <c r="A299" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B299" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25">
+      <c r="A300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B300" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25">
+      <c r="A301" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B301" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25">
+      <c r="A302" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B302" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25">
+      <c r="A303" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B303" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25">
+      <c r="A304" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B304" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25">
+      <c r="A305" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B305" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25">
+      <c r="A306" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B306" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25">
+      <c r="A307" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B307" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25">
+      <c r="A308" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B308" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25">
+      <c r="A309" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25">
+      <c r="A310" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B310" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25">
+      <c r="A311" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B311" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25">
+      <c r="A312" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B312" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25">
+      <c r="A313" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B313" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25">
+      <c r="A314" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B314" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25">
+      <c r="A315" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B315" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25">
+      <c r="A316" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B316" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25">
+      <c r="A317" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B317" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25">
+      <c r="A318" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25">
+      <c r="A319" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25">
+      <c r="A320" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25">
+      <c r="A321" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B321" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25">
+      <c r="A322" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25">
+      <c r="A323" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B323" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25">
+      <c r="A324" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B324" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25">
+      <c r="A325" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B325" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25">
+      <c r="A326" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B326" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25">
+      <c r="A327" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25">
+      <c r="A328" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B328" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25">
+      <c r="A329" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25">
+      <c r="A330" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25">
+      <c r="A331" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B331" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="332" ht="14.25">
+      <c r="A332" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B332" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="333" ht="14.25">
+      <c r="A333" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B333" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="334" ht="14.25">
+      <c r="A334" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B334" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="335" ht="14.25">
+      <c r="A335" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B335" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="336" ht="14.25">
+      <c r="A336" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B336" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="337" ht="14.25">
+      <c r="A337" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B337" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="338" ht="14.25">
+      <c r="A338" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B338" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="339" ht="14.25">
+      <c r="A339" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="340" ht="14.25">
+      <c r="A340" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B340" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="341" ht="14.25">
+      <c r="A341" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="342" ht="14.25">
+      <c r="A342" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B342" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="343" ht="14.25">
+      <c r="A343" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B343" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="344" ht="14.25">
+      <c r="A344" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B344" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="345" ht="14.25">
+      <c r="A345" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B345" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="346" ht="14.25">
+      <c r="A346" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B346" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="347" ht="14.25">
+      <c r="A347" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B347" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25">
+      <c r="A348" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B348" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="349" ht="14.25">
+      <c r="A349" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="350" ht="14.25">
+      <c r="A350" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B350" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="351" ht="14.25">
+      <c r="A351" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B351" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="352" ht="14.25">
+      <c r="A352" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B352" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="353" ht="14.25">
+      <c r="A353" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B353" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="354" ht="14.25">
+      <c r="A354" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B354" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="355" ht="14.25">
+      <c r="A355" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B355" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="356" ht="14.25">
+      <c r="A356" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B356" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="357" ht="14.25">
+      <c r="A357" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B357" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="358" ht="14.25">
+      <c r="A358" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B358" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="359" ht="14.25">
+      <c r="A359" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B359" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="360" ht="14.25">
+      <c r="A360" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="361" ht="14.25">
+      <c r="A361" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B361" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="362" ht="14.25">
+      <c r="A362" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B362" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25">
+      <c r="A363" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B363" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25">
+      <c r="A364" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B364" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25">
+      <c r="A365" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B365" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25">
+      <c r="A366" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B366" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25">
+      <c r="A367" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B367" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="368" ht="14.25">
+      <c r="A368" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B368" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="369" ht="14.25">
+      <c r="A369" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B369" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="370" ht="14.25">
+      <c r="A370" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B370" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="371" ht="14.25">
+      <c r="A371" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B371" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="372" ht="14.25">
+      <c r="A372" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B372" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25">
+      <c r="A373" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="374" ht="14.25">
+      <c r="A374" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B374" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="375" ht="14.25">
+      <c r="A375" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B375" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="G375" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="376" ht="14.25">
+      <c r="A376" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C376" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D376" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="377" ht="14.25">
+      <c r="A377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B377" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C377" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D377" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25">
+      <c r="A378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C378" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D378" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25">
+      <c r="A379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C379" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D379" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="380" ht="14.25">
+      <c r="A380" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B380" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C380" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D380" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="381" ht="14.25">
+      <c r="A381" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C381" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D381" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="382" ht="14.25">
+      <c r="A382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C382" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D382" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="383" ht="14.25">
+      <c r="A383" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B383" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C383" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D383" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25">
+      <c r="A384" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B384" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C384" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D384" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="385" ht="14.25">
+      <c r="A385" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B385" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C385" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D385" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25">
+      <c r="A386" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B386" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C386" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D386" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25">
+      <c r="A387" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C387" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D387" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25">
+      <c r="A388" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C388" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D388" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25">
+      <c r="A389" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C389" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D389" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="390" ht="14.25">
+      <c r="A390" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B390" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C390" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D390" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="391" ht="14.25">
+      <c r="A391" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B391" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C391" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D391" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25">
+      <c r="A392" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B392" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C392" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D392" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="393" ht="14.25">
+      <c r="A393" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B393" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C393" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D393" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25">
+      <c r="A394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B394" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C394" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D394" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25">
+      <c r="A395" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B395" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C395" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D395" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="396" ht="14.25">
+      <c r="A396" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B396" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C396" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D396" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="397" ht="14.25">
+      <c r="A397" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B397" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C397" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D397" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25">
+      <c r="A398" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B398" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C398" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D398" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="399" ht="14.25">
+      <c r="A399" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B399" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C399" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D399" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25">
+      <c r="A400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B400" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C400" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D400" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="401" ht="14.25">
+      <c r="A401" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B401" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C401" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D401" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="402" ht="14.25">
+      <c r="A402" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B402" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C402" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D402" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25">
+      <c r="A403" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B403" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C403" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D403" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="404" ht="14.25">
+      <c r="A404" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B404" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C404" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D404" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25">
+      <c r="A405" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B405" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C405" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D405" s="6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25">
+      <c r="A406" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B406" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C406" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D406" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25">
+      <c r="A407" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B407" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C407" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D407" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G407" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25">
+      <c r="A408" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C408" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D408" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25">
+      <c r="A409" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B409" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C409" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D409" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25">
+      <c r="A410" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B410" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C410" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D410" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25">
+      <c r="A411" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B411" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C411" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D411" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25">
+      <c r="A412" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B412" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C412" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D412" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="413" ht="14.25">
+      <c r="A413" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B413" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C413" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D413" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="414" ht="14.25">
+      <c r="A414" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B414" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C414" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D414" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25">
+      <c r="A415" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B415" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C415" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D415" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25">
+      <c r="A416" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B416" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C416" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D416" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25">
+      <c r="A417" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B417" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C417" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D417" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25">
+      <c r="A418" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B418" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C418" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D418" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25">
+      <c r="A419" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C419" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D419" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25">
+      <c r="A420" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B420" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C420" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D420" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25">
+      <c r="A421" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B421" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C421" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D421" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25">
+      <c r="A422" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B422" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C422" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D422" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25">
+      <c r="A423" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B423" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C423" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D423" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25">
+      <c r="A424" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B424" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C424" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D424" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25">
+      <c r="A425" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B425" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C425" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D425" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25">
+      <c r="A426" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B426" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C426" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D426" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25">
+      <c r="A427" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C427" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D427" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25">
+      <c r="A428" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B428" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C428" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D428" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25">
+      <c r="A429" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B429" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C429" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D429" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25">
+      <c r="A430" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B430" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C430" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D430" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25">
+      <c r="A431" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B431" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C431" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D431" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25">
+      <c r="A432" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B432" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C432" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D432" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25">
+      <c r="A433" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B433" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C433" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D433" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25">
+      <c r="A434" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B434" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C434" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D434" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25">
+      <c r="A435" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B435" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C435" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D435" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25">
+      <c r="A436" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B436" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C436" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D436" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25">
+      <c r="A437" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C437" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D437" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25">
+      <c r="A438" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B438" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C438" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D438" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E438" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F438" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25">
+      <c r="A439" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B439" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C439" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D439" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25">
+      <c r="A440" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B440" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25">
+      <c r="A441" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B441" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25">
+      <c r="A442" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B442" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25">
+      <c r="A443" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B443" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25">
+      <c r="A444" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B444" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25">
+      <c r="A445" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B445" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25">
+      <c r="A446" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B446" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25">
+      <c r="A447" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B447" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25">
+      <c r="A448" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B448" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25">
+      <c r="A449" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B449" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25">
+      <c r="A450" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B450" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25">
+      <c r="A451" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B451" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25">
+      <c r="A452" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B452" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25">
+      <c r="A453" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B453" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25">
+      <c r="A454" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B454" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25">
+      <c r="A455" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B455" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25">
+      <c r="A456" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B456" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25">
+      <c r="A457" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B457" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="458" ht="14.25">
+      <c r="A458" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B458" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25">
+      <c r="A459" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B459" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25">
+      <c r="A460" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B460" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25">
+      <c r="A461" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B461" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25">
+      <c r="A462" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B462" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25">
+      <c r="A463" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B463" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25">
+      <c r="A464" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B464" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="465" ht="14.25">
+      <c r="A465" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B465" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="466" ht="14.25">
+      <c r="A466" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B466" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="467" ht="14.25">
+      <c r="A467" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B467" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="468" ht="14.25">
+      <c r="A468" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B468" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="469" ht="14.25">
+      <c r="A469" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B469" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="470" ht="14.25">
+      <c r="A470" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B470" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="471" ht="14.25">
+      <c r="A471" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B471" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="472" ht="14.25">
+      <c r="A472" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B472" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="473" ht="14.25">
+      <c r="A473" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B473" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="474" ht="14.25">
+      <c r="A474" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B474" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="475" ht="14.25">
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="G475" s="2"/>
+    </row>
+    <row r="476" ht="14.25">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="G476" s="2"/>
+    </row>
+    <row r="477" ht="14.25">
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="G477" s="2"/>
+    </row>
+    <row r="478" ht="14.25">
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="G478" s="2"/>
+    </row>
+    <row r="479" ht="14.25">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="G479" s="2"/>
+    </row>
+    <row r="480" ht="14.25">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="G480" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>variable</t>
   </si>
@@ -481,6 +481,36 @@
   </si>
   <si>
     <t>social_associations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It notes fiscal year 2013 to fiscal year 2014. When exactly the fiscal year starts and ends is unclear.</t>
+  </si>
+  <si>
+    <t>frequent_physical_distress</t>
+  </si>
+  <si>
+    <t>frequent_mental_distress</t>
+  </si>
+  <si>
+    <t>drug_overdose_deaths</t>
+  </si>
+  <si>
+    <t>drug_overdose_deaths_-_modeled</t>
+  </si>
+  <si>
+    <t>insufficient_sleep</t>
+  </si>
+  <si>
+    <t>residential_segregation_-_black/white</t>
+  </si>
+  <si>
+    <t>residential_segregation_-_non-white/white</t>
+  </si>
+  <si>
+    <t>disconnected_youth</t>
+  </si>
+  <si>
+    <t>firearm_fatalities</t>
   </si>
 </sst>
 </file>
@@ -537,13 +567,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,7 +1416,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
@@ -3577,7 +3607,7 @@
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B163" s="1">
@@ -4481,7 +4511,7 @@
       <c r="D224" s="1">
         <v>2012</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="G224" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6863,7 +6893,7 @@
       </c>
     </row>
     <row r="401" ht="14.25">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B401" s="1">
@@ -6891,7 +6921,7 @@
       </c>
     </row>
     <row r="403" ht="14.25">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B403" s="1">
@@ -6919,16 +6949,16 @@
       </c>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B405" s="1">
         <v>2015</v>
       </c>
-      <c r="C405" s="6">
+      <c r="C405" s="1">
         <v>2008</v>
       </c>
-      <c r="D405" s="6">
+      <c r="D405" s="1">
         <v>2012</v>
       </c>
     </row>
@@ -6959,7 +6989,7 @@
       <c r="D407" s="1">
         <v>2014</v>
       </c>
-      <c r="G407" s="7" t="s">
+      <c r="G407" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7806,34 +7836,2730 @@
       </c>
     </row>
     <row r="475" ht="14.25">
-      <c r="A475" s="1"/>
-      <c r="B475" s="1"/>
+      <c r="A475" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C475" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D475" s="1">
+        <v>2013</v>
+      </c>
       <c r="G475" s="2"/>
     </row>
     <row r="476" ht="14.25">
-      <c r="A476" s="1"/>
-      <c r="B476" s="1"/>
+      <c r="A476" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B476" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C476" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D476" s="1">
+        <v>2014</v>
+      </c>
       <c r="G476" s="2"/>
     </row>
     <row r="477" ht="14.25">
-      <c r="A477" s="1"/>
-      <c r="B477" s="1"/>
+      <c r="A477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B477" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C477" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D477" s="1">
+        <v>2014</v>
+      </c>
       <c r="G477" s="2"/>
     </row>
     <row r="478" ht="14.25">
-      <c r="A478" s="1"/>
-      <c r="B478" s="1"/>
+      <c r="A478" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B478" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C478" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D478" s="1">
+        <v>2014</v>
+      </c>
       <c r="G478" s="2"/>
     </row>
     <row r="479" ht="14.25">
-      <c r="A479" s="1"/>
-      <c r="B479" s="1"/>
+      <c r="A479" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B479" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C479" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D479" s="1">
+        <v>2013</v>
+      </c>
       <c r="G479" s="2"/>
     </row>
     <row r="480" ht="14.25">
-      <c r="A480" s="1"/>
-      <c r="B480" s="1"/>
+      <c r="A480" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B480" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C480" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D480" s="1">
+        <v>2014</v>
+      </c>
       <c r="G480" s="2"/>
+    </row>
+    <row r="481" ht="14.25">
+      <c r="A481" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B481" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C481" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D481" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25">
+      <c r="A482" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B482" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C482" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D482" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25">
+      <c r="A483" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B483" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C483" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D483" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25">
+      <c r="A484" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B484" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C484" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D484" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25">
+      <c r="A485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B485" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C485" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D485" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25">
+      <c r="A486" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B486" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C486" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D486" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="487" ht="14.25">
+      <c r="A487" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B487" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C487" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D487" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="488" ht="14.25">
+      <c r="A488" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B488" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C488" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D488" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="489" ht="14.25">
+      <c r="A489" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B489" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C489" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D489" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="490" ht="14.25">
+      <c r="A490" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B490" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C490" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D490" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="491" ht="14.25">
+      <c r="A491" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B491" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C491" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D491" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" ht="14.25">
+      <c r="A492" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B492" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C492" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D492" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="493" ht="14.25">
+      <c r="A493" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B493" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C493" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D493" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="494" ht="14.25">
+      <c r="A494" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B494" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C494" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D494" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="495" ht="14.25">
+      <c r="A495" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B495" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C495" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D495" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="496" ht="14.25">
+      <c r="A496" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B496" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C496" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D496" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="497" ht="14.25">
+      <c r="A497" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B497" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C497" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D497" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="498" ht="14.25">
+      <c r="A498" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B498" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C498" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D498" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="499" ht="14.25">
+      <c r="A499" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B499" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C499" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D499" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="500" ht="14.25">
+      <c r="A500" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B500" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C500" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D500" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="501" ht="14.25">
+      <c r="A501" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B501" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C501" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D501" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="502" ht="14.25">
+      <c r="A502" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B502" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C502" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D502" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="503" ht="14.25">
+      <c r="A503" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B503" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C503" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D503" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="504" ht="14.25">
+      <c r="A504" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B504" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C504" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D504" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="505" ht="14.25">
+      <c r="A505" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B505" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C505" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D505" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="506" ht="14.25">
+      <c r="A506" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B506" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C506" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D506" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="507" ht="14.25">
+      <c r="A507" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B507" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C507" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D507" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="508" ht="14.25">
+      <c r="A508" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B508" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C508" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D508" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="509" ht="14.25">
+      <c r="A509" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B509" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C509" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D509" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="510" ht="14.25">
+      <c r="A510" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B510" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C510" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D510" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="511" ht="14.25">
+      <c r="A511" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B511" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C511" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D511" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="512" ht="14.25">
+      <c r="A512" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B512" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C512" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D512" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="513" ht="14.25">
+      <c r="A513" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B513" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C513" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D513" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="514" ht="14.25">
+      <c r="A514" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B514" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C514" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D514" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="515" ht="14.25">
+      <c r="A515" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B515" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C515" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D515" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="516" ht="14.25">
+      <c r="A516" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B516" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C516" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D516" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="517" ht="14.25">
+      <c r="A517" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B517" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C517" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D517" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="518" ht="14.25">
+      <c r="A518" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B518" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C518" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D518" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="519" ht="14.25">
+      <c r="A519" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B519" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C519" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D519" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="520" ht="14.25">
+      <c r="A520" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B520" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C520" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D520" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="521" ht="14.25">
+      <c r="A521" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B521" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C521" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D521" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="522" ht="14.25">
+      <c r="A522" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B522" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C522" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D522" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="523" ht="14.25">
+      <c r="A523" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B523" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C523" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D523" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="524" ht="14.25">
+      <c r="A524" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B524" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C524" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D524" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="525" ht="14.25">
+      <c r="A525" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B525" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C525" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D525" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="526" ht="14.25">
+      <c r="A526" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B526" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C526" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D526" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="527" ht="14.25">
+      <c r="A527" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B527" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C527" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D527" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="528" ht="14.25">
+      <c r="A528" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B528" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C528" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D528" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="529" ht="14.25">
+      <c r="A529" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B529" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C529" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D529" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="530" ht="14.25">
+      <c r="A530" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B530" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C530" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D530" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="531" ht="14.25">
+      <c r="A531" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B531" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C531" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D531" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="532" ht="14.25">
+      <c r="A532" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B532" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C532" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D532" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="533" ht="14.25">
+      <c r="A533" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B533" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C533" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D533" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="534" ht="14.25">
+      <c r="A534" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B534" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C534" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D534" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="535" ht="14.25">
+      <c r="A535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B535" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C535" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D535" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="536" ht="14.25">
+      <c r="A536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B536" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C536" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D536" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="537" ht="14.25">
+      <c r="A537" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B537" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C537" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D537" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="538" ht="14.25">
+      <c r="A538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B538" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C538" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D538" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="539" ht="14.25">
+      <c r="A539" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B539" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C539" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D539" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="540" ht="14.25">
+      <c r="A540" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B540" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C540" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D540" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="541" ht="14.25">
+      <c r="A541" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B541" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C541" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D541" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="542" ht="14.25">
+      <c r="A542" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B542" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C542" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D542" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="543" ht="14.25">
+      <c r="A543" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B543" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C543" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D543" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="544" ht="14.25">
+      <c r="A544" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B544" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="545" ht="14.25">
+      <c r="A545" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B545" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="546" ht="14.25">
+      <c r="A546" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B546" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="547" ht="14.25">
+      <c r="A547" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B547" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="548" ht="14.25">
+      <c r="A548" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B548" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="549" ht="14.25">
+      <c r="A549" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B549" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="550" ht="14.25">
+      <c r="A550" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B550" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="551" ht="14.25">
+      <c r="A551" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B551" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="552" ht="14.25">
+      <c r="A552" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B552" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="553" ht="14.25">
+      <c r="A553" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B553" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="554" ht="14.25">
+      <c r="A554" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B554" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="555" ht="14.25">
+      <c r="A555" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B555" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="556" ht="14.25">
+      <c r="A556" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B556" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="557" ht="14.25">
+      <c r="A557" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B557" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="558" ht="14.25">
+      <c r="A558" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B558" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="559" ht="14.25">
+      <c r="A559" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B559" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="560" ht="14.25">
+      <c r="A560" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B560" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="561" ht="14.25">
+      <c r="A561" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B561" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="562" ht="14.25">
+      <c r="A562" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B562" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="563" ht="14.25">
+      <c r="A563" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B563" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="564" ht="14.25">
+      <c r="A564" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B564" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="565" ht="14.25">
+      <c r="A565" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B565" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="566" ht="14.25">
+      <c r="A566" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B566" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="567" ht="14.25">
+      <c r="A567" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B567" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="568" ht="14.25">
+      <c r="A568" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B568" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="569" ht="14.25">
+      <c r="A569" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B569" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="570" ht="14.25">
+      <c r="A570" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B570" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="571" ht="14.25">
+      <c r="A571" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B571" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="572" ht="14.25">
+      <c r="A572" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B572" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="573" ht="14.25">
+      <c r="A573" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B573" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="574" ht="14.25">
+      <c r="A574" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B574" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="575" ht="14.25">
+      <c r="A575" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B575" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="576" ht="14.25">
+      <c r="A576" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B576" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G576" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="577" ht="14.25">
+      <c r="A577" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B577" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G577" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="578" ht="14.25">
+      <c r="A578" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B578" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C578" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D578" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="579" ht="14.25">
+      <c r="A579" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B579" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C579" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D579" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="580" ht="14.25">
+      <c r="A580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B580" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C580" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D580" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="581" ht="14.25">
+      <c r="A581" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B581" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C581" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D581" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="582" ht="14.25">
+      <c r="A582" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B582" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C582" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D582" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="583" ht="14.25">
+      <c r="A583" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B583" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C583" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D583" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="584" ht="14.25">
+      <c r="A584" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B584" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C584" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D584" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="585" ht="14.25">
+      <c r="A585" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B585" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C585" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D585" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="586" ht="14.25">
+      <c r="A586" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B586" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C586" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D586" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="587" ht="14.25">
+      <c r="A587" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B587" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C587" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D587" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="588" ht="14.25">
+      <c r="A588" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B588" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C588" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D588" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="589" ht="14.25">
+      <c r="A589" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B589" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C589" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D589" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="590" ht="14.25">
+      <c r="A590" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B590" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C590" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D590" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="591" ht="14.25">
+      <c r="A591" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B591" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C591" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D591" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="592" ht="14.25">
+      <c r="A592" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B592" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C592" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D592" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="593" ht="14.25">
+      <c r="A593" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B593" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C593" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D593" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="594" ht="14.25">
+      <c r="A594" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B594" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C594" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D594" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="595" ht="14.25">
+      <c r="A595" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B595" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C595" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D595" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="596" ht="14.25">
+      <c r="A596" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B596" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C596" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D596" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="597" ht="14.25">
+      <c r="A597" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B597" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C597" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D597" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="598" ht="14.25">
+      <c r="A598" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B598" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C598" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D598" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="599" ht="14.25">
+      <c r="A599" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B599" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C599" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D599" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="600" ht="14.25">
+      <c r="A600" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B600" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C600" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D600" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="601" ht="14.25">
+      <c r="A601" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B601" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C601" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D601" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="602" ht="14.25">
+      <c r="A602" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B602" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C602" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D602" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="603" ht="14.25">
+      <c r="A603" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B603" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C603" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D603" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="604" ht="14.25">
+      <c r="A604" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B604" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C604" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D604" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="605" ht="14.25">
+      <c r="A605" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B605" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C605" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D605" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="606" ht="14.25">
+      <c r="A606" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B606" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C606" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D606" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="607" ht="14.25">
+      <c r="A607" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B607" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C607" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D607" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="608" ht="14.25">
+      <c r="A608" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B608" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C608" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D608" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="609" ht="14.25">
+      <c r="A609" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B609" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C609" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D609" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G609" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="610" ht="14.25">
+      <c r="A610" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B610" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C610" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D610" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="611" ht="14.25">
+      <c r="A611" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B611" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C611" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D611" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="612" ht="14.25">
+      <c r="A612" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B612" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C612" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D612" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="613" ht="14.25">
+      <c r="A613" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B613" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C613" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D613" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="614" ht="14.25">
+      <c r="A614" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B614" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C614" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D614" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="615" ht="14.25">
+      <c r="A615" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B615" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C615" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D615" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="616" ht="14.25">
+      <c r="A616" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B616" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C616" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D616" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="617" ht="14.25">
+      <c r="A617" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B617" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C617" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D617" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="618" ht="14.25">
+      <c r="A618" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B618" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C618" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D618" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="619" ht="14.25">
+      <c r="A619" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B619" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C619" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D619" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="620" ht="14.25">
+      <c r="A620" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B620" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C620" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D620" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="621" ht="14.25">
+      <c r="A621" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B621" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C621" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D621" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="622" ht="14.25">
+      <c r="A622" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B622" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C622" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D622" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="623" ht="14.25">
+      <c r="A623" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B623" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C623" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D623" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="624" ht="14.25">
+      <c r="A624" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B624" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C624" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D624" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="625" ht="14.25">
+      <c r="A625" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B625" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C625" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D625" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="626" ht="14.25">
+      <c r="A626" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B626" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C626" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D626" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="627" ht="14.25">
+      <c r="A627" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B627" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C627" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D627" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="628" ht="14.25">
+      <c r="A628" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B628" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C628" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D628" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="629" ht="14.25">
+      <c r="A629" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B629" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C629" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D629" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E629" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F629" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="630" ht="14.25">
+      <c r="A630" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B630" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C630" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D630" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="631" ht="14.25">
+      <c r="A631" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B631" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C631" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D631" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="632" ht="14.25">
+      <c r="A632" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B632" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C632" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D632" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="633" ht="14.25">
+      <c r="A633" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B633" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C633" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D633" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="634" ht="14.25">
+      <c r="A634" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B634" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C634" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D634" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="635" ht="14.25">
+      <c r="A635" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B635" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C635" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D635" s="6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="636" ht="14.25">
+      <c r="A636" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B636" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C636" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D636" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="637" ht="14.25">
+      <c r="A637" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B637" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C637" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D637" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="638" ht="14.25">
+      <c r="A638" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B638" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C638" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D638" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="639" ht="14.25">
+      <c r="A639" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B639" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C639" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D639" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="640" ht="14.25">
+      <c r="A640" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B640" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C640" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D640" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="641" ht="14.25">
+      <c r="A641" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B641" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C641" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D641" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="642" ht="14.25">
+      <c r="A642" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B642" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C642" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D642" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="643" ht="14.25">
+      <c r="A643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B643" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C643" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D643" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="644" ht="14.25">
+      <c r="A644" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B644" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C644" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D644" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="645" ht="14.25">
+      <c r="A645" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B645" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C645" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D645" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="646" ht="14.25">
+      <c r="A646" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B646" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C646" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D646" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="647" ht="14.25">
+      <c r="A647" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B647" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C647" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D647" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="648" ht="14.25">
+      <c r="A648" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B648" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="649" ht="14.25">
+      <c r="A649" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B649" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="650" ht="14.25">
+      <c r="A650" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B650" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="651" ht="14.25">
+      <c r="A651" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B651" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="652" ht="14.25">
+      <c r="A652" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B652" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G652" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="653" ht="14.25">
+      <c r="A653" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B653" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G653" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="654" ht="14.25">
+      <c r="A654" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B654" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="655" ht="14.25">
+      <c r="A655" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B655" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G655" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="656" ht="14.25">
+      <c r="A656" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B656" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G656" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="657" ht="14.25">
+      <c r="A657" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B657" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G657" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="658" ht="14.25">
+      <c r="A658" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B658" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="659" ht="14.25">
+      <c r="A659" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B659" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="660" ht="14.25">
+      <c r="A660" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B660" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G660" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="661" ht="14.25">
+      <c r="A661" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B661" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G661" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="662" ht="14.25">
+      <c r="A662" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B662" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G662" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="663" ht="14.25">
+      <c r="A663" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B663" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G663" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="664" ht="14.25">
+      <c r="A664" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B664" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G664" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="665" ht="14.25">
+      <c r="A665" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B665" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G665" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="666" ht="14.25">
+      <c r="A666" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B666" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="667" ht="14.25">
+      <c r="A667" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B667" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="668" ht="14.25">
+      <c r="A668" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B668" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="669" ht="14.25">
+      <c r="A669" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B669" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G669" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="670" ht="14.25">
+      <c r="A670" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B670" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G670" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="671" ht="14.25">
+      <c r="A671" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B671" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G671" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="672" ht="14.25">
+      <c r="A672" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B672" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G672" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="673" ht="14.25">
+      <c r="A673" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B673" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G673" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="674" ht="14.25">
+      <c r="A674" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B674" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G674" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="675" ht="14.25">
+      <c r="A675" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B675" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G675" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="676" ht="14.25">
+      <c r="A676" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B676" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="677" ht="14.25">
+      <c r="A677" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B677" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G677" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="678" ht="14.25">
+      <c r="A678" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B678" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G678" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="679" ht="14.25">
+      <c r="A679" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B679" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="680" ht="14.25">
+      <c r="A680" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B680" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G680" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="681" ht="14.25">
+      <c r="A681" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B681" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="682" ht="14.25">
+      <c r="A682" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B682" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G682" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>variable</t>
   </si>
@@ -36,6 +36,15 @@
     <t>notes</t>
   </si>
   <si>
+    <t>unreliable_flag</t>
+  </si>
+  <si>
+    <t>under-review_flag</t>
+  </si>
+  <si>
+    <t>error_flag</t>
+  </si>
+  <si>
     <t>premature_death</t>
   </si>
   <si>
@@ -126,6 +135,12 @@
     <t>access_to_healthy_foods</t>
   </si>
   <si>
+    <t>liquor_store_density</t>
+  </si>
+  <si>
+    <t>primary_care_provider_rate</t>
+  </si>
+  <si>
     <t>excessive_drinking</t>
   </si>
   <si>
@@ -228,18 +243,42 @@
     <t>dentists</t>
   </si>
   <si>
-    <t>liquor_store_density</t>
-  </si>
-  <si>
-    <t>primary_care_provider_rate</t>
-  </si>
-  <si>
     <t>food_environment_index</t>
   </si>
   <si>
     <t>access_to_exercise_opportunities</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2010 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012. I interpret this to mean the shape files are from 2010, but the data is from 2012. This is just a hypothesis though.</t>
+    </r>
+  </si>
+  <si>
     <t>alcohol-impaired_driving_deaths</t>
   </si>
   <si>
@@ -477,12 +516,72 @@
     <t>colon_cancer_screening</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2010 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2013. I interpret this to mean the shape files are from 2010, but the data is from 2013. This is just a hypothesis though.</t>
+    </r>
+  </si>
+  <si>
     <t>income_inequality</t>
   </si>
   <si>
     <t>social_associations</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2010 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2014. I interpret this to mean the shape files are from 2010, but the data is from 2014. This is just a hypothesis though.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">It notes fiscal year 2013 to fiscal year 2014. When exactly the fiscal year starts and ends is unclear.</t>
   </si>
   <si>
@@ -510,7 +609,43 @@
     <t>disconnected_youth</t>
   </si>
   <si>
+    <t>children_eligible_for_free_or_reduced_price_lunch</t>
+  </si>
+  <si>
     <t>firearm_fatalities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable is available by race (White, Black, and Hispanic) in this year.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2010 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2016. I interpret this to mean the shape files are from 2010, but the data is from 2016. This is just a hypothesis though.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -552,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -568,12 +703,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,7 +1189,10 @@
     <col bestFit="1" min="5" max="5" style="1" width="10.87109375"/>
     <col bestFit="1" min="6" max="6" style="1" width="10.08203125"/>
     <col customWidth="1" min="7" max="7" style="2" width="87.28125"/>
-    <col min="8" max="16384" style="1" width="9.140625"/>
+    <col bestFit="1" min="8" max="8" style="1" width="13.8515625"/>
+    <col bestFit="1" min="9" max="9" style="1" width="16.57421875"/>
+    <col bestFit="1" min="10" max="10" style="1" width="9.28125"/>
+    <col min="11" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -1085,10 +1217,19 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>2010</v>
@@ -1101,10 +1242,13 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>2010</v>
@@ -1120,7 +1264,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>2010</v>
@@ -1136,7 +1280,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>2010</v>
@@ -1152,7 +1296,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>2010</v>
@@ -1165,10 +1309,13 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>2010</v>
@@ -1184,7 +1331,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>2010</v>
@@ -1202,13 +1349,13 @@
         <v>2007</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>2010</v>
@@ -1224,7 +1371,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>2010</v>
@@ -1237,10 +1384,13 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="28.5">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>2010</v>
@@ -1254,12 +1404,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>2010</v>
@@ -1275,7 +1425,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>2010</v>
@@ -1291,7 +1441,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>2010</v>
@@ -1307,7 +1457,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>2010</v>
@@ -1323,7 +1473,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>2010</v>
@@ -1341,13 +1491,13 @@
         <v>2006</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" ht="28.5">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>2010</v>
@@ -1365,13 +1515,13 @@
         <v>2008</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>2010</v>
@@ -1386,7 +1536,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>2010</v>
@@ -1402,7 +1552,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2010</v>
@@ -1417,7 +1567,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>2010</v>
@@ -1432,7 +1582,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>2010</v>
@@ -1448,7 +1598,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>2010</v>
@@ -1463,7 +1613,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>2010</v>
@@ -1479,7 +1629,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>2010</v>
@@ -1492,10 +1642,13 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>2010</v>
@@ -1511,7 +1664,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>2010</v>
@@ -1527,7 +1680,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>2010</v>
@@ -1540,55 +1693,69 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C29" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D29" s="1">
-        <v>2007</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C30" s="1">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D30" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>2006</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
         <v>2011</v>
       </c>
       <c r="C31" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D31" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G31" s="2"/>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1">
         <v>2011</v>
@@ -1603,22 +1770,22 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
         <v>2011</v>
       </c>
       <c r="C33" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D33" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1">
         <v>2011</v>
@@ -1633,22 +1800,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1">
         <v>2011</v>
       </c>
       <c r="C35" s="1">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D35" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35" s="2"/>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
         <v>2011</v>
@@ -1669,27 +1839,27 @@
         <v>2011</v>
       </c>
       <c r="C37" s="1">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D37" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>2011</v>
       </c>
       <c r="C38" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D38" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>2009</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39">
@@ -1705,8 +1875,10 @@
       <c r="D39" s="1">
         <v>2007</v>
       </c>
-      <c r="E39" s="1"/>
       <c r="G39" s="2"/>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -1716,73 +1888,80 @@
         <v>2011</v>
       </c>
       <c r="C40" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D40" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E40" s="1">
         <v>2008</v>
       </c>
-      <c r="F40" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>14</v>
+      <c r="E40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
         <v>2011</v>
       </c>
       <c r="C41" s="1">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D41" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
       <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
         <v>2011</v>
       </c>
       <c r="C42" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D42" s="1">
         <v>2007</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="G42" s="2"/>
+      <c r="E42" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>2011</v>
       </c>
       <c r="C43" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D43" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="2"/>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
         <v>2011</v>
@@ -1796,9 +1975,9 @@
       <c r="E44" s="1"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" ht="28.5">
+    <row r="45">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1">
         <v>2011</v>
@@ -1809,34 +1988,26 @@
       <c r="D45" s="1">
         <v>2007</v>
       </c>
-      <c r="E45" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E45" s="1"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>2011</v>
       </c>
       <c r="C46" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D46" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -1844,36 +2015,40 @@
         <v>2011</v>
       </c>
       <c r="C47" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F47" s="1">
         <v>2009</v>
       </c>
-      <c r="D47" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>2011</v>
       </c>
       <c r="C48" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D48" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -1883,7 +2058,7 @@
         <v>2011</v>
       </c>
       <c r="C49" s="1">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D49" s="1">
         <v>2009</v>
@@ -1893,55 +2068,62 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1">
         <v>2011</v>
       </c>
       <c r="C50" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D50" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="G50" s="2"/>
+        <v>2008</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1">
         <v>2011</v>
       </c>
       <c r="C51" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D51" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E51" s="1"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1">
         <v>2011</v>
       </c>
       <c r="C52" s="1">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D52" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E52" s="1"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1">
         <v>2011</v>
@@ -1950,97 +2132,102 @@
         <v>2006</v>
       </c>
       <c r="D53" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1">
         <v>2011</v>
       </c>
       <c r="C54" s="1">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D54" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E54" s="1"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
         <v>2011</v>
       </c>
       <c r="C55" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D55" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
         <v>2011</v>
       </c>
       <c r="C56" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D56" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E56" s="1"/>
       <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1">
         <v>2011</v>
       </c>
       <c r="C57" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D57" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
       <c r="G57" s="2"/>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1">
         <v>2011</v>
       </c>
       <c r="C58" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D58" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E58" s="1"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1">
         <v>2011</v>
@@ -2052,11 +2239,12 @@
         <v>2009</v>
       </c>
       <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1">
         <v>2011</v>
@@ -2072,7 +2260,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1">
         <v>2011</v>
@@ -2088,7 +2276,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B62" s="1">
         <v>2011</v>
@@ -2099,11 +2287,12 @@
       <c r="D62" s="1">
         <v>2009</v>
       </c>
+      <c r="E62" s="1"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1">
         <v>2011</v>
@@ -2119,7 +2308,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B64" s="1">
         <v>2011</v>
@@ -2130,27 +2319,27 @@
       <c r="D64" s="1">
         <v>2009</v>
       </c>
-      <c r="E64" s="1"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1">
         <v>2011</v>
       </c>
       <c r="C65" s="1">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D65" s="1">
         <v>2009</v>
       </c>
+      <c r="E65" s="1"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1">
         <v>2011</v>
@@ -2161,58 +2350,59 @@
       <c r="D66" s="1">
         <v>2009</v>
       </c>
+      <c r="E66" s="1"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1">
         <v>2011</v>
       </c>
       <c r="C67" s="1">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D67" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+        <v>2009</v>
+      </c>
       <c r="G67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B68" s="1">
         <v>2011</v>
       </c>
       <c r="C68" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D68" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1">
         <v>2011</v>
       </c>
       <c r="C69" s="1">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D69" s="1">
-        <v>2007</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1">
         <v>2011</v>
@@ -2227,22 +2417,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1">
         <v>2011</v>
       </c>
       <c r="C71" s="1">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D71" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1">
         <v>2011</v>
@@ -2253,147 +2443,150 @@
       <c r="D72" s="1">
         <v>2008</v>
       </c>
-      <c r="E72" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F72" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B73" s="1">
         <v>2011</v>
       </c>
       <c r="C73" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D73" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1">
         <v>2011</v>
       </c>
       <c r="C74" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D74" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G74" s="2"/>
+        <v>2008</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1">
         <v>2011</v>
       </c>
       <c r="C75" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D75" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E75" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F75" s="1">
-        <v>2006</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="G75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B76" s="1">
         <v>2011</v>
       </c>
       <c r="C76" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D76" s="1">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="G76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1">
         <v>2011</v>
       </c>
       <c r="C77" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E77" s="1">
         <v>2005</v>
       </c>
-      <c r="D77" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G77" s="2"/>
+      <c r="F77" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C78" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D78" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="G78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C79" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D79" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1">
         <v>2012</v>
       </c>
       <c r="C80" s="1">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D80" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G80" s="2"/>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" s="1">
         <v>2012</v>
@@ -2408,22 +2601,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" s="1">
         <v>2012</v>
       </c>
       <c r="C82" s="1">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D82" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <v>2012</v>
@@ -2438,76 +2631,79 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1">
         <v>2012</v>
       </c>
       <c r="C84" s="1">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D84" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G84" s="2"/>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1">
         <v>2012</v>
       </c>
       <c r="C85" s="1">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D85" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1">
         <v>2012</v>
       </c>
       <c r="C86" s="1">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D86" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B87" s="1">
         <v>2012</v>
       </c>
       <c r="C87" s="1">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D87" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B88" s="1">
         <v>2012</v>
       </c>
       <c r="C88" s="1">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D88" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G88" s="2"/>
     </row>
@@ -2525,10 +2721,13 @@
         <v>2008</v>
       </c>
       <c r="G89" s="2"/>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1">
         <v>2012</v>
@@ -2543,22 +2742,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1">
         <v>2012</v>
       </c>
       <c r="C91" s="1">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D91" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B92" s="1">
         <v>2012</v>
@@ -2573,7 +2772,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B93" s="1">
         <v>2012</v>
@@ -2588,7 +2787,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1">
         <v>2012</v>
@@ -2603,39 +2802,31 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B95" s="1">
         <v>2012</v>
       </c>
       <c r="C95" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D95" s="1">
         <v>2009</v>
       </c>
-      <c r="E95" s="1">
-        <v>2009</v>
-      </c>
-      <c r="F95" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B96" s="1">
         <v>2012</v>
       </c>
       <c r="C96" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D96" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -2647,22 +2838,30 @@
         <v>2012</v>
       </c>
       <c r="C97" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D97" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G97" s="2"/>
+        <v>2009</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B98" s="1">
         <v>2012</v>
       </c>
       <c r="C98" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D98" s="1">
         <v>2010</v>
@@ -2677,30 +2876,22 @@
         <v>2012</v>
       </c>
       <c r="C99" s="1">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D99" s="1">
         <v>2010</v>
       </c>
-      <c r="E99" s="1">
-        <v>2006</v>
-      </c>
-      <c r="F99" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B100" s="1">
         <v>2012</v>
       </c>
       <c r="C100" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D100" s="1">
         <v>2010</v>
@@ -2709,31 +2900,39 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B101" s="1">
         <v>2012</v>
       </c>
       <c r="C101" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D101" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>2010</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B102" s="1">
         <v>2012</v>
       </c>
       <c r="C102" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D102" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="G102" s="2"/>
     </row>
@@ -2748,58 +2947,58 @@
         <v>2007</v>
       </c>
       <c r="D103" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B104" s="1">
         <v>2012</v>
       </c>
       <c r="C104" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D104" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B105" s="1">
         <v>2012</v>
       </c>
       <c r="C105" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D105" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B106" s="1">
         <v>2012</v>
       </c>
       <c r="C106" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D106" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B107" s="1">
         <v>2012</v>
@@ -2814,7 +3013,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B108" s="1">
         <v>2012</v>
@@ -2829,7 +3028,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B109" s="1">
         <v>2012</v>
@@ -2844,7 +3043,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B110" s="1">
         <v>2012</v>
@@ -2857,9 +3056,9 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" ht="14.25">
+    <row r="111">
       <c r="A111" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B111" s="1">
         <v>2012</v>
@@ -2872,9 +3071,9 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" ht="14.25">
+    <row r="112">
       <c r="A112" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B112" s="1">
         <v>2012</v>
@@ -2889,7 +3088,7 @@
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B113" s="1">
         <v>2012</v>
@@ -2900,10 +3099,11 @@
       <c r="D113" s="1">
         <v>2009</v>
       </c>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B114" s="1">
         <v>2012</v>
@@ -2914,10 +3114,11 @@
       <c r="D114" s="1">
         <v>2009</v>
       </c>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B115" s="1">
         <v>2012</v>
@@ -2931,13 +3132,13 @@
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B116" s="1">
         <v>2012</v>
       </c>
       <c r="C116" s="1">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D116" s="1">
         <v>2009</v>
@@ -2945,7 +3146,7 @@
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B117" s="1">
         <v>2012</v>
@@ -2959,21 +3160,21 @@
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B118" s="1">
         <v>2012</v>
       </c>
       <c r="C118" s="1">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D118" s="1">
-        <v>2000</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B119" s="1">
         <v>2012</v>
@@ -2987,106 +3188,106 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B120" s="1">
         <v>2012</v>
       </c>
       <c r="C120" s="1">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D120" s="1">
-        <v>2008</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B121" s="1">
         <v>2012</v>
       </c>
       <c r="C121" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D121" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E121" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F121" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>14</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B122" s="1">
         <v>2012</v>
       </c>
       <c r="C122" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D122" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B123" s="1">
         <v>2012</v>
       </c>
       <c r="C123" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D123" s="1">
-        <v>2009</v>
+        <v>2007</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B124" s="1">
         <v>2012</v>
       </c>
       <c r="C124" s="1">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D124" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B125" s="1">
         <v>2012</v>
       </c>
       <c r="C125" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D125" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B126" s="1">
         <v>2012</v>
       </c>
       <c r="C126" s="1">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D126" s="1">
         <v>2010</v>
@@ -3094,128 +3295,128 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B127" s="1">
         <v>2012</v>
       </c>
       <c r="C127" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D127" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B128" s="1">
         <v>2012</v>
       </c>
       <c r="C128" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D128" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E128" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F128" s="1">
-        <v>2006</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>14</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B129" s="1">
         <v>2012</v>
       </c>
       <c r="C129" s="1">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D129" s="1">
-        <v>2003</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B130" s="1">
         <v>2012</v>
       </c>
       <c r="C130" s="1">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D130" s="1">
-        <v>2008</v>
+        <v>2006</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F130" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B131" s="1">
         <v>2012</v>
       </c>
       <c r="C131" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D131" s="1">
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B132" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C132" s="1">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D132" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B133" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C133" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D133" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B134" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C134" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D134" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B135" s="1">
         <v>2014</v>
@@ -3229,7 +3430,7 @@
     </row>
     <row r="136" ht="14.25">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B136" s="1">
         <v>2014</v>
@@ -3243,7 +3444,7 @@
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B137" s="1">
         <v>2014</v>
@@ -3257,7 +3458,7 @@
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B138" s="1">
         <v>2014</v>
@@ -3271,7 +3472,7 @@
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B139" s="1">
         <v>2014</v>
@@ -3282,10 +3483,13 @@
       <c r="D139" s="1">
         <v>2011</v>
       </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B140" s="1">
         <v>2014</v>
@@ -3299,7 +3503,7 @@
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B141" s="1">
         <v>2014</v>
@@ -3313,7 +3517,7 @@
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B142" s="1">
         <v>2014</v>
@@ -3327,7 +3531,7 @@
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B143" s="1">
         <v>2014</v>
@@ -3341,21 +3545,24 @@
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B144" s="1">
         <v>2014</v>
       </c>
       <c r="C144" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D144" s="1">
         <v>2012</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B145" s="1">
         <v>2014</v>
@@ -3369,7 +3576,7 @@
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B146" s="1">
         <v>2014</v>
@@ -3383,7 +3590,7 @@
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B147" s="1">
         <v>2014</v>
@@ -3397,7 +3604,7 @@
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B148" s="1">
         <v>2014</v>
@@ -3411,7 +3618,7 @@
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B149" s="1">
         <v>2014</v>
@@ -3425,7 +3632,7 @@
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B150" s="1">
         <v>2014</v>
@@ -3439,7 +3646,7 @@
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B151" s="1">
         <v>2014</v>
@@ -3453,7 +3660,7 @@
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B152" s="1">
         <v>2014</v>
@@ -3467,7 +3674,7 @@
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B153" s="1">
         <v>2014</v>
@@ -3481,7 +3688,7 @@
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B154" s="1">
         <v>2014</v>
@@ -3495,7 +3702,7 @@
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B155" s="1">
         <v>2014</v>
@@ -3509,7 +3716,7 @@
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B156" s="1">
         <v>2014</v>
@@ -3524,7 +3731,7 @@
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B157" s="1">
         <v>2014</v>
@@ -3538,7 +3745,7 @@
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B158" s="1">
         <v>2014</v>
@@ -3552,7 +3759,7 @@
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B159" s="1">
         <v>2014</v>
@@ -3566,7 +3773,7 @@
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B160" s="1">
         <v>2014</v>
@@ -3580,7 +3787,7 @@
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B161" s="1">
         <v>2014</v>
@@ -3594,7 +3801,7 @@
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B162" s="1">
         <v>2014</v>
@@ -3608,7 +3815,7 @@
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B163" s="1">
         <v>2014</v>
@@ -3622,7 +3829,7 @@
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B164" s="1">
         <v>2014</v>
@@ -3636,7 +3843,7 @@
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B165" s="1">
         <v>2014</v>
@@ -3648,12 +3855,12 @@
         <v>2013</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B166" s="1">
         <v>2014</v>
@@ -3667,7 +3874,7 @@
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B167" s="1">
         <v>2014</v>
@@ -3681,7 +3888,7 @@
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B168" s="1">
         <v>2014</v>
@@ -3695,7 +3902,7 @@
     </row>
     <row r="169" ht="14.25">
       <c r="A169" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B169" s="1">
         <v>2014</v>
@@ -3709,7 +3916,7 @@
     </row>
     <row r="170" ht="14.25">
       <c r="A170" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B170" s="1">
         <v>2014</v>
@@ -3723,7 +3930,7 @@
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B171" s="1">
         <v>2014</v>
@@ -3737,7 +3944,7 @@
     </row>
     <row r="172" ht="14.25">
       <c r="A172" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B172" s="1">
         <v>2014</v>
@@ -3751,7 +3958,7 @@
     </row>
     <row r="173" ht="14.25">
       <c r="A173" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B173" s="1">
         <v>2014</v>
@@ -3765,7 +3972,7 @@
     </row>
     <row r="174" ht="14.25">
       <c r="A174" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B174" s="1">
         <v>2014</v>
@@ -3779,7 +3986,7 @@
     </row>
     <row r="175" ht="14.25">
       <c r="A175" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B175" s="1">
         <v>2014</v>
@@ -3793,7 +4000,7 @@
     </row>
     <row r="176" ht="14.25">
       <c r="A176" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B176" s="1">
         <v>2014</v>
@@ -3807,7 +4014,7 @@
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B177" s="1">
         <v>2014</v>
@@ -3821,7 +4028,7 @@
     </row>
     <row r="178" ht="14.25">
       <c r="A178" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B178" s="1">
         <v>2014</v>
@@ -3835,7 +4042,7 @@
     </row>
     <row r="179" ht="14.25">
       <c r="A179" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B179" s="1">
         <v>2014</v>
@@ -3849,7 +4056,7 @@
     </row>
     <row r="180" ht="14.25">
       <c r="A180" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B180" s="1">
         <v>2014</v>
@@ -3863,7 +4070,7 @@
     </row>
     <row r="181" ht="14.25">
       <c r="A181" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B181" s="1">
         <v>2014</v>
@@ -3877,7 +4084,7 @@
     </row>
     <row r="182" ht="14.25">
       <c r="A182" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B182" s="1">
         <v>2014</v>
@@ -3891,7 +4098,7 @@
     </row>
     <row r="183" ht="14.25">
       <c r="A183" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B183" s="1">
         <v>2014</v>
@@ -3905,7 +4112,7 @@
     </row>
     <row r="184" ht="14.25">
       <c r="A184" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B184" s="1">
         <v>2014</v>
@@ -3919,7 +4126,7 @@
     </row>
     <row r="185" ht="14.25">
       <c r="A185" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B185" s="1">
         <v>2014</v>
@@ -3933,7 +4140,7 @@
     </row>
     <row r="186" ht="14.25">
       <c r="A186" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B186" s="1">
         <v>2014</v>
@@ -3947,7 +4154,7 @@
     </row>
     <row r="187" ht="14.25">
       <c r="A187" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B187" s="1">
         <v>2014</v>
@@ -3961,7 +4168,7 @@
     </row>
     <row r="188" ht="14.25">
       <c r="A188" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B188" s="1">
         <v>2014</v>
@@ -3975,7 +4182,7 @@
     </row>
     <row r="189" ht="14.25">
       <c r="A189" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B189" s="1">
         <v>2014</v>
@@ -3993,12 +4200,12 @@
         <v>2010</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" ht="14.25">
       <c r="A190" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B190" s="1">
         <v>2014</v>
@@ -4012,7 +4219,7 @@
     </row>
     <row r="191" ht="14.25">
       <c r="A191" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B191" s="1">
         <v>2014</v>
@@ -4026,7 +4233,7 @@
     </row>
     <row r="192" ht="14.25">
       <c r="A192" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B192" s="1">
         <v>2014</v>
@@ -4040,7 +4247,7 @@
     </row>
     <row r="193" ht="14.25">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B193" s="1">
         <v>2014</v>
@@ -4054,7 +4261,7 @@
     </row>
     <row r="194" ht="14.25">
       <c r="A194" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B194" s="1">
         <v>2014</v>
@@ -4068,7 +4275,7 @@
     </row>
     <row r="195" ht="14.25">
       <c r="A195" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B195" s="1">
         <v>2014</v>
@@ -4082,7 +4289,7 @@
     </row>
     <row r="196" ht="14.25">
       <c r="A196" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B196" s="1">
         <v>2014</v>
@@ -4100,12 +4307,12 @@
         <v>2011</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" ht="14.25">
       <c r="A197" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B197" s="1">
         <v>2014</v>
@@ -4119,7 +4326,7 @@
     </row>
     <row r="198" ht="14.25">
       <c r="A198" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B198" s="1">
         <v>2013</v>
@@ -4133,7 +4340,7 @@
     </row>
     <row r="199" ht="14.25">
       <c r="A199" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B199" s="1">
         <v>2013</v>
@@ -4147,7 +4354,7 @@
     </row>
     <row r="200" ht="14.25">
       <c r="A200" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B200" s="1">
         <v>2013</v>
@@ -4161,7 +4368,7 @@
     </row>
     <row r="201" ht="14.25">
       <c r="A201" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B201" s="1">
         <v>2013</v>
@@ -4175,7 +4382,7 @@
     </row>
     <row r="202" ht="14.25">
       <c r="A202" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B202" s="1">
         <v>2013</v>
@@ -4189,7 +4396,7 @@
     </row>
     <row r="203" ht="14.25">
       <c r="A203" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B203" s="1">
         <v>2013</v>
@@ -4203,7 +4410,7 @@
     </row>
     <row r="204" ht="14.25">
       <c r="A204" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B204" s="1">
         <v>2013</v>
@@ -4217,7 +4424,7 @@
     </row>
     <row r="205" ht="14.25">
       <c r="A205" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B205" s="1">
         <v>2013</v>
@@ -4231,7 +4438,7 @@
     </row>
     <row r="206" ht="14.25">
       <c r="A206" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B206" s="1">
         <v>2013</v>
@@ -4245,7 +4452,7 @@
     </row>
     <row r="207" ht="14.25">
       <c r="A207" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B207" s="1">
         <v>2013</v>
@@ -4259,7 +4466,7 @@
     </row>
     <row r="208" ht="14.25">
       <c r="A208" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B208" s="1">
         <v>2013</v>
@@ -4273,7 +4480,7 @@
     </row>
     <row r="209" ht="14.25">
       <c r="A209" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B209" s="1">
         <v>2013</v>
@@ -4287,7 +4494,7 @@
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B210" s="1">
         <v>2013</v>
@@ -4301,7 +4508,7 @@
     </row>
     <row r="211" ht="14.25">
       <c r="A211" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B211" s="1">
         <v>2013</v>
@@ -4319,12 +4526,12 @@
         <v>2010</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B212" s="1">
         <v>2013</v>
@@ -4342,12 +4549,12 @@
         <v>2010</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B213" s="1">
         <v>2013</v>
@@ -4361,7 +4568,7 @@
     </row>
     <row r="214" ht="14.25">
       <c r="A214" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B214" s="1">
         <v>2013</v>
@@ -4375,7 +4582,7 @@
     </row>
     <row r="215" ht="14.25">
       <c r="A215" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B215" s="1">
         <v>2013</v>
@@ -4389,7 +4596,7 @@
     </row>
     <row r="216" ht="14.25">
       <c r="A216" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B216" s="1">
         <v>2013</v>
@@ -4397,12 +4604,12 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="G216" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" ht="14.25">
       <c r="A217" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B217" s="1">
         <v>2013</v>
@@ -4416,7 +4623,7 @@
     </row>
     <row r="218" ht="14.25">
       <c r="A218" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B218" s="1">
         <v>2013</v>
@@ -4430,7 +4637,7 @@
     </row>
     <row r="219" ht="14.25">
       <c r="A219" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B219" s="1">
         <v>2013</v>
@@ -4444,7 +4651,7 @@
     </row>
     <row r="220" ht="14.25">
       <c r="A220" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B220" s="1">
         <v>2013</v>
@@ -4458,7 +4665,7 @@
     </row>
     <row r="221" ht="14.25">
       <c r="A221" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B221" s="1">
         <v>2013</v>
@@ -4472,7 +4679,7 @@
     </row>
     <row r="222" ht="14.25">
       <c r="A222" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B222" s="1">
         <v>2013</v>
@@ -4486,7 +4693,7 @@
     </row>
     <row r="223" ht="14.25">
       <c r="A223" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B223" s="1">
         <v>2013</v>
@@ -4500,7 +4707,7 @@
     </row>
     <row r="224" ht="14.25">
       <c r="A224" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B224" s="1">
         <v>2013</v>
@@ -4511,13 +4718,13 @@
       <c r="D224" s="1">
         <v>2012</v>
       </c>
-      <c r="G224" s="5" t="s">
-        <v>91</v>
+      <c r="G224" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="225" ht="14.25">
       <c r="A225" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B225" s="1">
         <v>2013</v>
@@ -4531,7 +4738,7 @@
     </row>
     <row r="226" ht="14.25">
       <c r="A226" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B226" s="1">
         <v>2013</v>
@@ -4545,7 +4752,7 @@
     </row>
     <row r="227" ht="14.25">
       <c r="A227" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B227" s="1">
         <v>2013</v>
@@ -4559,7 +4766,7 @@
     </row>
     <row r="228" ht="14.25">
       <c r="A228" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B228" s="1">
         <v>2013</v>
@@ -4573,7 +4780,7 @@
     </row>
     <row r="229" ht="14.25">
       <c r="A229" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B229" s="1">
         <v>2013</v>
@@ -4587,7 +4794,7 @@
     </row>
     <row r="230" ht="14.25">
       <c r="A230" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B230" s="1">
         <v>2013</v>
@@ -4601,7 +4808,7 @@
     </row>
     <row r="231" ht="14.25">
       <c r="A231" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B231" s="1">
         <v>2013</v>
@@ -4615,7 +4822,7 @@
     </row>
     <row r="232" ht="14.25">
       <c r="A232" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B232" s="1">
         <v>2013</v>
@@ -4629,7 +4836,7 @@
     </row>
     <row r="233" ht="14.25">
       <c r="A233" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B233" s="1">
         <v>2013</v>
@@ -4643,7 +4850,7 @@
     </row>
     <row r="234" ht="14.25">
       <c r="A234" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B234" s="1">
         <v>2013</v>
@@ -4657,7 +4864,7 @@
     </row>
     <row r="235" ht="14.25">
       <c r="A235" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B235" s="1">
         <v>2013</v>
@@ -4673,7 +4880,7 @@
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B236" s="1">
         <v>2013</v>
@@ -4689,7 +4896,7 @@
     </row>
     <row r="237" ht="14.25">
       <c r="A237" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B237" s="1">
         <v>2013</v>
@@ -4705,7 +4912,7 @@
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B238" s="1">
         <v>2013</v>
@@ -4719,7 +4926,7 @@
     </row>
     <row r="239" ht="14.25">
       <c r="A239" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B239" s="1">
         <v>2013</v>
@@ -4733,7 +4940,7 @@
     </row>
     <row r="240" ht="14.25">
       <c r="A240" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B240" s="1">
         <v>2013</v>
@@ -4747,7 +4954,7 @@
     </row>
     <row r="241" ht="14.25">
       <c r="A241" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B241" s="1">
         <v>2013</v>
@@ -4761,7 +4968,7 @@
     </row>
     <row r="242" ht="14.25">
       <c r="A242" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B242" s="1">
         <v>2013</v>
@@ -4775,7 +4982,7 @@
     </row>
     <row r="243" ht="14.25">
       <c r="A243" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B243" s="1">
         <v>2013</v>
@@ -4793,12 +5000,12 @@
         <v>2010</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" ht="14.25">
       <c r="A244" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B244" s="1">
         <v>2013</v>
@@ -4816,12 +5023,12 @@
         <v>2010</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" ht="14.25">
       <c r="A245" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B245" s="1">
         <v>2013</v>
@@ -4835,7 +5042,7 @@
     </row>
     <row r="246" ht="14.25">
       <c r="A246" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B246" s="1">
         <v>2013</v>
@@ -4849,7 +5056,7 @@
     </row>
     <row r="247" ht="14.25">
       <c r="A247" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B247" s="1">
         <v>2013</v>
@@ -4863,7 +5070,7 @@
     </row>
     <row r="248" ht="14.25">
       <c r="A248" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B248" s="1">
         <v>2013</v>
@@ -4877,7 +5084,7 @@
     </row>
     <row r="249" ht="14.25">
       <c r="A249" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B249" s="1">
         <v>2013</v>
@@ -4891,7 +5098,7 @@
     </row>
     <row r="250" ht="14.25">
       <c r="A250" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B250" s="1">
         <v>2013</v>
@@ -4905,7 +5112,7 @@
     </row>
     <row r="251" ht="14.25">
       <c r="A251" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B251" s="1">
         <v>2013</v>
@@ -4919,7 +5126,7 @@
     </row>
     <row r="252" ht="14.25">
       <c r="A252" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B252" s="1">
         <v>2013</v>
@@ -4937,12 +5144,12 @@
         <v>2011</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" ht="14.25">
       <c r="A253" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B253" s="1">
         <v>2013</v>
@@ -4956,7 +5163,7 @@
     </row>
     <row r="254" ht="14.25">
       <c r="A254" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B254" s="1">
         <v>2013</v>
@@ -4970,7 +5177,7 @@
     </row>
     <row r="255" ht="14.25">
       <c r="A255" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B255" s="1">
         <v>2013</v>
@@ -4984,7 +5191,7 @@
     </row>
     <row r="256" ht="14.25">
       <c r="A256" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B256" s="1">
         <v>2010</v>
@@ -4992,100 +5199,100 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="G256" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="257" ht="14.25">
       <c r="A257" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B257" s="1">
         <v>2010</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="258" ht="14.25">
       <c r="A258" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B258" s="1">
         <v>2010</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="259" ht="14.25">
       <c r="A259" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B259" s="1">
         <v>2010</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="260" ht="14.25">
       <c r="A260" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B260" s="1">
         <v>2010</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" ht="14.25">
       <c r="A261" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B261" s="1">
         <v>2010</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="262" ht="14.25">
       <c r="A262" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B262" s="1">
         <v>2010</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="263" ht="14.25">
       <c r="A263" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B263" s="1">
         <v>2010</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="264" ht="14.25">
       <c r="A264" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B264" s="1">
         <v>2010</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="265" ht="14.25">
       <c r="A265" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B265" s="1">
         <v>2011</v>
@@ -5095,12 +5302,12 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="266" ht="14.25">
       <c r="A266" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B266" s="1">
         <v>2011</v>
@@ -5110,12 +5317,12 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="267" ht="14.25">
       <c r="A267" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B267" s="1">
         <v>2011</v>
@@ -5125,12 +5332,12 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="268" ht="14.25">
       <c r="A268" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B268" s="1">
         <v>2011</v>
@@ -5140,12 +5347,12 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="269" ht="14.25">
       <c r="A269" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B269" s="1">
         <v>2011</v>
@@ -5155,12 +5362,12 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="270" ht="14.25">
       <c r="A270" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B270" s="1">
         <v>2011</v>
@@ -5170,12 +5377,12 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271" ht="14.25">
       <c r="A271" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B271" s="1">
         <v>2011</v>
@@ -5185,12 +5392,12 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B272" s="1">
         <v>2011</v>
@@ -5200,12 +5407,12 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" ht="14.25">
       <c r="A273" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B273" s="1">
         <v>2011</v>
@@ -5215,144 +5422,144 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B274" s="1">
         <v>2011</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275" ht="14.25">
       <c r="A275" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B275" s="1">
         <v>2011</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="276" ht="14.25">
       <c r="A276" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B276" s="1">
         <v>2011</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="277" ht="14.25">
       <c r="A277" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B277" s="1">
         <v>2011</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="278" ht="14.25">
       <c r="A278" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B278" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="279" ht="14.25">
       <c r="A279" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B279" s="1">
         <v>2011</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280" ht="14.25">
       <c r="A280" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B280" s="1">
         <v>2011</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="281" ht="14.25">
       <c r="A281" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B281" s="1">
         <v>2011</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="282" ht="14.25">
       <c r="A282" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B282" s="1">
         <v>2011</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="283" ht="14.25">
       <c r="A283" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B283" s="1">
         <v>2011</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="284" ht="14.25">
       <c r="A284" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B284" s="1">
         <v>2011</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="285" ht="14.25">
       <c r="A285" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B285" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B285" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="286" ht="14.25">
       <c r="A286" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B286" s="1">
         <v>2011</v>
@@ -5362,12 +5569,12 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="287" ht="14.25">
       <c r="A287" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B287" s="1">
         <v>2011</v>
@@ -5377,12 +5584,12 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="288" ht="14.25">
       <c r="A288" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B288" s="1">
         <v>2012</v>
@@ -5392,12 +5599,12 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" ht="14.25">
       <c r="A289" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B289" s="1">
         <v>2012</v>
@@ -5407,12 +5614,12 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" ht="14.25">
       <c r="A290" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B290" s="1">
         <v>2012</v>
@@ -5422,12 +5629,12 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" ht="14.25">
       <c r="A291" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B291" s="1">
         <v>2012</v>
@@ -5437,12 +5644,12 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" ht="14.25">
       <c r="A292" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B292" s="1">
         <v>2012</v>
@@ -5452,12 +5659,12 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" ht="14.25">
       <c r="A293" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B293" s="1">
         <v>2012</v>
@@ -5467,12 +5674,12 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" ht="14.25">
       <c r="A294" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B294" s="1">
         <v>2012</v>
@@ -5482,12 +5689,12 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="295" ht="14.25">
       <c r="A295" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B295" s="1">
         <v>2012</v>
@@ -5497,12 +5704,12 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" ht="14.25">
       <c r="A296" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B296" s="1">
         <v>2012</v>
@@ -5512,12 +5719,12 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" ht="14.25">
       <c r="A297" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B297" s="1">
         <v>2013</v>
@@ -5527,12 +5734,12 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" ht="14.25">
       <c r="A298" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B298" s="1">
         <v>2013</v>
@@ -5542,12 +5749,12 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" ht="14.25">
       <c r="A299" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B299" s="1">
         <v>2013</v>
@@ -5557,12 +5764,12 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" ht="14.25">
       <c r="A300" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B300" s="1">
         <v>2013</v>
@@ -5572,12 +5779,12 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="301" ht="14.25">
       <c r="A301" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B301" s="1">
         <v>2013</v>
@@ -5587,12 +5794,12 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="302" ht="14.25">
       <c r="A302" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B302" s="1">
         <v>2013</v>
@@ -5602,12 +5809,12 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="303" ht="14.25">
       <c r="A303" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B303" s="1">
         <v>2013</v>
@@ -5617,12 +5824,12 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" ht="14.25">
       <c r="A304" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B304" s="1">
         <v>2013</v>
@@ -5632,12 +5839,12 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" ht="14.25">
       <c r="A305" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B305" s="1">
         <v>2013</v>
@@ -5647,12 +5854,12 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" ht="14.25">
       <c r="A306" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B306" s="1">
         <v>2013</v>
@@ -5662,12 +5869,12 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" ht="14.25">
       <c r="A307" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B307" s="1">
         <v>2013</v>
@@ -5677,12 +5884,12 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" ht="14.25">
       <c r="A308" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B308" s="1">
         <v>2013</v>
@@ -5692,12 +5899,12 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" ht="14.25">
       <c r="A309" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B309" s="1">
         <v>2013</v>
@@ -5707,12 +5914,12 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" ht="14.25">
       <c r="A310" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B310" s="1">
         <v>2013</v>
@@ -5722,12 +5929,12 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" ht="14.25">
       <c r="A311" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B311" s="1">
         <v>2013</v>
@@ -5737,12 +5944,12 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" ht="14.25">
       <c r="A312" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B312" s="1">
         <v>2013</v>
@@ -5752,12 +5959,12 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" ht="14.25">
       <c r="A313" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B313" s="1">
         <v>2013</v>
@@ -5767,12 +5974,12 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" ht="14.25">
       <c r="A314" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B314" s="1">
         <v>2013</v>
@@ -5782,12 +5989,12 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" ht="14.25">
       <c r="A315" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B315" s="1">
         <v>2013</v>
@@ -5797,12 +6004,12 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="316" ht="14.25">
       <c r="A316" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B316" s="1">
         <v>2013</v>
@@ -5812,12 +6019,12 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" ht="14.25">
       <c r="A317" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B317" s="1">
         <v>2013</v>
@@ -5827,12 +6034,12 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" ht="14.25">
       <c r="A318" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B318" s="1">
         <v>2013</v>
@@ -5842,12 +6049,12 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" ht="14.25">
       <c r="A319" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B319" s="1">
         <v>2013</v>
@@ -5857,12 +6064,12 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="320" ht="14.25">
       <c r="A320" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B320" s="1">
         <v>2013</v>
@@ -5872,12 +6079,12 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" ht="14.25">
       <c r="A321" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B321" s="1">
         <v>2013</v>
@@ -5887,12 +6094,12 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" ht="14.25">
       <c r="A322" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B322" s="1">
         <v>2013</v>
@@ -5902,12 +6109,12 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" ht="14.25">
       <c r="A323" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B323" s="1">
         <v>2013</v>
@@ -5917,12 +6124,12 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" ht="14.25">
       <c r="A324" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B324" s="1">
         <v>2013</v>
@@ -5932,12 +6139,12 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" ht="14.25">
       <c r="A325" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B325" s="1">
         <v>2013</v>
@@ -5947,12 +6154,12 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326" ht="14.25">
       <c r="A326" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B326" s="1">
         <v>2013</v>
@@ -5962,12 +6169,12 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" ht="14.25">
       <c r="A327" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B327" s="1">
         <v>2013</v>
@@ -5977,12 +6184,12 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="328" ht="14.25">
       <c r="A328" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B328" s="1">
         <v>2013</v>
@@ -5992,12 +6199,12 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329" ht="14.25">
       <c r="A329" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B329" s="1">
         <v>2013</v>
@@ -6007,12 +6214,12 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" ht="14.25">
       <c r="A330" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B330" s="1">
         <v>2013</v>
@@ -6022,12 +6229,12 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" ht="14.25">
       <c r="A331" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B331" s="1">
         <v>2013</v>
@@ -6037,12 +6244,12 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" ht="14.25">
       <c r="A332" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B332" s="1">
         <v>2013</v>
@@ -6052,12 +6259,12 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" ht="14.25">
       <c r="A333" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B333" s="1">
         <v>2013</v>
@@ -6067,12 +6274,12 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="334" ht="14.25">
       <c r="A334" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B334" s="1">
         <v>2013</v>
@@ -6082,12 +6289,12 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" ht="14.25">
       <c r="A335" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B335" s="1">
         <v>2014</v>
@@ -6097,441 +6304,441 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" ht="14.25">
       <c r="A336" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B336" s="1">
         <v>2014</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" ht="14.25">
       <c r="A337" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B337" s="1">
         <v>2014</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="338" ht="14.25">
       <c r="A338" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B338" s="1">
         <v>2014</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" ht="14.25">
       <c r="A339" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B339" s="1">
         <v>2014</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="340" ht="14.25">
       <c r="A340" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B340" s="1">
         <v>2014</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="341" ht="14.25">
       <c r="A341" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B341" s="1">
         <v>2014</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="342" ht="14.25">
       <c r="A342" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B342" s="1">
         <v>2014</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="343" ht="14.25">
       <c r="A343" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B343" s="1">
         <v>2014</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" ht="14.25">
       <c r="A344" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B344" s="1">
         <v>2014</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" ht="14.25">
       <c r="A345" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B345" s="1">
         <v>2014</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346" ht="14.25">
       <c r="A346" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B346" s="1">
         <v>2014</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" ht="14.25">
       <c r="A347" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B347" s="1">
         <v>2014</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="348" ht="14.25">
       <c r="A348" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B348" s="1">
         <v>2014</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="349" ht="14.25">
       <c r="A349" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B349" s="1">
         <v>2014</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="350" ht="14.25">
       <c r="A350" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B350" s="1">
         <v>2014</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="351" ht="14.25">
       <c r="A351" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B351" s="1">
         <v>2014</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352" ht="14.25">
       <c r="A352" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B352" s="1">
         <v>2014</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="353" ht="14.25">
       <c r="A353" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B353" s="1">
         <v>2014</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" ht="14.25">
       <c r="A354" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B354" s="1">
         <v>2014</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="355" ht="14.25">
       <c r="A355" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B355" s="1">
         <v>2014</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="356" ht="14.25">
       <c r="A356" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B356" s="1">
         <v>2014</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="357" ht="14.25">
       <c r="A357" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B357" s="1">
         <v>2014</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="358" ht="14.25">
       <c r="A358" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B358" s="1">
         <v>2014</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="359" ht="14.25">
       <c r="A359" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B359" s="1">
         <v>2014</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="360" ht="14.25">
       <c r="A360" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B360" s="1">
         <v>2014</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="361" ht="14.25">
       <c r="A361" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B361" s="1">
         <v>2014</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362" ht="14.25">
       <c r="A362" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B362" s="1">
         <v>2014</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="363" ht="14.25">
       <c r="A363" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B363" s="1">
         <v>2014</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364" ht="14.25">
       <c r="A364" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B364" s="1">
         <v>2014</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365" ht="14.25">
       <c r="A365" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B365" s="1">
         <v>2014</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="366" ht="14.25">
       <c r="A366" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B366" s="1">
         <v>2014</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="367" ht="14.25">
       <c r="A367" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B367" s="1">
         <v>2014</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368" ht="14.25">
       <c r="A368" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B368" s="1">
         <v>2014</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="369" ht="14.25">
       <c r="A369" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B369" s="1">
         <v>2014</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="370" ht="14.25">
       <c r="A370" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B370" s="1">
         <v>2014</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="371" ht="14.25">
       <c r="A371" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B371" s="1">
         <v>2014</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="372" ht="14.25">
       <c r="A372" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B372" s="1">
         <v>2014</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="373" ht="14.25">
       <c r="A373" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B373" s="1">
         <v>2014</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="374" ht="14.25">
       <c r="A374" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B374" s="1">
         <v>2014</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="375" ht="14.25">
       <c r="A375" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B375" s="1">
         <v>2014</v>
@@ -6539,12 +6746,12 @@
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="G375" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="376" ht="14.25">
       <c r="A376" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B376" s="1">
         <v>2015</v>
@@ -6558,7 +6765,7 @@
     </row>
     <row r="377" ht="14.25">
       <c r="A377" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B377" s="1">
         <v>2015</v>
@@ -6572,7 +6779,7 @@
     </row>
     <row r="378" ht="14.25">
       <c r="A378" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B378" s="1">
         <v>2015</v>
@@ -6586,7 +6793,7 @@
     </row>
     <row r="379" ht="14.25">
       <c r="A379" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B379" s="1">
         <v>2015</v>
@@ -6600,7 +6807,7 @@
     </row>
     <row r="380" ht="14.25">
       <c r="A380" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B380" s="1">
         <v>2015</v>
@@ -6611,10 +6818,13 @@
       <c r="D380" s="1">
         <v>2012</v>
       </c>
+      <c r="H380" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="381" ht="14.25">
       <c r="A381" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B381" s="1">
         <v>2015</v>
@@ -6628,7 +6838,7 @@
     </row>
     <row r="382" ht="14.25">
       <c r="A382" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B382" s="1">
         <v>2015</v>
@@ -6642,7 +6852,7 @@
     </row>
     <row r="383" ht="14.25">
       <c r="A383" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B383" s="1">
         <v>2015</v>
@@ -6656,7 +6866,7 @@
     </row>
     <row r="384" ht="14.25">
       <c r="A384" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B384" s="1">
         <v>2015</v>
@@ -6670,21 +6880,24 @@
     </row>
     <row r="385" ht="14.25">
       <c r="A385" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B385" s="1">
         <v>2015</v>
       </c>
       <c r="C385" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D385" s="1">
         <v>2013</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="386" ht="14.25">
       <c r="A386" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B386" s="1">
         <v>2015</v>
@@ -6698,7 +6911,7 @@
     </row>
     <row r="387" ht="14.25">
       <c r="A387" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B387" s="1">
         <v>2015</v>
@@ -6712,7 +6925,7 @@
     </row>
     <row r="388" ht="14.25">
       <c r="A388" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B388" s="1">
         <v>2015</v>
@@ -6726,7 +6939,7 @@
     </row>
     <row r="389" ht="14.25">
       <c r="A389" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B389" s="1">
         <v>2015</v>
@@ -6740,7 +6953,7 @@
     </row>
     <row r="390" ht="14.25">
       <c r="A390" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B390" s="1">
         <v>2015</v>
@@ -6754,7 +6967,7 @@
     </row>
     <row r="391" ht="14.25">
       <c r="A391" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B391" s="1">
         <v>2015</v>
@@ -6768,7 +6981,7 @@
     </row>
     <row r="392" ht="14.25">
       <c r="A392" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B392" s="1">
         <v>2015</v>
@@ -6782,7 +6995,7 @@
     </row>
     <row r="393" ht="14.25">
       <c r="A393" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B393" s="1">
         <v>2015</v>
@@ -6796,7 +7009,7 @@
     </row>
     <row r="394" ht="14.25">
       <c r="A394" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B394" s="1">
         <v>2015</v>
@@ -6810,7 +7023,7 @@
     </row>
     <row r="395" ht="14.25">
       <c r="A395" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B395" s="1">
         <v>2015</v>
@@ -6824,7 +7037,7 @@
     </row>
     <row r="396" ht="14.25">
       <c r="A396" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B396" s="1">
         <v>2015</v>
@@ -6838,7 +7051,7 @@
     </row>
     <row r="397" ht="14.25">
       <c r="A397" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B397" s="1">
         <v>2015</v>
@@ -6852,7 +7065,7 @@
     </row>
     <row r="398" ht="14.25">
       <c r="A398" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B398" s="1">
         <v>2015</v>
@@ -6866,7 +7079,7 @@
     </row>
     <row r="399" ht="14.25">
       <c r="A399" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B399" s="1">
         <v>2015</v>
@@ -6880,7 +7093,7 @@
     </row>
     <row r="400" ht="14.25">
       <c r="A400" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B400" s="1">
         <v>2015</v>
@@ -6894,7 +7107,7 @@
     </row>
     <row r="401" ht="14.25">
       <c r="A401" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B401" s="1">
         <v>2015</v>
@@ -6908,7 +7121,7 @@
     </row>
     <row r="402" ht="14.25">
       <c r="A402" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B402" s="1">
         <v>2015</v>
@@ -6922,7 +7135,7 @@
     </row>
     <row r="403" ht="14.25">
       <c r="A403" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B403" s="1">
         <v>2015</v>
@@ -6936,7 +7149,7 @@
     </row>
     <row r="404" ht="14.25">
       <c r="A404" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B404" s="1">
         <v>2015</v>
@@ -6950,7 +7163,7 @@
     </row>
     <row r="405" ht="14.25">
       <c r="A405" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B405" s="1">
         <v>2015</v>
@@ -6964,7 +7177,7 @@
     </row>
     <row r="406" ht="14.25">
       <c r="A406" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B406" s="1">
         <v>2015</v>
@@ -6978,7 +7191,7 @@
     </row>
     <row r="407" ht="14.25">
       <c r="A407" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B407" s="1">
         <v>2015</v>
@@ -6990,12 +7203,12 @@
         <v>2014</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="408" ht="14.25">
       <c r="A408" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B408" s="1">
         <v>2015</v>
@@ -7009,7 +7222,7 @@
     </row>
     <row r="409" ht="14.25">
       <c r="A409" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B409" s="1">
         <v>2015</v>
@@ -7023,7 +7236,7 @@
     </row>
     <row r="410" ht="14.25">
       <c r="A410" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B410" s="1">
         <v>2015</v>
@@ -7037,7 +7250,7 @@
     </row>
     <row r="411" ht="14.25">
       <c r="A411" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B411" s="1">
         <v>2015</v>
@@ -7051,7 +7264,7 @@
     </row>
     <row r="412" ht="14.25">
       <c r="A412" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B412" s="1">
         <v>2015</v>
@@ -7065,7 +7278,7 @@
     </row>
     <row r="413" ht="14.25">
       <c r="A413" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B413" s="1">
         <v>2015</v>
@@ -7079,7 +7292,7 @@
     </row>
     <row r="414" ht="14.25">
       <c r="A414" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B414" s="1">
         <v>2015</v>
@@ -7093,7 +7306,7 @@
     </row>
     <row r="415" ht="14.25">
       <c r="A415" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B415" s="1">
         <v>2015</v>
@@ -7107,7 +7320,7 @@
     </row>
     <row r="416" ht="14.25">
       <c r="A416" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B416" s="1">
         <v>2015</v>
@@ -7121,7 +7334,7 @@
     </row>
     <row r="417" ht="14.25">
       <c r="A417" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B417" s="1">
         <v>2015</v>
@@ -7135,7 +7348,7 @@
     </row>
     <row r="418" ht="14.25">
       <c r="A418" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B418" s="1">
         <v>2015</v>
@@ -7149,7 +7362,7 @@
     </row>
     <row r="419" ht="14.25">
       <c r="A419" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B419" s="1">
         <v>2015</v>
@@ -7163,7 +7376,7 @@
     </row>
     <row r="420" ht="14.25">
       <c r="A420" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B420" s="1">
         <v>2015</v>
@@ -7177,7 +7390,7 @@
     </row>
     <row r="421" ht="14.25">
       <c r="A421" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B421" s="1">
         <v>2015</v>
@@ -7191,7 +7404,7 @@
     </row>
     <row r="422" ht="14.25">
       <c r="A422" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B422" s="1">
         <v>2015</v>
@@ -7205,7 +7418,7 @@
     </row>
     <row r="423" ht="14.25">
       <c r="A423" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B423" s="1">
         <v>2015</v>
@@ -7219,7 +7432,7 @@
     </row>
     <row r="424" ht="14.25">
       <c r="A424" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B424" s="1">
         <v>2015</v>
@@ -7233,7 +7446,7 @@
     </row>
     <row r="425" ht="14.25">
       <c r="A425" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B425" s="1">
         <v>2015</v>
@@ -7247,7 +7460,7 @@
     </row>
     <row r="426" ht="14.25">
       <c r="A426" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B426" s="1">
         <v>2015</v>
@@ -7261,7 +7474,7 @@
     </row>
     <row r="427" ht="14.25">
       <c r="A427" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B427" s="1">
         <v>2015</v>
@@ -7275,7 +7488,7 @@
     </row>
     <row r="428" ht="14.25">
       <c r="A428" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B428" s="1">
         <v>2015</v>
@@ -7289,7 +7502,7 @@
     </row>
     <row r="429" ht="14.25">
       <c r="A429" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B429" s="1">
         <v>2015</v>
@@ -7303,7 +7516,7 @@
     </row>
     <row r="430" ht="14.25">
       <c r="A430" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B430" s="1">
         <v>2015</v>
@@ -7317,7 +7530,7 @@
     </row>
     <row r="431" ht="14.25">
       <c r="A431" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B431" s="1">
         <v>2015</v>
@@ -7331,7 +7544,7 @@
     </row>
     <row r="432" ht="14.25">
       <c r="A432" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B432" s="1">
         <v>2015</v>
@@ -7345,7 +7558,7 @@
     </row>
     <row r="433" ht="14.25">
       <c r="A433" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B433" s="1">
         <v>2015</v>
@@ -7359,7 +7572,7 @@
     </row>
     <row r="434" ht="14.25">
       <c r="A434" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B434" s="1">
         <v>2015</v>
@@ -7373,7 +7586,7 @@
     </row>
     <row r="435" ht="14.25">
       <c r="A435" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B435" s="1">
         <v>2015</v>
@@ -7387,7 +7600,7 @@
     </row>
     <row r="436" ht="14.25">
       <c r="A436" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B436" s="1">
         <v>2015</v>
@@ -7401,7 +7614,7 @@
     </row>
     <row r="437" ht="14.25">
       <c r="A437" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B437" s="1">
         <v>2015</v>
@@ -7415,7 +7628,7 @@
     </row>
     <row r="438" ht="14.25">
       <c r="A438" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B438" s="1">
         <v>2015</v>
@@ -7433,12 +7646,12 @@
         <v>2012</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" ht="14.25">
       <c r="A439" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B439" s="1">
         <v>2015</v>
@@ -7452,392 +7665,392 @@
     </row>
     <row r="440" ht="14.25">
       <c r="A440" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B440" s="1">
         <v>2015</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="441" ht="14.25">
       <c r="A441" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B441" s="1">
         <v>2015</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="442" ht="14.25">
       <c r="A442" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B442" s="1">
         <v>2015</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="443" ht="14.25">
       <c r="A443" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B443" s="1">
         <v>2015</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="444" ht="14.25">
       <c r="A444" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B444" s="1">
         <v>2015</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="445" ht="14.25">
       <c r="A445" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B445" s="1">
         <v>2015</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="446" ht="14.25">
       <c r="A446" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B446" s="1">
         <v>2015</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="447" ht="14.25">
       <c r="A447" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B447" s="1">
         <v>2015</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="448" ht="14.25">
       <c r="A448" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B448" s="1">
         <v>2015</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="449" ht="14.25">
       <c r="A449" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B449" s="1">
         <v>2015</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="450" ht="14.25">
       <c r="A450" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B450" s="1">
         <v>2015</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="451" ht="14.25">
       <c r="A451" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B451" s="1">
         <v>2015</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="452" ht="14.25">
       <c r="A452" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B452" s="1">
         <v>2015</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="453" ht="14.25">
       <c r="A453" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B453" s="1">
         <v>2015</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="454" ht="14.25">
       <c r="A454" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B454" s="1">
         <v>2015</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="455" ht="14.25">
       <c r="A455" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B455" s="1">
         <v>2015</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="456" ht="14.25">
       <c r="A456" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B456" s="1">
         <v>2015</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="457" ht="14.25">
       <c r="A457" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B457" s="1">
         <v>2015</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="458" ht="14.25">
       <c r="A458" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B458" s="1">
         <v>2015</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="459" ht="14.25">
       <c r="A459" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B459" s="1">
         <v>2015</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="460" ht="14.25">
       <c r="A460" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B460" s="1">
         <v>2015</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="461" ht="14.25">
       <c r="A461" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B461" s="1">
         <v>2015</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="462" ht="14.25">
       <c r="A462" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B462" s="1">
         <v>2015</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="463" ht="14.25">
       <c r="A463" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B463" s="1">
         <v>2015</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="464" ht="14.25">
       <c r="A464" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B464" s="1">
         <v>2015</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="465" ht="14.25">
       <c r="A465" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B465" s="1">
         <v>2015</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="466" ht="14.25">
       <c r="A466" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B466" s="1">
         <v>2015</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="467" ht="14.25">
       <c r="A467" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B467" s="1">
         <v>2015</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="468" ht="14.25">
       <c r="A468" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B468" s="1">
         <v>2015</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="469" ht="14.25">
       <c r="A469" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B469" s="1">
         <v>2015</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="470" ht="14.25">
       <c r="A470" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B470" s="1">
         <v>2015</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="471" ht="14.25">
       <c r="A471" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B471" s="1">
         <v>2015</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="472" ht="14.25">
       <c r="A472" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B472" s="1">
         <v>2015</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="473" ht="14.25">
       <c r="A473" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B473" s="1">
         <v>2015</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="474" ht="14.25">
       <c r="A474" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B474" s="1">
         <v>2015</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="475" ht="14.25">
       <c r="A475" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B475" s="1">
         <v>2016</v>
@@ -7852,7 +8065,7 @@
     </row>
     <row r="476" ht="14.25">
       <c r="A476" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B476" s="1">
         <v>2016</v>
@@ -7867,7 +8080,7 @@
     </row>
     <row r="477" ht="14.25">
       <c r="A477" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B477" s="1">
         <v>2016</v>
@@ -7882,7 +8095,7 @@
     </row>
     <row r="478" ht="14.25">
       <c r="A478" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B478" s="1">
         <v>2016</v>
@@ -7897,7 +8110,7 @@
     </row>
     <row r="479" ht="14.25">
       <c r="A479" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B479" s="1">
         <v>2016</v>
@@ -7909,10 +8122,13 @@
         <v>2013</v>
       </c>
       <c r="G479" s="2"/>
+      <c r="H479" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" ht="14.25">
       <c r="A480" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B480" s="1">
         <v>2016</v>
@@ -7927,7 +8143,7 @@
     </row>
     <row r="481" ht="14.25">
       <c r="A481" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B481" s="1">
         <v>2016</v>
@@ -7941,7 +8157,7 @@
     </row>
     <row r="482" ht="14.25">
       <c r="A482" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B482" s="1">
         <v>2016</v>
@@ -7955,7 +8171,7 @@
     </row>
     <row r="483" ht="14.25">
       <c r="A483" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B483" s="1">
         <v>2016</v>
@@ -7969,21 +8185,24 @@
     </row>
     <row r="484" ht="14.25">
       <c r="A484" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B484" s="1">
         <v>2016</v>
       </c>
       <c r="C484" s="1">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D484" s="1">
         <v>2014</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="485" ht="14.25">
       <c r="A485" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B485" s="1">
         <v>2016</v>
@@ -7997,7 +8216,7 @@
     </row>
     <row r="486" ht="14.25">
       <c r="A486" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B486" s="1">
         <v>2016</v>
@@ -8011,7 +8230,7 @@
     </row>
     <row r="487" ht="14.25">
       <c r="A487" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B487" s="1">
         <v>2016</v>
@@ -8025,7 +8244,7 @@
     </row>
     <row r="488" ht="14.25">
       <c r="A488" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B488" s="1">
         <v>2016</v>
@@ -8039,7 +8258,7 @@
     </row>
     <row r="489" ht="14.25">
       <c r="A489" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B489" s="1">
         <v>2016</v>
@@ -8053,7 +8272,7 @@
     </row>
     <row r="490" ht="14.25">
       <c r="A490" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B490" s="1">
         <v>2016</v>
@@ -8067,7 +8286,7 @@
     </row>
     <row r="491" ht="14.25">
       <c r="A491" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B491" s="1">
         <v>2016</v>
@@ -8081,7 +8300,7 @@
     </row>
     <row r="492" ht="14.25">
       <c r="A492" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B492" s="1">
         <v>2016</v>
@@ -8095,7 +8314,7 @@
     </row>
     <row r="493" ht="14.25">
       <c r="A493" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B493" s="1">
         <v>2016</v>
@@ -8109,7 +8328,7 @@
     </row>
     <row r="494" ht="14.25">
       <c r="A494" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B494" s="1">
         <v>2016</v>
@@ -8123,7 +8342,7 @@
     </row>
     <row r="495" ht="14.25">
       <c r="A495" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B495" s="1">
         <v>2016</v>
@@ -8137,7 +8356,7 @@
     </row>
     <row r="496" ht="14.25">
       <c r="A496" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B496" s="1">
         <v>2016</v>
@@ -8151,7 +8370,7 @@
     </row>
     <row r="497" ht="14.25">
       <c r="A497" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B497" s="1">
         <v>2016</v>
@@ -8165,7 +8384,7 @@
     </row>
     <row r="498" ht="14.25">
       <c r="A498" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B498" s="1">
         <v>2016</v>
@@ -8179,7 +8398,7 @@
     </row>
     <row r="499" ht="14.25">
       <c r="A499" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B499" s="1">
         <v>2016</v>
@@ -8193,7 +8412,7 @@
     </row>
     <row r="500" ht="14.25">
       <c r="A500" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B500" s="1">
         <v>2016</v>
@@ -8207,7 +8426,7 @@
     </row>
     <row r="501" ht="14.25">
       <c r="A501" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B501" s="1">
         <v>2016</v>
@@ -8221,7 +8440,7 @@
     </row>
     <row r="502" ht="14.25">
       <c r="A502" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B502" s="1">
         <v>2016</v>
@@ -8235,7 +8454,7 @@
     </row>
     <row r="503" ht="14.25">
       <c r="A503" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B503" s="1">
         <v>2016</v>
@@ -8249,7 +8468,7 @@
     </row>
     <row r="504" ht="14.25">
       <c r="A504" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B504" s="1">
         <v>2016</v>
@@ -8263,7 +8482,7 @@
     </row>
     <row r="505" ht="14.25">
       <c r="A505" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B505" s="1">
         <v>2016</v>
@@ -8277,7 +8496,7 @@
     </row>
     <row r="506" ht="14.25">
       <c r="A506" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B506" s="1">
         <v>2016</v>
@@ -8288,13 +8507,13 @@
       <c r="D506" s="1">
         <v>2014</v>
       </c>
-      <c r="G506" s="5" t="s">
-        <v>156</v>
+      <c r="G506" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="507" ht="14.25">
       <c r="A507" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B507" s="1">
         <v>2016</v>
@@ -8308,7 +8527,7 @@
     </row>
     <row r="508" ht="14.25">
       <c r="A508" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B508" s="1">
         <v>2016</v>
@@ -8322,7 +8541,7 @@
     </row>
     <row r="509" ht="14.25">
       <c r="A509" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B509" s="1">
         <v>2016</v>
@@ -8336,7 +8555,7 @@
     </row>
     <row r="510" ht="14.25">
       <c r="A510" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B510" s="1">
         <v>2016</v>
@@ -8350,7 +8569,7 @@
     </row>
     <row r="511" ht="14.25">
       <c r="A511" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B511" s="1">
         <v>2016</v>
@@ -8364,7 +8583,7 @@
     </row>
     <row r="512" ht="14.25">
       <c r="A512" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B512" s="1">
         <v>2016</v>
@@ -8378,7 +8597,7 @@
     </row>
     <row r="513" ht="14.25">
       <c r="A513" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B513" s="1">
         <v>2016</v>
@@ -8392,7 +8611,7 @@
     </row>
     <row r="514" ht="14.25">
       <c r="A514" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B514" s="1">
         <v>2016</v>
@@ -8406,7 +8625,7 @@
     </row>
     <row r="515" ht="14.25">
       <c r="A515" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B515" s="1">
         <v>2016</v>
@@ -8420,7 +8639,7 @@
     </row>
     <row r="516" ht="14.25">
       <c r="A516" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B516" s="1">
         <v>2016</v>
@@ -8434,7 +8653,7 @@
     </row>
     <row r="517" ht="14.25">
       <c r="A517" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B517" s="1">
         <v>2016</v>
@@ -8448,7 +8667,7 @@
     </row>
     <row r="518" ht="14.25">
       <c r="A518" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B518" s="1">
         <v>2016</v>
@@ -8462,7 +8681,7 @@
     </row>
     <row r="519" ht="14.25">
       <c r="A519" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B519" s="1">
         <v>2016</v>
@@ -8476,7 +8695,7 @@
     </row>
     <row r="520" ht="14.25">
       <c r="A520" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B520" s="1">
         <v>2016</v>
@@ -8490,7 +8709,7 @@
     </row>
     <row r="521" ht="14.25">
       <c r="A521" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B521" s="1">
         <v>2016</v>
@@ -8504,7 +8723,7 @@
     </row>
     <row r="522" ht="14.25">
       <c r="A522" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B522" s="1">
         <v>2016</v>
@@ -8518,7 +8737,7 @@
     </row>
     <row r="523" ht="14.25">
       <c r="A523" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B523" s="1">
         <v>2016</v>
@@ -8532,7 +8751,7 @@
     </row>
     <row r="524" ht="14.25">
       <c r="A524" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B524" s="1">
         <v>2016</v>
@@ -8546,7 +8765,7 @@
     </row>
     <row r="525" ht="14.25">
       <c r="A525" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B525" s="1">
         <v>2016</v>
@@ -8560,7 +8779,7 @@
     </row>
     <row r="526" ht="14.25">
       <c r="A526" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B526" s="1">
         <v>2016</v>
@@ -8574,7 +8793,7 @@
     </row>
     <row r="527" ht="14.25">
       <c r="A527" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B527" s="1">
         <v>2016</v>
@@ -8588,7 +8807,7 @@
     </row>
     <row r="528" ht="14.25">
       <c r="A528" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B528" s="1">
         <v>2016</v>
@@ -8602,7 +8821,7 @@
     </row>
     <row r="529" ht="14.25">
       <c r="A529" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B529" s="1">
         <v>2016</v>
@@ -8616,7 +8835,7 @@
     </row>
     <row r="530" ht="14.25">
       <c r="A530" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B530" s="1">
         <v>2016</v>
@@ -8630,7 +8849,7 @@
     </row>
     <row r="531" ht="14.25">
       <c r="A531" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B531" s="1">
         <v>2016</v>
@@ -8644,7 +8863,7 @@
     </row>
     <row r="532" ht="14.25">
       <c r="A532" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B532" s="1">
         <v>2016</v>
@@ -8658,7 +8877,7 @@
     </row>
     <row r="533" ht="14.25">
       <c r="A533" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B533" s="1">
         <v>2016</v>
@@ -8672,7 +8891,7 @@
     </row>
     <row r="534" ht="14.25">
       <c r="A534" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B534" s="1">
         <v>2016</v>
@@ -8686,7 +8905,7 @@
     </row>
     <row r="535" ht="14.25">
       <c r="A535" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B535" s="1">
         <v>2016</v>
@@ -8700,7 +8919,7 @@
     </row>
     <row r="536" ht="14.25">
       <c r="A536" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B536" s="1">
         <v>2016</v>
@@ -8714,7 +8933,7 @@
     </row>
     <row r="537" ht="14.25">
       <c r="A537" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B537" s="1">
         <v>2016</v>
@@ -8728,7 +8947,7 @@
     </row>
     <row r="538" ht="14.25">
       <c r="A538" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B538" s="1">
         <v>2016</v>
@@ -8742,7 +8961,7 @@
     </row>
     <row r="539" ht="14.25">
       <c r="A539" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B539" s="1">
         <v>2016</v>
@@ -8756,7 +8975,7 @@
     </row>
     <row r="540" ht="14.25">
       <c r="A540" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B540" s="1">
         <v>2016</v>
@@ -8770,7 +8989,7 @@
     </row>
     <row r="541" ht="14.25">
       <c r="A541" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B541" s="1">
         <v>2016</v>
@@ -8784,7 +9003,7 @@
     </row>
     <row r="542" ht="14.25">
       <c r="A542" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B542" s="1">
         <v>2016</v>
@@ -8798,7 +9017,7 @@
     </row>
     <row r="543" ht="14.25">
       <c r="A543" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B543" s="1">
         <v>2016</v>
@@ -8812,381 +9031,381 @@
     </row>
     <row r="544" ht="14.25">
       <c r="A544" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B544" s="1">
         <v>2016</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="545" ht="14.25">
       <c r="A545" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B545" s="1">
         <v>2016</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="546" ht="14.25">
       <c r="A546" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B546" s="1">
         <v>2016</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="547" ht="14.25">
       <c r="A547" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B547" s="1">
         <v>2016</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="548" ht="14.25">
       <c r="A548" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B548" s="1">
         <v>2016</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="549" ht="14.25">
       <c r="A549" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B549" s="1">
         <v>2016</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="550" ht="14.25">
       <c r="A550" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B550" s="1">
         <v>2016</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="551" ht="14.25">
       <c r="A551" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B551" s="1">
         <v>2016</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="552" ht="14.25">
       <c r="A552" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B552" s="1">
         <v>2016</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="553" ht="14.25">
       <c r="A553" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B553" s="1">
         <v>2016</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="554" ht="14.25">
       <c r="A554" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B554" s="1">
         <v>2016</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="555" ht="14.25">
       <c r="A555" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B555" s="1">
         <v>2016</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="556" ht="14.25">
       <c r="A556" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B556" s="1">
         <v>2016</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="557" ht="14.25">
       <c r="A557" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B557" s="1">
         <v>2016</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="558" ht="14.25">
       <c r="A558" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B558" s="1">
         <v>2016</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="559" ht="14.25">
       <c r="A559" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B559" s="1">
         <v>2016</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="560" ht="14.25">
       <c r="A560" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B560" s="1">
         <v>2016</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="561" ht="14.25">
       <c r="A561" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B561" s="1">
         <v>2016</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="562" ht="14.25">
       <c r="A562" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B562" s="1">
         <v>2016</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="563" ht="14.25">
       <c r="A563" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B563" s="1">
         <v>2016</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="564" ht="14.25">
       <c r="A564" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B564" s="1">
         <v>2016</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="565" ht="14.25">
       <c r="A565" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B565" s="1">
         <v>2016</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="566" ht="14.25">
       <c r="A566" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B566" s="1">
         <v>2016</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="567" ht="14.25">
       <c r="A567" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B567" s="1">
         <v>2016</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="568" ht="14.25">
       <c r="A568" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B568" s="1">
         <v>2016</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="569" ht="14.25">
       <c r="A569" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B569" s="1">
         <v>2016</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="570" ht="14.25">
       <c r="A570" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B570" s="1">
         <v>2016</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="571" ht="14.25">
       <c r="A571" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B571" s="1">
         <v>2016</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="572" ht="14.25">
       <c r="A572" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B572" s="1">
         <v>2016</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="573" ht="14.25">
       <c r="A573" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B573" s="1">
         <v>2016</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="574" ht="14.25">
       <c r="A574" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B574" s="1">
         <v>2016</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="575" ht="14.25">
       <c r="A575" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B575" s="1">
         <v>2016</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="576" ht="14.25">
       <c r="A576" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B576" s="1">
         <v>2016</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="577" ht="14.25">
       <c r="A577" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B577" s="1">
         <v>2016</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="578" ht="14.25">
       <c r="A578" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B578" s="1">
         <v>2017</v>
@@ -9200,7 +9419,7 @@
     </row>
     <row r="579" ht="14.25">
       <c r="A579" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B579" s="1">
         <v>2017</v>
@@ -9214,7 +9433,7 @@
     </row>
     <row r="580" ht="14.25">
       <c r="A580" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B580" s="1">
         <v>2017</v>
@@ -9228,7 +9447,7 @@
     </row>
     <row r="581" ht="14.25">
       <c r="A581" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B581" s="1">
         <v>2017</v>
@@ -9242,7 +9461,7 @@
     </row>
     <row r="582" ht="14.25">
       <c r="A582" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B582" s="1">
         <v>2017</v>
@@ -9253,10 +9472,13 @@
       <c r="D582" s="1">
         <v>2014</v>
       </c>
+      <c r="H582" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="583" ht="14.25">
       <c r="A583" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B583" s="1">
         <v>2017</v>
@@ -9270,7 +9492,7 @@
     </row>
     <row r="584" ht="14.25">
       <c r="A584" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B584" s="1">
         <v>2017</v>
@@ -9284,7 +9506,7 @@
     </row>
     <row r="585" ht="14.25">
       <c r="A585" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B585" s="1">
         <v>2017</v>
@@ -9298,7 +9520,7 @@
     </row>
     <row r="586" ht="14.25">
       <c r="A586" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B586" s="1">
         <v>2017</v>
@@ -9312,21 +9534,24 @@
     </row>
     <row r="587" ht="14.25">
       <c r="A587" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B587" s="1">
         <v>2017</v>
       </c>
       <c r="C587" s="1">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D587" s="1">
         <v>2014</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="588" ht="14.25">
       <c r="A588" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B588" s="1">
         <v>2017</v>
@@ -9340,7 +9565,7 @@
     </row>
     <row r="589" ht="14.25">
       <c r="A589" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B589" s="1">
         <v>2017</v>
@@ -9354,7 +9579,7 @@
     </row>
     <row r="590" ht="14.25">
       <c r="A590" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B590" s="1">
         <v>2017</v>
@@ -9368,7 +9593,7 @@
     </row>
     <row r="591" ht="14.25">
       <c r="A591" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B591" s="1">
         <v>2017</v>
@@ -9382,7 +9607,7 @@
     </row>
     <row r="592" ht="14.25">
       <c r="A592" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B592" s="1">
         <v>2017</v>
@@ -9396,7 +9621,7 @@
     </row>
     <row r="593" ht="14.25">
       <c r="A593" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B593" s="1">
         <v>2017</v>
@@ -9410,7 +9635,7 @@
     </row>
     <row r="594" ht="14.25">
       <c r="A594" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B594" s="1">
         <v>2017</v>
@@ -9424,7 +9649,7 @@
     </row>
     <row r="595" ht="14.25">
       <c r="A595" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B595" s="1">
         <v>2017</v>
@@ -9438,7 +9663,7 @@
     </row>
     <row r="596" ht="14.25">
       <c r="A596" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B596" s="1">
         <v>2017</v>
@@ -9452,7 +9677,7 @@
     </row>
     <row r="597" ht="14.25">
       <c r="A597" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B597" s="1">
         <v>2017</v>
@@ -9466,7 +9691,7 @@
     </row>
     <row r="598" ht="14.25">
       <c r="A598" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B598" s="1">
         <v>2017</v>
@@ -9480,7 +9705,7 @@
     </row>
     <row r="599" ht="14.25">
       <c r="A599" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B599" s="1">
         <v>2017</v>
@@ -9494,7 +9719,7 @@
     </row>
     <row r="600" ht="14.25">
       <c r="A600" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B600" s="1">
         <v>2017</v>
@@ -9508,7 +9733,7 @@
     </row>
     <row r="601" ht="14.25">
       <c r="A601" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B601" s="1">
         <v>2017</v>
@@ -9522,7 +9747,7 @@
     </row>
     <row r="602" ht="14.25">
       <c r="A602" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B602" s="1">
         <v>2017</v>
@@ -9536,7 +9761,7 @@
     </row>
     <row r="603" ht="14.25">
       <c r="A603" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B603" s="1">
         <v>2017</v>
@@ -9550,7 +9775,7 @@
     </row>
     <row r="604" ht="14.25">
       <c r="A604" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B604" s="1">
         <v>2017</v>
@@ -9564,7 +9789,7 @@
     </row>
     <row r="605" ht="14.25">
       <c r="A605" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B605" s="1">
         <v>2017</v>
@@ -9578,7 +9803,7 @@
     </row>
     <row r="606" ht="14.25">
       <c r="A606" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B606" s="1">
         <v>2017</v>
@@ -9592,7 +9817,7 @@
     </row>
     <row r="607" ht="14.25">
       <c r="A607" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B607" s="1">
         <v>2017</v>
@@ -9606,7 +9831,7 @@
     </row>
     <row r="608" ht="14.25">
       <c r="A608" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B608" s="1">
         <v>2017</v>
@@ -9620,7 +9845,7 @@
     </row>
     <row r="609" ht="14.25">
       <c r="A609" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B609" s="1">
         <v>2017</v>
@@ -9632,12 +9857,12 @@
         <v>2014</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="610" ht="14.25">
       <c r="A610" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B610" s="1">
         <v>2017</v>
@@ -9651,7 +9876,7 @@
     </row>
     <row r="611" ht="14.25">
       <c r="A611" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B611" s="1">
         <v>2017</v>
@@ -9665,7 +9890,7 @@
     </row>
     <row r="612" ht="14.25">
       <c r="A612" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B612" s="1">
         <v>2017</v>
@@ -9679,7 +9904,7 @@
     </row>
     <row r="613" ht="14.25">
       <c r="A613" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B613" s="1">
         <v>2017</v>
@@ -9693,7 +9918,7 @@
     </row>
     <row r="614" ht="14.25">
       <c r="A614" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B614" s="1">
         <v>2017</v>
@@ -9707,7 +9932,7 @@
     </row>
     <row r="615" ht="14.25">
       <c r="A615" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B615" s="1">
         <v>2017</v>
@@ -9721,7 +9946,7 @@
     </row>
     <row r="616" ht="14.25">
       <c r="A616" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B616" s="1">
         <v>2017</v>
@@ -9735,7 +9960,7 @@
     </row>
     <row r="617" ht="14.25">
       <c r="A617" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B617" s="1">
         <v>2017</v>
@@ -9749,7 +9974,7 @@
     </row>
     <row r="618" ht="14.25">
       <c r="A618" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B618" s="1">
         <v>2017</v>
@@ -9763,7 +9988,7 @@
     </row>
     <row r="619" ht="14.25">
       <c r="A619" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B619" s="1">
         <v>2017</v>
@@ -9777,7 +10002,7 @@
     </row>
     <row r="620" ht="14.25">
       <c r="A620" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B620" s="1">
         <v>2017</v>
@@ -9791,7 +10016,7 @@
     </row>
     <row r="621" ht="14.25">
       <c r="A621" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B621" s="1">
         <v>2017</v>
@@ -9805,7 +10030,7 @@
     </row>
     <row r="622" ht="14.25">
       <c r="A622" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B622" s="1">
         <v>2017</v>
@@ -9819,7 +10044,7 @@
     </row>
     <row r="623" ht="14.25">
       <c r="A623" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B623" s="1">
         <v>2017</v>
@@ -9833,7 +10058,7 @@
     </row>
     <row r="624" ht="14.25">
       <c r="A624" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B624" s="1">
         <v>2017</v>
@@ -9847,7 +10072,7 @@
     </row>
     <row r="625" ht="14.25">
       <c r="A625" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B625" s="1">
         <v>2017</v>
@@ -9861,7 +10086,7 @@
     </row>
     <row r="626" ht="14.25">
       <c r="A626" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B626" s="1">
         <v>2017</v>
@@ -9875,7 +10100,7 @@
     </row>
     <row r="627" ht="14.25">
       <c r="A627" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B627" s="1">
         <v>2017</v>
@@ -9889,7 +10114,7 @@
     </row>
     <row r="628" ht="14.25">
       <c r="A628" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B628" s="1">
         <v>2017</v>
@@ -9903,7 +10128,7 @@
     </row>
     <row r="629" ht="14.25">
       <c r="A629" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B629" s="1">
         <v>2017</v>
@@ -9921,12 +10146,12 @@
         <v>2014</v>
       </c>
       <c r="G629" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="630" ht="14.25">
       <c r="A630" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B630" s="1">
         <v>2017</v>
@@ -9940,7 +10165,7 @@
     </row>
     <row r="631" ht="14.25">
       <c r="A631" s="1" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B631" s="1">
         <v>2017</v>
@@ -9954,7 +10179,7 @@
     </row>
     <row r="632" ht="14.25">
       <c r="A632" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B632" s="1">
         <v>2017</v>
@@ -9968,7 +10193,7 @@
     </row>
     <row r="633" ht="14.25">
       <c r="A633" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B633" s="1">
         <v>2017</v>
@@ -9982,7 +10207,7 @@
     </row>
     <row r="634" ht="14.25">
       <c r="A634" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B634" s="1">
         <v>2017</v>
@@ -9996,21 +10221,21 @@
     </row>
     <row r="635" ht="14.25">
       <c r="A635" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B635" s="1">
         <v>2017</v>
       </c>
-      <c r="C635" s="6">
-        <v>2011</v>
-      </c>
-      <c r="D635" s="6">
+      <c r="C635" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D635" s="1">
         <v>2015</v>
       </c>
     </row>
     <row r="636" ht="14.25">
       <c r="A636" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B636" s="1">
         <v>2017</v>
@@ -10024,7 +10249,7 @@
     </row>
     <row r="637" ht="14.25">
       <c r="A637" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B637" s="1">
         <v>2017</v>
@@ -10038,7 +10263,7 @@
     </row>
     <row r="638" ht="14.25">
       <c r="A638" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B638" s="1">
         <v>2017</v>
@@ -10052,7 +10277,7 @@
     </row>
     <row r="639" ht="14.25">
       <c r="A639" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B639" s="1">
         <v>2017</v>
@@ -10066,7 +10291,7 @@
     </row>
     <row r="640" ht="14.25">
       <c r="A640" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B640" s="1">
         <v>2017</v>
@@ -10080,7 +10305,7 @@
     </row>
     <row r="641" ht="14.25">
       <c r="A641" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B641" s="1">
         <v>2017</v>
@@ -10094,7 +10319,7 @@
     </row>
     <row r="642" ht="14.25">
       <c r="A642" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B642" s="1">
         <v>2017</v>
@@ -10108,7 +10333,7 @@
     </row>
     <row r="643" ht="14.25">
       <c r="A643" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B643" s="1">
         <v>2017</v>
@@ -10122,7 +10347,7 @@
     </row>
     <row r="644" ht="14.25">
       <c r="A644" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B644" s="1">
         <v>2017</v>
@@ -10136,7 +10361,7 @@
     </row>
     <row r="645" ht="14.25">
       <c r="A645" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B645" s="1">
         <v>2017</v>
@@ -10150,7 +10375,7 @@
     </row>
     <row r="646" ht="14.25">
       <c r="A646" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B646" s="1">
         <v>2017</v>
@@ -10164,7 +10389,7 @@
     </row>
     <row r="647" ht="14.25">
       <c r="A647" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B647" s="1">
         <v>2017</v>
@@ -10178,388 +10403,1791 @@
     </row>
     <row r="648" ht="14.25">
       <c r="A648" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B648" s="1">
         <v>2017</v>
       </c>
       <c r="G648" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="649" ht="14.25">
       <c r="A649" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B649" s="1">
         <v>2017</v>
       </c>
       <c r="G649" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="650" ht="14.25">
       <c r="A650" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B650" s="1">
         <v>2017</v>
       </c>
       <c r="G650" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="651" ht="14.25">
       <c r="A651" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B651" s="1">
         <v>2017</v>
       </c>
       <c r="G651" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="652" ht="14.25">
-      <c r="A652" s="7" t="s">
-        <v>123</v>
+      <c r="A652" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B652" s="1">
         <v>2017</v>
       </c>
       <c r="G652" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="653" ht="14.25">
       <c r="A653" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B653" s="1">
         <v>2017</v>
       </c>
       <c r="G653" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="654" ht="14.25">
       <c r="A654" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B654" s="1">
         <v>2017</v>
       </c>
       <c r="G654" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="655" ht="14.25">
       <c r="A655" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B655" s="1">
         <v>2017</v>
       </c>
       <c r="G655" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="656" ht="14.25">
       <c r="A656" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B656" s="1">
         <v>2017</v>
       </c>
       <c r="G656" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="657" ht="14.25">
       <c r="A657" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B657" s="1">
         <v>2017</v>
       </c>
       <c r="G657" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="658" ht="14.25">
       <c r="A658" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B658" s="1">
         <v>2017</v>
       </c>
       <c r="G658" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="659" ht="14.25">
       <c r="A659" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B659" s="1">
         <v>2017</v>
       </c>
       <c r="G659" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="660" ht="14.25">
       <c r="A660" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B660" s="1">
         <v>2017</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="661" ht="14.25">
       <c r="A661" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B661" s="1">
         <v>2017</v>
       </c>
       <c r="G661" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="662" ht="14.25">
       <c r="A662" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B662" s="1">
         <v>2017</v>
       </c>
       <c r="G662" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="663" ht="14.25">
       <c r="A663" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B663" s="1">
         <v>2017</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="664" ht="14.25">
       <c r="A664" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B664" s="1">
         <v>2017</v>
       </c>
       <c r="G664" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="665" ht="14.25">
       <c r="A665" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B665" s="1">
         <v>2017</v>
       </c>
       <c r="G665" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="666" ht="14.25">
       <c r="A666" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B666" s="1">
         <v>2017</v>
       </c>
       <c r="G666" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="667" ht="14.25">
       <c r="A667" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B667" s="1">
         <v>2017</v>
       </c>
       <c r="G667" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="668" ht="14.25">
       <c r="A668" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B668" s="1">
         <v>2017</v>
       </c>
       <c r="G668" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="669" ht="14.25">
       <c r="A669" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B669" s="1">
         <v>2017</v>
       </c>
       <c r="G669" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="670" ht="14.25">
       <c r="A670" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B670" s="1">
         <v>2017</v>
       </c>
       <c r="G670" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="671" ht="14.25">
       <c r="A671" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B671" s="1">
         <v>2017</v>
       </c>
       <c r="G671" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="672" ht="14.25">
       <c r="A672" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B672" s="1">
         <v>2017</v>
       </c>
       <c r="G672" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="673" ht="14.25">
       <c r="A673" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B673" s="1">
         <v>2017</v>
       </c>
       <c r="G673" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="674" ht="14.25">
       <c r="A674" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B674" s="1">
         <v>2017</v>
       </c>
       <c r="G674" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="675" ht="14.25">
       <c r="A675" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B675" s="1">
         <v>2017</v>
       </c>
       <c r="G675" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="676" ht="14.25">
       <c r="A676" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B676" s="1">
         <v>2017</v>
       </c>
       <c r="G676" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="677" ht="14.25">
       <c r="A677" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B677" s="1">
         <v>2017</v>
       </c>
       <c r="G677" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="678" ht="14.25">
       <c r="A678" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B678" s="1">
         <v>2017</v>
       </c>
       <c r="G678" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="679" ht="14.25">
       <c r="A679" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B679" s="1">
         <v>2017</v>
       </c>
       <c r="G679" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="680" ht="14.25">
       <c r="A680" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B680" s="1">
         <v>2017</v>
       </c>
       <c r="G680" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="681" ht="14.25">
       <c r="A681" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B681" s="1">
         <v>2017</v>
       </c>
       <c r="G681" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="682" ht="14.25">
       <c r="A682" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B682" s="1">
         <v>2017</v>
       </c>
       <c r="G682" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="683" ht="14.25">
+      <c r="A683" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B683" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C683" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D683" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G683" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="684" ht="14.25">
+      <c r="A684" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B684" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C684" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D684" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="685" ht="14.25">
+      <c r="A685" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B685" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C685" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D685" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="686" ht="14.25">
+      <c r="A686" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B686" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C686" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D686" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="687" ht="14.25">
+      <c r="A687" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B687" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C687" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D687" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G687" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H687" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" ht="14.25">
+      <c r="A688" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B688" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C688" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D688" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="689" ht="14.25">
+      <c r="A689" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B689" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C689" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D689" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="690" ht="14.25">
+      <c r="A690" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B690" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C690" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D690" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="691" ht="14.25">
+      <c r="A691" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B691" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C691" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D691" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="692" ht="14.25">
+      <c r="A692" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B692" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C692" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D692" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G692" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="693" ht="14.25">
+      <c r="A693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B693" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C693" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D693" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="694" ht="14.25">
+      <c r="A694" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B694" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C694" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D694" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="695" ht="14.25">
+      <c r="A695" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B695" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C695" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D695" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="696" ht="14.25">
+      <c r="A696" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B696" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C696" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D696" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G696" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="697" ht="14.25">
+      <c r="A697" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B697" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C697" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D697" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="698" ht="14.25">
+      <c r="A698" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B698" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C698" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D698" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="699" ht="14.25">
+      <c r="A699" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B699" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C699" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D699" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="700" ht="14.25">
+      <c r="A700" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B700" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C700" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D700" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="701" ht="14.25">
+      <c r="A701" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B701" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C701" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D701" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="702" ht="14.25">
+      <c r="A702" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B702" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C702" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D702" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="703" ht="14.25">
+      <c r="A703" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B703" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C703" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D703" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G703" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="704" ht="14.25">
+      <c r="A704" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B704" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C704" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D704" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J704" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" ht="14.25">
+      <c r="A705" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B705" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C705" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D705" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="706" ht="14.25">
+      <c r="A706" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B706" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C706" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D706" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="707" ht="14.25">
+      <c r="A707" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B707" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C707" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D707" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G707" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="708" ht="14.25">
+      <c r="A708" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B708" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C708" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D708" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="709" ht="14.25">
+      <c r="A709" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B709" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C709" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D709" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="710" ht="14.25">
+      <c r="A710" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B710" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C710" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D710" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="711" ht="14.25">
+      <c r="A711" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B711" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C711" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D711" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="712" ht="14.25">
+      <c r="A712" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B712" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C712" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D712" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="713" ht="14.25">
+      <c r="A713" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B713" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C713" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D713" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="714" ht="14.25">
+      <c r="A714" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B714" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C714" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D714" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="715" ht="14.25">
+      <c r="A715" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B715" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C715" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D715" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="716" ht="14.25">
+      <c r="A716" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B716" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C716" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D716" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G716" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="717" ht="14.25">
+      <c r="A717" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B717" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C717" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D717" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="718" ht="14.25">
+      <c r="A718" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B718" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C718" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D718" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="719" ht="14.25">
+      <c r="A719" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B719" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C719" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D719" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="720" ht="14.25">
+      <c r="A720" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B720" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C720" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D720" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="721" ht="14.25">
+      <c r="A721" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B721" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C721" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D721" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="722" ht="14.25">
+      <c r="A722" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B722" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C722" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D722" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="723" ht="14.25">
+      <c r="A723" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B723" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C723" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D723" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E723" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F723" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G723" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="724" ht="14.25">
+      <c r="A724" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B724" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C724" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D724" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E724" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F724" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G724" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="725" ht="14.25">
+      <c r="A725" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B725" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C725" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D725" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="726" ht="14.25">
+      <c r="A726" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B726" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C726" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D726" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="727" ht="14.25">
+      <c r="A727" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B727" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C727" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D727" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="728" ht="14.25">
+      <c r="A728" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B728" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C728" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D728" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="729" ht="14.25">
+      <c r="A729" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B729" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C729" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D729" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="730" ht="14.25">
+      <c r="A730" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B730" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C730" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D730" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="731" ht="14.25">
+      <c r="A731" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B731" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C731" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D731" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="732" ht="14.25">
+      <c r="A732" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B732" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C732" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D732" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="733" ht="14.25">
+      <c r="A733" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B733" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C733" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D733" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="734" ht="14.25">
+      <c r="A734" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B734" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C734" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D734" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="735" ht="14.25">
+      <c r="A735" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B735" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C735" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D735" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="736" ht="14.25">
+      <c r="A736" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B736" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C736" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D736" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="737" ht="14.25">
+      <c r="A737" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B737" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C737" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D737" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="738" ht="14.25">
+      <c r="A738" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B738" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C738" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D738" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="739" ht="14.25">
+      <c r="A739" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B739" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C739" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D739" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="740" ht="14.25">
+      <c r="A740" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B740" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C740" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D740" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="741" ht="14.25">
+      <c r="A741" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B741" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C741" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D741" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E741" s="1"/>
+      <c r="F741" s="1"/>
+    </row>
+    <row r="742" ht="14.25">
+      <c r="A742" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B742" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C742" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D742" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="743" ht="14.25">
+      <c r="A743" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B743" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C743" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D743" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="744" ht="14.25">
+      <c r="A744" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B744" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C744" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D744" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="745" ht="14.25">
+      <c r="A745" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B745" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C745" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D745" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="746" ht="14.25">
+      <c r="A746" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B746" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C746" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D746" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="747" ht="14.25">
+      <c r="A747" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B747" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C747" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D747" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="748" ht="14.25">
+      <c r="A748" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B748" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C748" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D748" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="749" ht="14.25">
+      <c r="A749" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B749" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C749" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D749" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="750" ht="14.25">
+      <c r="A750" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B750" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C750" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D750" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="751" ht="14.25">
+      <c r="A751" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B751" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C751" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D751" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="752" ht="14.25">
+      <c r="A752" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B752" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C752" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D752" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="753" ht="14.25">
+      <c r="A753" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B753" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C753" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D753" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="754" ht="14.25">
+      <c r="A754" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B754" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G754" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="755" ht="14.25">
+      <c r="A755" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B755" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G755" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="756" ht="14.25">
+      <c r="A756" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B756" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G756" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="757" ht="14.25">
+      <c r="A757" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B757" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G757" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="758" ht="14.25">
+      <c r="A758" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B758" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G758" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="759" ht="14.25">
+      <c r="A759" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B759" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G759" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="760" ht="14.25">
+      <c r="A760" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B760" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G760" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="761" ht="14.25">
+      <c r="A761" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B761" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G761" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="762" ht="14.25">
+      <c r="A762" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B762" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G762" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="763" ht="14.25">
+      <c r="A763" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B763" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G763" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="764" ht="14.25">
+      <c r="A764" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B764" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G764" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="765" ht="14.25">
+      <c r="A765" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B765" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G765" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="766" ht="14.25">
+      <c r="A766" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B766" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G766" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="767" ht="14.25">
+      <c r="A767" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B767" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G767" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="768" ht="14.25">
+      <c r="A768" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B768" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G768" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="769" ht="14.25">
+      <c r="A769" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B769" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G769" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="770" ht="14.25">
+      <c r="A770" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B770" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G770" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="771" ht="14.25">
+      <c r="A771" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B771" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G771" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="772" ht="14.25">
+      <c r="A772" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B772" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G772" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="773" ht="14.25">
+      <c r="A773" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B773" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G773" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="774" ht="14.25">
+      <c r="A774" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B774" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G774" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="775" ht="14.25">
+      <c r="A775" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B775" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G775" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="776" ht="14.25">
+      <c r="A776" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B776" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G776" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="777" ht="14.25">
+      <c r="A777" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B777" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G777" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="778" ht="14.25">
+      <c r="A778" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B778" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G778" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="779" ht="14.25">
+      <c r="A779" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B779" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G779" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="780" ht="14.25">
+      <c r="A780" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B780" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G780" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="781" ht="14.25">
+      <c r="A781" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B781" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G781" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="782" ht="14.25">
+      <c r="A782" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B782" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G782" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="783" ht="14.25">
+      <c r="A783" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B783" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G783" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="784" ht="14.25">
+      <c r="A784" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B784" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G784" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="785" ht="14.25">
+      <c r="A785" s="1"/>
+      <c r="B785" s="1"/>
+      <c r="G785" s="2"/>
+    </row>
+    <row r="786" ht="14.25">
+      <c r="A786" s="1"/>
+      <c r="B786" s="1"/>
+      <c r="G786" s="2"/>
+    </row>
+    <row r="787" ht="14.25">
+      <c r="A787" s="1"/>
+      <c r="B787" s="1"/>
+      <c r="G787" s="2"/>
+    </row>
+    <row r="788" ht="14.25">
+      <c r="G788" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>variable</t>
   </si>
@@ -168,7 +168,7 @@
     <t>primary_care_physicians</t>
   </si>
   <si>
-    <t>mammography_screening</t>
+    <t>mammography_screening_67_69</t>
   </si>
   <si>
     <t>some_college</t>
@@ -189,7 +189,7 @@
     <t>%_65_and_older</t>
   </si>
   <si>
-    <t>%_non-hispanic_african_american</t>
+    <t>%_non-hispanic_black</t>
   </si>
   <si>
     <t>%_american_indian_and_alaskan_native</t>
@@ -729,6 +729,9 @@
     </r>
   </si>
   <si>
+    <t>mammography_screening_65_74</t>
+  </si>
+  <si>
     <t>flu_vaccinations</t>
   </si>
   <si>
@@ -842,7 +845,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2019. I interpret this to mean the shape files are from 2010, but the data is from 2018. This is just a hypothesis though.</t>
+      <t xml:space="preserve"> 2019. I interpret this to mean the shape files are from 2010, but the data is from 2019. This is just a hypothesis though.</t>
     </r>
   </si>
   <si>
@@ -868,6 +871,42 @@
   </si>
   <si>
     <t>traffic_volume</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2015 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2018. I interpret this to mean that one data source is from one year and another data source is from another year. This is just a hypothesis, though.</t>
+    </r>
+  </si>
+  <si>
+    <t>high_school_completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The documentation lists the years of availabilty as 2014 and 2016 (not through). I am not sure if the 2015 data is missing. I also am not sure if this means this value is an average of the two years.</t>
   </si>
 </sst>
 </file>
@@ -899,17 +938,17 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -924,13 +963,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,7 +1439,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -2248,7 +2284,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="1">
@@ -2531,7 +2567,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="1">
@@ -3072,7 +3108,7 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B96" s="1">
@@ -3343,7 +3379,7 @@
       <c r="G112" s="2"/>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B113" s="1">
@@ -3784,7 +3820,7 @@
       <c r="D142" s="1">
         <v>2011</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3960,7 +3996,7 @@
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B155" s="1">
@@ -4202,7 +4238,7 @@
       </c>
     </row>
     <row r="172" ht="14.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B172" s="1">
@@ -4840,7 +4876,7 @@
       </c>
     </row>
     <row r="215" ht="14.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B215" s="1">
@@ -5066,7 +5102,7 @@
       </c>
     </row>
     <row r="231" ht="14.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B231" s="1">
@@ -7295,7 +7331,7 @@
       </c>
     </row>
     <row r="396" ht="14.25">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B396" s="1">
@@ -7550,7 +7586,7 @@
       </c>
     </row>
     <row r="414" ht="14.25">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B414" s="1">
@@ -8600,7 +8636,7 @@
       </c>
     </row>
     <row r="495" ht="14.25">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B495" s="1">
@@ -9163,7 +9199,7 @@
       </c>
     </row>
     <row r="535" ht="14.25">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B535" s="1">
@@ -9949,7 +9985,7 @@
       </c>
     </row>
     <row r="598" ht="14.25">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B598" s="1">
@@ -10535,7 +10571,7 @@
       </c>
     </row>
     <row r="639" ht="14.25">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B639" s="1">
@@ -11068,9 +11104,9 @@
       <c r="M683" s="1">
         <v>1</v>
       </c>
-      <c r="N683" s="6"/>
-      <c r="O683" s="6"/>
-      <c r="P683" s="6"/>
+      <c r="N683" s="1"/>
+      <c r="O683" s="1"/>
+      <c r="P683" s="1"/>
     </row>
     <row r="684" ht="14.25">
       <c r="A684" s="1" t="s">
@@ -11140,9 +11176,9 @@
       <c r="M687" s="1">
         <v>1</v>
       </c>
-      <c r="N687" s="6"/>
-      <c r="O687" s="6"/>
-      <c r="P687" s="6"/>
+      <c r="N687" s="1"/>
+      <c r="O687" s="1"/>
+      <c r="P687" s="1"/>
     </row>
     <row r="688" ht="14.25">
       <c r="A688" s="1" t="s">
@@ -11282,9 +11318,9 @@
       <c r="M696" s="1">
         <v>1</v>
       </c>
-      <c r="N696" s="6"/>
-      <c r="O696" s="6"/>
-      <c r="P696" s="6"/>
+      <c r="N696" s="1"/>
+      <c r="O696" s="1"/>
+      <c r="P696" s="1"/>
     </row>
     <row r="697" ht="14.25">
       <c r="A697" s="1" t="s">
@@ -11377,12 +11413,12 @@
         <v>1</v>
       </c>
       <c r="M702" s="1"/>
-      <c r="N702" s="6"/>
-      <c r="O702" s="6"/>
-      <c r="P702" s="6"/>
+      <c r="N702" s="1"/>
+      <c r="O702" s="1"/>
+      <c r="P702" s="1"/>
     </row>
     <row r="703" ht="14.25">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B703" s="1">
@@ -11402,9 +11438,9 @@
         <v>1</v>
       </c>
       <c r="M703" s="1"/>
-      <c r="N703" s="6"/>
-      <c r="O703" s="6"/>
-      <c r="P703" s="6"/>
+      <c r="N703" s="1"/>
+      <c r="O703" s="1"/>
+      <c r="P703" s="1"/>
     </row>
     <row r="704" ht="14.25">
       <c r="A704" s="1" t="s">
@@ -11474,9 +11510,9 @@
       <c r="M707" s="1">
         <v>1</v>
       </c>
-      <c r="N707" s="6"/>
-      <c r="O707" s="6"/>
-      <c r="P707" s="6"/>
+      <c r="N707" s="1"/>
+      <c r="O707" s="1"/>
+      <c r="P707" s="1"/>
     </row>
     <row r="708" ht="14.25">
       <c r="A708" s="1" t="s">
@@ -11613,9 +11649,9 @@
       <c r="M716" s="1">
         <v>1</v>
       </c>
-      <c r="N716" s="6"/>
-      <c r="O716" s="6"/>
-      <c r="P716" s="6"/>
+      <c r="N716" s="1"/>
+      <c r="O716" s="1"/>
+      <c r="P716" s="1"/>
     </row>
     <row r="717" ht="14.25">
       <c r="A717" s="1" t="s">
@@ -11654,9 +11690,9 @@
       <c r="M718" s="1">
         <v>1</v>
       </c>
-      <c r="N718" s="6"/>
-      <c r="O718" s="6"/>
-      <c r="P718" s="6"/>
+      <c r="N718" s="1"/>
+      <c r="O718" s="1"/>
+      <c r="P718" s="1"/>
     </row>
     <row r="719" ht="14.25">
       <c r="A719" s="1" t="s">
@@ -11681,9 +11717,9 @@
       <c r="M719" s="1">
         <v>1</v>
       </c>
-      <c r="N719" s="6"/>
-      <c r="O719" s="6"/>
-      <c r="P719" s="6"/>
+      <c r="N719" s="1"/>
+      <c r="O719" s="1"/>
+      <c r="P719" s="1"/>
     </row>
     <row r="720" ht="14.25">
       <c r="A720" s="1" t="s">
@@ -11708,9 +11744,9 @@
       <c r="M720" s="1">
         <v>1</v>
       </c>
-      <c r="N720" s="6"/>
-      <c r="O720" s="6"/>
-      <c r="P720" s="6"/>
+      <c r="N720" s="1"/>
+      <c r="O720" s="1"/>
+      <c r="P720" s="1"/>
     </row>
     <row r="721" ht="14.25">
       <c r="A721" s="1" t="s">
@@ -11963,9 +11999,9 @@
       <c r="M736" s="1">
         <v>1</v>
       </c>
-      <c r="N736" s="6"/>
-      <c r="O736" s="6"/>
-      <c r="P736" s="6"/>
+      <c r="N736" s="1"/>
+      <c r="O736" s="1"/>
+      <c r="P736" s="1"/>
     </row>
     <row r="737" ht="14.25">
       <c r="A737" s="1" t="s">
@@ -12082,7 +12118,7 @@
       </c>
     </row>
     <row r="745" ht="14.25">
-      <c r="A745" s="1" t="s">
+      <c r="A745" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B745" s="1">
@@ -12571,9 +12607,9 @@
       <c r="M785" s="1">
         <v>1</v>
       </c>
-      <c r="N785" s="6"/>
-      <c r="O785" s="6"/>
-      <c r="P785" s="6"/>
+      <c r="N785" s="1"/>
+      <c r="O785" s="1"/>
+      <c r="P785" s="1"/>
     </row>
     <row r="786" ht="14.25">
       <c r="A786" s="1" t="s">
@@ -12646,9 +12682,9 @@
       <c r="M789" s="1">
         <v>1</v>
       </c>
-      <c r="N789" s="6"/>
-      <c r="O789" s="6"/>
-      <c r="P789" s="6"/>
+      <c r="N789" s="1"/>
+      <c r="O789" s="1"/>
+      <c r="P789" s="1"/>
     </row>
     <row r="790" ht="14.25">
       <c r="A790" s="1" t="s">
@@ -12689,12 +12725,12 @@
         <v>2019</v>
       </c>
       <c r="C792" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D792" s="1">
         <v>2016</v>
       </c>
-      <c r="G792" s="5" t="s">
+      <c r="G792" s="2" t="s">
         <v>182</v>
       </c>
       <c r="Q792" s="1">
@@ -12802,9 +12838,9 @@
       <c r="M798" s="1">
         <v>1</v>
       </c>
-      <c r="N798" s="6"/>
-      <c r="O798" s="6"/>
-      <c r="P798" s="6"/>
+      <c r="N798" s="1"/>
+      <c r="O798" s="1"/>
+      <c r="P798" s="1"/>
     </row>
     <row r="799" ht="14.25">
       <c r="A799" s="1" t="s">
@@ -12884,13 +12920,13 @@
       <c r="M803" s="1">
         <v>1</v>
       </c>
-      <c r="N803" s="6"/>
-      <c r="O803" s="6"/>
-      <c r="P803" s="6"/>
+      <c r="N803" s="1"/>
+      <c r="O803" s="1"/>
+      <c r="P803" s="1"/>
     </row>
     <row r="804" ht="14.25">
-      <c r="A804" s="1" t="s">
-        <v>51</v>
+      <c r="A804" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B804" s="1">
         <v>2019</v>
@@ -12910,13 +12946,13 @@
       <c r="M804" s="1">
         <v>1</v>
       </c>
-      <c r="N804" s="6"/>
-      <c r="O804" s="6"/>
-      <c r="P804" s="6"/>
+      <c r="N804" s="1"/>
+      <c r="O804" s="1"/>
+      <c r="P804" s="1"/>
     </row>
     <row r="805" ht="14.25">
       <c r="A805" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B805" s="1">
         <v>2019</v>
@@ -12936,9 +12972,9 @@
       <c r="M805" s="1">
         <v>1</v>
       </c>
-      <c r="N805" s="6"/>
-      <c r="O805" s="6"/>
-      <c r="P805" s="6"/>
+      <c r="N805" s="1"/>
+      <c r="O805" s="1"/>
+      <c r="P805" s="1"/>
     </row>
     <row r="806" ht="14.25">
       <c r="A806" s="1" t="s">
@@ -12954,7 +12990,7 @@
         <v>2017</v>
       </c>
       <c r="G806" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q806" s="1">
         <v>1</v>
@@ -13010,9 +13046,9 @@
       <c r="M809" s="1">
         <v>1</v>
       </c>
-      <c r="N809" s="6"/>
-      <c r="O809" s="6"/>
-      <c r="P809" s="6"/>
+      <c r="N809" s="1"/>
+      <c r="O809" s="1"/>
+      <c r="P809" s="1"/>
     </row>
     <row r="810" ht="14.25">
       <c r="A810" s="1" t="s">
@@ -13069,8 +13105,8 @@
       <c r="D813" s="1">
         <v>2016</v>
       </c>
-      <c r="G813" s="5" t="s">
-        <v>186</v>
+      <c r="G813" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="Q813" s="1">
         <v>1</v>
@@ -13134,7 +13170,7 @@
     </row>
     <row r="818" ht="14.25">
       <c r="A818" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B818" s="1">
         <v>2019</v>
@@ -13148,13 +13184,13 @@
       <c r="K818" s="1"/>
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
-      <c r="N818" s="6"/>
-      <c r="O818" s="6"/>
-      <c r="P818" s="6"/>
+      <c r="N818" s="1"/>
+      <c r="O818" s="1"/>
+      <c r="P818" s="1"/>
     </row>
     <row r="819" ht="14.25">
       <c r="A819" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B819" s="1">
         <v>2019</v>
@@ -13168,7 +13204,7 @@
     </row>
     <row r="820" ht="14.25">
       <c r="A820" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B820" s="1">
         <v>2019</v>
@@ -13182,9 +13218,9 @@
       <c r="K820" s="1"/>
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
-      <c r="N820" s="6"/>
-      <c r="O820" s="6"/>
-      <c r="P820" s="6"/>
+      <c r="N820" s="1"/>
+      <c r="O820" s="1"/>
+      <c r="P820" s="1"/>
     </row>
     <row r="821" ht="14.25">
       <c r="A821" s="1" t="s">
@@ -13208,9 +13244,9 @@
       <c r="M821" s="1">
         <v>1</v>
       </c>
-      <c r="N821" s="6"/>
-      <c r="O821" s="6"/>
-      <c r="P821" s="6"/>
+      <c r="N821" s="1"/>
+      <c r="O821" s="1"/>
+      <c r="P821" s="1"/>
     </row>
     <row r="822" ht="14.25">
       <c r="A822" s="1" t="s">
@@ -13228,13 +13264,13 @@
       <c r="K822" s="1"/>
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
-      <c r="N822" s="6"/>
-      <c r="O822" s="6"/>
-      <c r="P822" s="6"/>
+      <c r="N822" s="1"/>
+      <c r="O822" s="1"/>
+      <c r="P822" s="1"/>
     </row>
     <row r="823" ht="14.25">
       <c r="A823" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B823" s="1">
         <v>2019</v>
@@ -13254,9 +13290,9 @@
       <c r="M823" s="1">
         <v>1</v>
       </c>
-      <c r="N823" s="6"/>
-      <c r="O823" s="6"/>
-      <c r="P823" s="6"/>
+      <c r="N823" s="1"/>
+      <c r="O823" s="1"/>
+      <c r="P823" s="1"/>
     </row>
     <row r="824" ht="14.25">
       <c r="A824" s="1" t="s">
@@ -13280,9 +13316,9 @@
       <c r="M824" s="1">
         <v>1</v>
       </c>
-      <c r="N824" s="6"/>
-      <c r="O824" s="6"/>
-      <c r="P824" s="6"/>
+      <c r="N824" s="1"/>
+      <c r="O824" s="1"/>
+      <c r="P824" s="1"/>
     </row>
     <row r="825" ht="14.25">
       <c r="A825" s="1" t="s">
@@ -13306,9 +13342,9 @@
       <c r="M825" s="1">
         <v>1</v>
       </c>
-      <c r="N825" s="6"/>
-      <c r="O825" s="6"/>
-      <c r="P825" s="6"/>
+      <c r="N825" s="1"/>
+      <c r="O825" s="1"/>
+      <c r="P825" s="1"/>
     </row>
     <row r="826" ht="14.25">
       <c r="A826" s="1" t="s">
@@ -13332,9 +13368,9 @@
       <c r="M826" s="1">
         <v>1</v>
       </c>
-      <c r="N826" s="6"/>
-      <c r="O826" s="6"/>
-      <c r="P826" s="6"/>
+      <c r="N826" s="1"/>
+      <c r="O826" s="1"/>
+      <c r="P826" s="1"/>
     </row>
     <row r="827" ht="14.25">
       <c r="A827" s="1" t="s">
@@ -13492,9 +13528,9 @@
       <c r="K837" s="1"/>
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
-      <c r="N837" s="6"/>
-      <c r="O837" s="6"/>
-      <c r="P837" s="6"/>
+      <c r="N837" s="1"/>
+      <c r="O837" s="1"/>
+      <c r="P837" s="1"/>
     </row>
     <row r="838" ht="14.25">
       <c r="A838" s="1" t="s">
@@ -13546,9 +13582,9 @@
       <c r="M840" s="1">
         <v>1</v>
       </c>
-      <c r="N840" s="6"/>
-      <c r="O840" s="6"/>
-      <c r="P840" s="6"/>
+      <c r="N840" s="1"/>
+      <c r="O840" s="1"/>
+      <c r="P840" s="1"/>
     </row>
     <row r="841" ht="14.25">
       <c r="A841" s="1" t="s">
@@ -13622,7 +13658,7 @@
     </row>
     <row r="846" ht="14.25">
       <c r="A846" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B846" s="1">
         <v>2019</v>
@@ -13636,7 +13672,7 @@
     </row>
     <row r="847" ht="14.25">
       <c r="A847" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B847" s="1">
         <v>2019</v>
@@ -13691,7 +13727,7 @@
       </c>
     </row>
     <row r="851" ht="14.25">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B851" s="1">
@@ -13898,7 +13934,7 @@
     </row>
     <row r="867" ht="14.25">
       <c r="A867" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B867" s="1">
         <v>2019</v>
@@ -14307,7 +14343,7 @@
       <c r="C898" s="1">
         <v>2017</v>
       </c>
-      <c r="D898" s="7">
+      <c r="D898" s="1">
         <v>2017</v>
       </c>
     </row>
@@ -14336,13 +14372,13 @@
         <v>2020</v>
       </c>
       <c r="C900" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D900" s="1">
         <v>2017</v>
       </c>
-      <c r="G900" s="5" t="s">
-        <v>194</v>
+      <c r="G900" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="Q900" s="1">
         <v>1</v>
@@ -14378,8 +14414,8 @@
       <c r="D902" s="1">
         <v>2019</v>
       </c>
-      <c r="G902" s="5" t="s">
-        <v>195</v>
+      <c r="G902" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="903" ht="14.25">
@@ -14542,8 +14578,8 @@
       </c>
     </row>
     <row r="912" ht="14.25">
-      <c r="A912" s="1" t="s">
-        <v>51</v>
+      <c r="A912" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B912" s="1">
         <v>2020</v>
@@ -14572,7 +14608,7 @@
     </row>
     <row r="913" ht="14.25">
       <c r="A913" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B913" s="1">
         <v>2020</v>
@@ -14723,7 +14759,7 @@
         <v>2016</v>
       </c>
       <c r="G921" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q921" s="1">
         <v>1</v>
@@ -14802,7 +14838,7 @@
     </row>
     <row r="926" ht="14.25">
       <c r="A926" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B926" s="1">
         <v>2020</v>
@@ -14816,7 +14852,7 @@
     </row>
     <row r="927" ht="14.25">
       <c r="A927" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B927" s="1">
         <v>2020</v>
@@ -14830,7 +14866,7 @@
     </row>
     <row r="928" ht="14.25">
       <c r="A928" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B928" s="1">
         <v>2020</v>
@@ -14887,7 +14923,7 @@
     </row>
     <row r="931" ht="14.25">
       <c r="A931" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B931" s="1">
         <v>2020</v>
@@ -15227,7 +15263,7 @@
     </row>
     <row r="948" ht="14.25">
       <c r="A948" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B948" s="1">
         <v>2020</v>
@@ -15256,8 +15292,8 @@
       </c>
     </row>
     <row r="949" ht="14.25">
-      <c r="A949" s="7" t="s">
-        <v>197</v>
+      <c r="A949" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B949" s="1">
         <v>2020</v>
@@ -15386,16 +15422,16 @@
       </c>
     </row>
     <row r="955" ht="14.25">
-      <c r="A955" s="7" t="s">
-        <v>198</v>
+      <c r="A955" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B955" s="1">
         <v>2020</v>
       </c>
-      <c r="C955" s="6">
-        <v>2014</v>
-      </c>
-      <c r="D955" s="6">
+      <c r="C955" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D955" s="1">
         <v>2018</v>
       </c>
       <c r="K955" s="1">
@@ -15416,15 +15452,15 @@
     </row>
     <row r="956" ht="14.25">
       <c r="A956" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B956" s="1">
         <v>2020</v>
       </c>
-      <c r="C956" s="6">
-        <v>2014</v>
-      </c>
-      <c r="D956" s="6">
+      <c r="C956" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D956" s="1">
         <v>2018</v>
       </c>
     </row>
@@ -15458,16 +15494,16 @@
       </c>
     </row>
     <row r="958" ht="14.25">
-      <c r="A958" s="7" t="s">
-        <v>200</v>
+      <c r="A958" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B958" s="1">
         <v>2020</v>
       </c>
-      <c r="C958" s="6">
-        <v>2017</v>
-      </c>
-      <c r="D958" s="6">
+      <c r="C958" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D958" s="1">
         <v>2017</v>
       </c>
       <c r="Q958" s="1">
@@ -15476,9 +15512,9 @@
     </row>
     <row r="959" ht="14.25">
       <c r="A959" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B959" s="7">
+        <v>202</v>
+      </c>
+      <c r="B959" s="1">
         <v>2020</v>
       </c>
       <c r="C959" s="1">
@@ -15493,7 +15529,7 @@
     </row>
     <row r="960" ht="14.25">
       <c r="A960" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B960" s="1">
         <v>2020</v>
@@ -15509,16 +15545,16 @@
       </c>
     </row>
     <row r="961" ht="14.25">
-      <c r="A961" s="7" t="s">
-        <v>203</v>
+      <c r="A961" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B961" s="1">
         <v>2020</v>
       </c>
-      <c r="C961" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D961" s="6">
+      <c r="C961" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D961" s="1">
         <v>2018</v>
       </c>
       <c r="Q961" s="1">
@@ -15527,7 +15563,7 @@
     </row>
     <row r="962" ht="14.25">
       <c r="A962" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B962" s="1">
         <v>2020</v>
@@ -15541,7 +15577,7 @@
     </row>
     <row r="963" ht="14.25">
       <c r="A963" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B963" s="1">
         <v>2020</v>
@@ -15549,7 +15585,7 @@
       <c r="C963" s="1">
         <v>2014</v>
       </c>
-      <c r="D963" s="7">
+      <c r="D963" s="1">
         <v>2018</v>
       </c>
     </row>
@@ -15596,7 +15632,7 @@
       </c>
     </row>
     <row r="967" ht="14.25">
-      <c r="A967" s="1" t="s">
+      <c r="A967" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B967" s="1">
@@ -15778,7 +15814,7 @@
     </row>
     <row r="981" ht="14.25">
       <c r="A981" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B981" s="1">
         <v>2020</v>
@@ -15898,7 +15934,7 @@
       </c>
     </row>
     <row r="992" ht="14.25">
-      <c r="A992" s="7" t="s">
+      <c r="A992" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B992" s="1">
@@ -16052,13 +16088,1539 @@
       </c>
     </row>
     <row r="1006" ht="14.25">
+      <c r="A1006" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1006" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1006" s="1">
+        <v>2019</v>
+      </c>
       <c r="G1006" s="2"/>
+      <c r="H1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1006" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1007" ht="14.25">
+      <c r="A1007" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1007" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1007" s="1">
+        <v>2018</v>
+      </c>
       <c r="G1007" s="2"/>
     </row>
     <row r="1008" ht="14.25">
+      <c r="A1008" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1008" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1008" s="1">
+        <v>2018</v>
+      </c>
       <c r="G1008" s="2"/>
+    </row>
+    <row r="1009" ht="14.25">
+      <c r="A1009" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1009" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1009" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1010" ht="14.25">
+      <c r="A1010" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1010" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1010" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1010" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" ht="14.25">
+      <c r="A1011" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1011" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1011" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1012" ht="14.25">
+      <c r="A1012" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1012" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1012" s="1">
+        <v>2017</v>
+      </c>
+      <c r="Q1012" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" ht="14.25">
+      <c r="A1013" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1013" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G1013" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1013" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" ht="14.25">
+      <c r="A1014" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1014" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>2017</v>
+      </c>
+      <c r="Q1014" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" ht="14.25">
+      <c r="A1015" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1015" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1015" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G1015" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1016" ht="14.25">
+      <c r="A1016" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1016" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1016" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1017" ht="14.25">
+      <c r="A1017" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1017" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1018" ht="14.25">
+      <c r="A1018" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1018" s="1">
+        <v>2018</v>
+      </c>
+      <c r="Q1018" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" ht="14.25">
+      <c r="A1019" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1019" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1019" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1019" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" ht="14.25">
+      <c r="A1020" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1020" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1020" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1021" ht="14.25">
+      <c r="A1021" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1021" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1021" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1022" ht="14.25">
+      <c r="A1022" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1022" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1023" ht="14.25">
+      <c r="A1023" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1023" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1024" ht="14.25">
+      <c r="A1024" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1024" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1024" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" ht="14.25">
+      <c r="A1025" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1025" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1025" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" ht="14.25">
+      <c r="A1026" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1026" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1026" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1026" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" ht="14.25">
+      <c r="A1027" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1027" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1027" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1028" ht="14.25">
+      <c r="A1028" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1028" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1028" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1029" ht="14.25">
+      <c r="A1029" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1029" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1029" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1030" ht="14.25">
+      <c r="A1030" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1030" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1030" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1031" ht="14.25">
+      <c r="A1031" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1031" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1031" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1031" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" ht="14.25">
+      <c r="A1032" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1032" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1032" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1033" ht="14.25">
+      <c r="A1033" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1033" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1033" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1034" ht="14.25">
+      <c r="A1034" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1034" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1035" ht="14.25">
+      <c r="A1035" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1035" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G1035" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1035" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" ht="14.25">
+      <c r="A1036" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1036" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1036" s="1"/>
+    </row>
+    <row r="1037" ht="14.25">
+      <c r="A1037" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1037" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1037" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1038" ht="14.25">
+      <c r="A1038" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1038" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1038" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1039" ht="14.25">
+      <c r="A1039" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1039" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1039" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1040" ht="14.25">
+      <c r="A1040" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1040" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1041" ht="14.25">
+      <c r="A1041" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1041" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1041" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1042" ht="14.25">
+      <c r="A1042" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1042" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1043" ht="14.25">
+      <c r="A1043" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1043" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1043" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1043" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" ht="14.25">
+      <c r="A1044" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1044" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1044" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1045" ht="14.25">
+      <c r="A1045" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1045" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1045" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" ht="14.25">
+      <c r="A1046" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1046" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1046" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" ht="14.25">
+      <c r="A1047" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1047" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1047" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" ht="14.25">
+      <c r="A1048" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1048" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1048" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" ht="14.25">
+      <c r="A1049" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1049" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1050" ht="14.25">
+      <c r="A1050" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1050" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1051" ht="14.25">
+      <c r="A1051" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1051" s="1">
+        <v>2017</v>
+      </c>
+      <c r="Q1051" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" ht="14.25">
+      <c r="A1052" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1052" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1053" ht="14.25">
+      <c r="A1053" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1053" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1054" ht="14.25">
+      <c r="A1054" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1054" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1054" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1055" ht="14.25">
+      <c r="A1055" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1055" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1055" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" ht="14.25">
+      <c r="A1056" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1056" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1056" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1056" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" ht="14.25">
+      <c r="A1057" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1057" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1057" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1058" ht="14.25">
+      <c r="A1058" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1058" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1058" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1059" ht="14.25">
+      <c r="A1059" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1059" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1059" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1060" ht="14.25">
+      <c r="A1060" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1060" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1060" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1061" ht="14.25">
+      <c r="A1061" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1061" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1061" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1062" ht="14.25">
+      <c r="A1062" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1062" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1062" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1062" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" ht="14.25">
+      <c r="A1063" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1063" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1063" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1063" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" ht="14.25">
+      <c r="A1064" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1064" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1064" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1064" s="1"/>
+      <c r="P1064" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" ht="14.25">
+      <c r="A1065" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1065" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1065" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1066" ht="14.25">
+      <c r="A1066" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1066" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1066" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1067" ht="14.25">
+      <c r="A1067" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1067" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1067" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1068" ht="14.25">
+      <c r="A1068" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1068" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1068" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1068" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" ht="14.25">
+      <c r="A1069" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1069" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1069" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1069" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" ht="14.25">
+      <c r="A1070" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1070" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1070" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1071" ht="14.25">
+      <c r="A1071" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1071" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1071" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1071" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" ht="14.25">
+      <c r="A1072" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1072" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1072" s="1">
+        <v>2018</v>
+      </c>
+      <c r="Q1072" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" ht="14.25">
+      <c r="A1073" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1073" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1073" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1074" ht="14.25">
+      <c r="A1074" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1074" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1074" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1075" ht="14.25">
+      <c r="A1075" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1075" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1075" s="1">
+        <v>2019</v>
+      </c>
+      <c r="Q1075" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" ht="14.25">
+      <c r="A1076" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1076" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1076" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1077" ht="14.25">
+      <c r="A1077" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1077" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1077" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1078" ht="14.25">
+      <c r="A1078" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1078" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1078" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1079" ht="14.25">
+      <c r="A1079" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1079" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1079" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1080" ht="14.25">
+      <c r="A1080" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1080" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1080" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1081" ht="14.25">
+      <c r="A1081" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1081" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1081" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1082" ht="14.25">
+      <c r="A1082" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1082" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1082" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1083" ht="14.25">
+      <c r="A1083" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1083" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1083" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1084" ht="14.25">
+      <c r="A1084" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1084" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1084" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1085" ht="14.25">
+      <c r="A1085" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1085" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1085" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1086" ht="14.25">
+      <c r="A1086" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1086" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1086" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1087" ht="14.25">
+      <c r="A1087" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1087" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1087" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1088" ht="14.25">
+      <c r="A1088" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1088" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1088" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1089" ht="14.25">
+      <c r="A1089" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1089" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D1089" s="1">
+        <v>2010</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>variable</t>
   </si>
@@ -983,6 +983,81 @@
   <si>
     <t xml:space="preserve">One of the sources of documentation lists the years of availability for this variable as 2019. However, I believe they made a mistake and switched it with homeownership.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020. I interpret this to mean that one data source is from one year and another data source is from another year. This is just a hypothesis, though.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the documentation, it says the years of availability are 2020 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022. I interpret this to mean the shape files are from 2020, but the data is from 2022. This is just a hypothesis though.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the way the documentation is worded, I believe childcare costs come from 2022 while median household income comes from 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The documentation lists the years of measurment as 2010-2022. I am not really sure what this means so I code the variable as 2022.</t>
+  </si>
+  <si>
+    <t>voter_turnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimates of voter participation come from 2020 while estimates of the population size come from the 2016-2020 5-year ACS.</t>
+  </si>
+  <si>
+    <t>census_participation</t>
+  </si>
 </sst>
 </file>
 
@@ -1011,7 +1086,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1034,11 +1109,20 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1052,13 +1136,16 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1535,7 +1622,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -1634,7 +1721,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="1"/>
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -1654,7 +1741,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -1671,7 +1758,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -1688,7 +1775,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -1705,7 +1792,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="1"/>
       <c r="I6" s="1">
         <v>1</v>
       </c>
@@ -1725,7 +1812,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -1767,7 +1854,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -1784,7 +1871,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="1"/>
       <c r="I10" s="1">
         <v>1</v>
       </c>
@@ -1824,7 +1911,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -1841,7 +1928,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -1858,7 +1945,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1875,7 +1962,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1957,7 +2044,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -2004,7 +2091,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -2036,7 +2123,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -2053,7 +2140,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="1"/>
       <c r="I25" s="1">
         <v>1</v>
       </c>
@@ -2073,7 +2160,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -2090,7 +2177,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -2107,7 +2194,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="1"/>
       <c r="I28" s="1">
         <v>1</v>
       </c>
@@ -2147,7 +2234,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="1"/>
       <c r="I30" s="1">
         <v>1</v>
       </c>
@@ -5315,7 +5402,7 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="5"/>
+      <c r="G235" s="1"/>
     </row>
     <row r="236" ht="14.25">
       <c r="A236" s="1" t="s">
@@ -5332,7 +5419,7 @@
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="5"/>
+      <c r="G236" s="1"/>
     </row>
     <row r="237" ht="14.25">
       <c r="A237" s="1" t="s">
@@ -5349,7 +5436,7 @@
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="5"/>
+      <c r="G237" s="1"/>
     </row>
     <row r="238" ht="14.25">
       <c r="A238" s="1" t="s">
@@ -12286,7 +12373,7 @@
       </c>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
-      <c r="G741" s="5"/>
+      <c r="G741" s="1"/>
     </row>
     <row r="742" ht="14.25">
       <c r="A742" s="1" t="s">
@@ -13209,7 +13296,7 @@
         <v>2019</v>
       </c>
       <c r="G806" s="1"/>
-      <c r="H806" s="6" t="s">
+      <c r="H806" s="2" t="s">
         <v>188</v>
       </c>
       <c r="R806" s="1">
@@ -17914,7 +18001,7 @@
       <c r="G1092" s="1">
         <v>2018</v>
       </c>
-      <c r="H1092" s="6" t="s">
+      <c r="H1092" s="2" t="s">
         <v>211</v>
       </c>
       <c r="I1092" s="1"/>
@@ -18625,7 +18712,7 @@
       </c>
     </row>
     <row r="1130" ht="14.25">
-      <c r="A1130" s="7" t="s">
+      <c r="A1130" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B1130" s="1">
@@ -19051,7 +19138,7 @@
       </c>
     </row>
     <row r="1150" ht="14.25">
-      <c r="A1150" s="7" t="s">
+      <c r="A1150" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B1150" s="1">
@@ -19065,7 +19152,7 @@
       </c>
     </row>
     <row r="1151" ht="14.25">
-      <c r="A1151" s="7" t="s">
+      <c r="A1151" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B1151" s="1">
@@ -19079,7 +19166,7 @@
       </c>
     </row>
     <row r="1152" ht="14.25">
-      <c r="A1152" s="7" t="s">
+      <c r="A1152" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B1152" s="1">
@@ -19124,7 +19211,7 @@
       </c>
     </row>
     <row r="1154" ht="14.25">
-      <c r="A1154" s="8" t="s">
+      <c r="A1154" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B1154" s="1">
@@ -19143,7 +19230,7 @@
         <v>2020</v>
       </c>
       <c r="G1154" s="1"/>
-      <c r="H1154" s="6" t="s">
+      <c r="H1154" s="2" t="s">
         <v>218</v>
       </c>
       <c r="Q1154" s="1"/>
@@ -19195,7 +19282,7 @@
       <c r="H1157" s="2"/>
     </row>
     <row r="1158" ht="14.25">
-      <c r="A1158" s="7" t="s">
+      <c r="A1158" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B1158" s="1">
@@ -19216,7 +19303,7 @@
       </c>
     </row>
     <row r="1159" ht="14.25">
-      <c r="A1159" s="7" t="s">
+      <c r="A1159" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B1159" s="1">
@@ -19629,6 +19716,1703 @@
       <c r="D1182" s="1">
         <v>2010</v>
       </c>
+    </row>
+    <row r="1183" ht="14.25">
+      <c r="A1183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1183" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" ht="14.25">
+      <c r="A1184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1184" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" ht="14.25">
+      <c r="A1185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1185" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" ht="14.25">
+      <c r="A1186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1186" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" ht="14.25">
+      <c r="A1187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1187" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" ht="14.25">
+      <c r="A1188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1188" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" ht="14.25">
+      <c r="A1189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" ht="14.25">
+      <c r="A1190" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1190" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1190" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" ht="14.25">
+      <c r="A1191" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1191" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1191" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" ht="14.25">
+      <c r="A1192" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1192" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H1192" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1193" ht="14.25">
+      <c r="A1193" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1193" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" ht="14.25">
+      <c r="A1194" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1194" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1195" ht="14.25">
+      <c r="A1195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1195" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" ht="14.25">
+      <c r="A1196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1196" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1196" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1196" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1196" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1196" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1196" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" ht="14.25">
+      <c r="A1197" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1197" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1198" ht="14.25">
+      <c r="A1198" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1198" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1199" ht="14.25">
+      <c r="A1199" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1199" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1200" ht="14.25">
+      <c r="A1200" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1200" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1201" ht="14.25">
+      <c r="A1201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1201" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1201" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" ht="14.25">
+      <c r="A1202" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1202" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" ht="14.25">
+      <c r="A1203" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1203" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1203" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" ht="14.25">
+      <c r="A1204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1204" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1204" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" ht="14.25">
+      <c r="A1205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1205" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1205" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1206" ht="14.25">
+      <c r="A1206" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1206" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1206" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1207" ht="14.25">
+      <c r="A1207" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1207" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1207" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R1207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" ht="14.25">
+      <c r="A1208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1208" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1208" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" ht="14.25">
+      <c r="A1209" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1209" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1209" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1210" ht="14.25">
+      <c r="A1210" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1210" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1210" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1211" ht="14.25">
+      <c r="A1211" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1211" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1211" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1212" ht="14.25">
+      <c r="A1212" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1212" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1212" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" ht="14.25">
+      <c r="A1213" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1213" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1213" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1214" ht="14.25">
+      <c r="A1214" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1214" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1214" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1215" ht="14.25">
+      <c r="A1215" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1215" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1215" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1216" ht="14.25">
+      <c r="A1216" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1216" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1216" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1217" ht="14.25">
+      <c r="A1217" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1217" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1217" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1218" ht="14.25">
+      <c r="A1218" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1218" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D1218" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1219" ht="14.25">
+      <c r="A1219" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1219" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1219" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L1219" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1219" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1219" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1219" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" ht="14.25">
+      <c r="A1220" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1220" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1220" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1221" ht="14.25">
+      <c r="A1221" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1221" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1221" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1221" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1221" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1221" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1221" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" ht="14.25">
+      <c r="A1222" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1222" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1222" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" ht="14.25">
+      <c r="A1223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1223" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" ht="14.25">
+      <c r="A1224" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1224" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1224" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" ht="14.25">
+      <c r="A1225" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1225" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1225" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" ht="14.25">
+      <c r="A1226" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1226" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1226" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" ht="14.25">
+      <c r="A1227" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1227" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1227" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" ht="14.25">
+      <c r="A1228" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1228" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1228" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" ht="14.25">
+      <c r="A1229" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1229" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1229" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" ht="14.25">
+      <c r="A1230" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1230" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1230" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1231" ht="14.25">
+      <c r="A1231" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1231" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1231" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1231" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1231" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1231" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1231" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" ht="14.25">
+      <c r="A1232" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1232" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" ht="14.25">
+      <c r="A1233" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1233" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1234" ht="14.25">
+      <c r="A1234" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1234" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1235" ht="14.25">
+      <c r="A1235" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1235" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1236" ht="14.25">
+      <c r="A1236" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1236" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1236" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1237" ht="14.25">
+      <c r="A1237" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1237" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" ht="14.25">
+      <c r="A1238" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1238" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" ht="14.25">
+      <c r="A1239" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1239" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1240" ht="14.25">
+      <c r="A1240" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1240" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1241" ht="14.25">
+      <c r="A1241" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1241" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1241" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1242" ht="14.25">
+      <c r="A1242" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1242" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" ht="14.25">
+      <c r="A1243" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1243" s="1">
+        <v>2022</v>
+      </c>
+      <c r="R1243" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" ht="14.25">
+      <c r="A1244" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1244" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R1244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" ht="14.25">
+      <c r="A1245" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1245" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1246" ht="14.25">
+      <c r="A1246" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1246" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1246" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H1246" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1246" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" ht="14.25">
+      <c r="A1247" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1247" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H1247" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" ht="14.25">
+      <c r="A1248" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1248" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1248" s="1"/>
+    </row>
+    <row r="1249" ht="14.25">
+      <c r="A1249" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1249" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" ht="14.25">
+      <c r="A1250" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1250" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1251" ht="14.25">
+      <c r="A1251" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1251" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1251" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1251" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1251" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1251" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1251" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" ht="14.25">
+      <c r="A1252" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1252" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1252" s="9">
+        <v>1</v>
+      </c>
+      <c r="M1252" s="9">
+        <v>1</v>
+      </c>
+      <c r="N1252" s="9">
+        <v>1</v>
+      </c>
+      <c r="O1252" s="9">
+        <v>1</v>
+      </c>
+      <c r="P1252" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" ht="14.25">
+      <c r="A1253" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1253" s="1">
+        <v>2019</v>
+      </c>
+      <c r="R1253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" ht="14.25">
+      <c r="A1254" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1254" s="1">
+        <v>2019</v>
+      </c>
+      <c r="R1254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" ht="14.25">
+      <c r="A1255" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1255" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H1255" s="2"/>
+      <c r="R1255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" ht="14.25">
+      <c r="A1256" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1256" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1256" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1256" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" ht="14.25">
+      <c r="A1257" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1257" s="1">
+        <v>2020</v>
+      </c>
+      <c r="R1257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" ht="14.25">
+      <c r="A1258" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1258" s="1">
+        <v>2019</v>
+      </c>
+      <c r="R1258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" ht="14.25">
+      <c r="A1259" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1259" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1260" ht="14.25">
+      <c r="A1260" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1260" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1261" ht="14.25">
+      <c r="A1261" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1261" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1261" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1262" ht="14.25">
+      <c r="A1262" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1262" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1263" ht="14.25">
+      <c r="A1263" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1263" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1264" ht="14.25">
+      <c r="A1264" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1264" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1264" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1265" ht="14.25">
+      <c r="A1265" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1265" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1265" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1266" ht="14.25">
+      <c r="A1266" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1266" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1266" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1267" ht="14.25">
+      <c r="A1267" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1267" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1267" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1268" ht="14.25">
+      <c r="A1268" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1268" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1268" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1269" ht="14.25">
+      <c r="A1269" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1269" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1269" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1270" ht="14.25">
+      <c r="A1270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1270" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1270" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1271" ht="14.25">
+      <c r="A1271" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1271" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1271" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1272" ht="14.25">
+      <c r="A1272" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1272" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1272" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1273" ht="14.25">
+      <c r="A1273" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C1273" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D1273" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1274" ht="14.25">
+      <c r="A1274" s="1"/>
+      <c r="B1274" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -195,13 +195,13 @@
     <t>%_non-hispanic_black</t>
   </si>
   <si>
-    <t>%_american_indian_and_alaskan_native</t>
+    <t>%_american_indian_or_alaska_native</t>
   </si>
   <si>
     <t>%_asian</t>
   </si>
   <si>
-    <t>%_native_hawaiian/other_pacific_islander</t>
+    <t>%_native_hawaiian_or_other_pacific_islander</t>
   </si>
   <si>
     <t>%_hispanic</t>
@@ -210,7 +210,7 @@
     <t>%_not_proficient_in_english</t>
   </si>
   <si>
-    <t>%_females</t>
+    <t>%_female</t>
   </si>
   <si>
     <t>%_rural</t>
@@ -1122,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1136,19 +1136,13 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1622,7 +1616,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -2802,7 +2796,7 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="1">
@@ -2833,7 +2827,7 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="1">
@@ -2880,7 +2874,7 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="1">
@@ -3618,7 +3612,7 @@
       <c r="H113" s="2"/>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="1">
@@ -3647,7 +3641,7 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B116" s="1">
@@ -3689,7 +3683,7 @@
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B119" s="1">
@@ -4478,7 +4472,7 @@
       </c>
     </row>
     <row r="173" ht="14.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B173" s="1">
@@ -4506,7 +4500,7 @@
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B175" s="1">
@@ -4562,7 +4556,7 @@
       </c>
     </row>
     <row r="179" ht="14.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B179" s="1">
@@ -5346,7 +5340,7 @@
       </c>
     </row>
     <row r="232" ht="14.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B232" s="1">
@@ -5374,7 +5368,7 @@
       </c>
     </row>
     <row r="234" ht="14.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B234" s="1">
@@ -5439,7 +5433,7 @@
       <c r="G237" s="1"/>
     </row>
     <row r="238" ht="14.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B238" s="1">
@@ -7895,7 +7889,7 @@
       </c>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B415" s="1">
@@ -7923,7 +7917,7 @@
       </c>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B417" s="1">
@@ -7979,7 +7973,7 @@
       </c>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B421" s="1">
@@ -9509,7 +9503,7 @@
       </c>
     </row>
     <row r="536" ht="14.25">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B536" s="1">
@@ -9537,7 +9531,7 @@
       </c>
     </row>
     <row r="538" ht="14.25">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B538" s="1">
@@ -9593,7 +9587,7 @@
       </c>
     </row>
     <row r="542" ht="14.25">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B542" s="1">
@@ -10882,7 +10876,7 @@
       </c>
     </row>
     <row r="640" ht="14.25">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B640" s="1">
@@ -10910,7 +10904,7 @@
       </c>
     </row>
     <row r="642" ht="14.25">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B642" s="1">
@@ -10966,7 +10960,7 @@
       </c>
     </row>
     <row r="646" ht="14.25">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B646" s="1">
@@ -12432,7 +12426,7 @@
       </c>
     </row>
     <row r="746" ht="14.25">
-      <c r="A746" s="1" t="s">
+      <c r="A746" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B746" s="1">
@@ -12460,7 +12454,7 @@
       </c>
     </row>
     <row r="748" ht="14.25">
-      <c r="A748" s="1" t="s">
+      <c r="A748" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B748" s="1">
@@ -12516,7 +12510,7 @@
       </c>
     </row>
     <row r="752" ht="14.25">
-      <c r="A752" s="1" t="s">
+      <c r="A752" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B752" s="1">
@@ -14048,7 +14042,7 @@
       </c>
     </row>
     <row r="852" ht="14.25">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B852" s="1">
@@ -14076,7 +14070,7 @@
       </c>
     </row>
     <row r="854" ht="14.25">
-      <c r="A854" s="1" t="s">
+      <c r="A854" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B854" s="1">
@@ -14133,7 +14127,7 @@
       <c r="H857" s="2"/>
     </row>
     <row r="858" ht="14.25">
-      <c r="A858" s="1" t="s">
+      <c r="A858" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B858" s="1">
@@ -15953,7 +15947,7 @@
       </c>
     </row>
     <row r="968" ht="14.25">
-      <c r="A968" s="1" t="s">
+      <c r="A968" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B968" s="1">
@@ -15981,7 +15975,7 @@
       </c>
     </row>
     <row r="970" ht="14.25">
-      <c r="A970" s="1" t="s">
+      <c r="A970" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B970" s="1">
@@ -16037,7 +16031,7 @@
       </c>
     </row>
     <row r="974" ht="14.25">
-      <c r="A974" s="1" t="s">
+      <c r="A974" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B974" s="1">
@@ -17840,7 +17834,7 @@
       </c>
     </row>
     <row r="1083" ht="14.25">
-      <c r="A1083" s="1" t="s">
+      <c r="A1083" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B1083" s="1">
@@ -17868,7 +17862,7 @@
       </c>
     </row>
     <row r="1085" ht="14.25">
-      <c r="A1085" s="1" t="s">
+      <c r="A1085" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B1085" s="1">
@@ -17924,7 +17918,7 @@
       </c>
     </row>
     <row r="1089" ht="14.25">
-      <c r="A1089" s="1" t="s">
+      <c r="A1089" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B1089" s="1">
@@ -18712,7 +18706,7 @@
       </c>
     </row>
     <row r="1130" ht="14.25">
-      <c r="A1130" s="5" t="s">
+      <c r="A1130" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B1130" s="1">
@@ -19138,7 +19132,7 @@
       </c>
     </row>
     <row r="1150" ht="14.25">
-      <c r="A1150" s="5" t="s">
+      <c r="A1150" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B1150" s="1">
@@ -19152,7 +19146,7 @@
       </c>
     </row>
     <row r="1151" ht="14.25">
-      <c r="A1151" s="5" t="s">
+      <c r="A1151" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B1151" s="1">
@@ -19166,7 +19160,7 @@
       </c>
     </row>
     <row r="1152" ht="14.25">
-      <c r="A1152" s="5" t="s">
+      <c r="A1152" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B1152" s="1">
@@ -19282,7 +19276,7 @@
       <c r="H1157" s="2"/>
     </row>
     <row r="1158" ht="14.25">
-      <c r="A1158" s="5" t="s">
+      <c r="A1158" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B1158" s="1">
@@ -19303,7 +19297,7 @@
       </c>
     </row>
     <row r="1159" ht="14.25">
-      <c r="A1159" s="5" t="s">
+      <c r="A1159" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B1159" s="1">
@@ -19606,7 +19600,7 @@
       </c>
     </row>
     <row r="1175" ht="14.25">
-      <c r="A1175" s="1" t="s">
+      <c r="A1175" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B1175" s="1">
@@ -19634,7 +19628,7 @@
       </c>
     </row>
     <row r="1177" ht="14.25">
-      <c r="A1177" s="1" t="s">
+      <c r="A1177" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B1177" s="1">
@@ -19690,7 +19684,7 @@
       </c>
     </row>
     <row r="1181" ht="14.25">
-      <c r="A1181" s="1" t="s">
+      <c r="A1181" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B1181" s="1">
@@ -19879,7 +19873,7 @@
       <c r="D1190" s="1">
         <v>2020</v>
       </c>
-      <c r="H1190" s="6" t="s">
+      <c r="H1190" s="2" t="s">
         <v>224</v>
       </c>
       <c r="R1190" s="1">
@@ -19916,7 +19910,7 @@
       <c r="D1192" s="1">
         <v>2022</v>
       </c>
-      <c r="H1192" s="6" t="s">
+      <c r="H1192" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -20805,7 +20799,7 @@
       </c>
     </row>
     <row r="1239" ht="14.25">
-      <c r="A1239" s="5" t="s">
+      <c r="A1239" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B1239" s="1">
@@ -20819,7 +20813,7 @@
       </c>
     </row>
     <row r="1240" ht="14.25">
-      <c r="A1240" s="5" t="s">
+      <c r="A1240" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B1240" s="1">
@@ -20833,7 +20827,7 @@
       </c>
     </row>
     <row r="1241" ht="14.25">
-      <c r="A1241" s="5" t="s">
+      <c r="A1241" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B1241" s="1">
@@ -20924,7 +20918,7 @@
       </c>
     </row>
     <row r="1246" ht="14.25">
-      <c r="A1246" s="5" t="s">
+      <c r="A1246" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B1246" s="1">
@@ -20936,7 +20930,7 @@
       <c r="D1246" s="1">
         <v>2022</v>
       </c>
-      <c r="H1246" s="6" t="s">
+      <c r="H1246" s="2" t="s">
         <v>226</v>
       </c>
       <c r="R1246" s="1">
@@ -20944,7 +20938,7 @@
       </c>
     </row>
     <row r="1247" ht="14.25">
-      <c r="A1247" s="5" t="s">
+      <c r="A1247" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B1247" s="1">
@@ -20956,7 +20950,7 @@
       <c r="D1247" s="1">
         <v>2022</v>
       </c>
-      <c r="H1247" s="6" t="s">
+      <c r="H1247" s="2" t="s">
         <v>227</v>
       </c>
       <c r="R1247" s="1">
@@ -21066,7 +21060,7 @@
       </c>
     </row>
     <row r="1252" ht="14.25">
-      <c r="A1252" s="8" t="s">
+      <c r="A1252" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1252" s="1">
@@ -21078,19 +21072,19 @@
       <c r="D1252" s="1">
         <v>2020</v>
       </c>
-      <c r="L1252" s="9">
-        <v>1</v>
-      </c>
-      <c r="M1252" s="9">
-        <v>1</v>
-      </c>
-      <c r="N1252" s="9">
-        <v>1</v>
-      </c>
-      <c r="O1252" s="9">
-        <v>1</v>
-      </c>
-      <c r="P1252" s="9">
+      <c r="L1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1252" s="1">
         <v>1</v>
       </c>
     </row>
@@ -21147,7 +21141,7 @@
       </c>
     </row>
     <row r="1256" ht="14.25">
-      <c r="A1256" s="8" t="s">
+      <c r="A1256" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B1256" s="1">
@@ -21159,7 +21153,7 @@
       <c r="D1256" s="1">
         <v>2020</v>
       </c>
-      <c r="H1256" s="6" t="s">
+      <c r="H1256" s="2" t="s">
         <v>229</v>
       </c>
       <c r="R1256" s="1">
@@ -21167,7 +21161,7 @@
       </c>
     </row>
     <row r="1257" ht="14.25">
-      <c r="A1257" s="8" t="s">
+      <c r="A1257" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B1257" s="1">
@@ -21299,7 +21293,7 @@
       </c>
     </row>
     <row r="1266" ht="14.25">
-      <c r="A1266" s="1" t="s">
+      <c r="A1266" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B1266" s="1">
@@ -21327,7 +21321,7 @@
       </c>
     </row>
     <row r="1268" ht="14.25">
-      <c r="A1268" s="1" t="s">
+      <c r="A1268" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B1268" s="1">
@@ -21383,7 +21377,7 @@
       </c>
     </row>
     <row r="1272" ht="14.25">
-      <c r="A1272" s="1" t="s">
+      <c r="A1272" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B1272" s="1">

--- a/health_data/src/year_matching.xlsx
+++ b/health_data/src/year_matching.xlsx
@@ -1122,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1135,9 +1135,6 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1616,21 +1613,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="71.19140625"/>
+    <col customWidth="1" min="1" max="1" style="1" width="28.7109375"/>
     <col bestFit="1" min="2" max="2" style="1" width="11.8515625"/>
     <col bestFit="1" min="3" max="3" style="1" width="9.76171875"/>
     <col bestFit="1" min="4" max="4" style="1" width="8.9609375"/>
     <col bestFit="1" min="5" max="5" style="1" width="10.87109375"/>
     <col bestFit="1" min="6" max="6" style="1" width="10.08203125"/>
     <col bestFit="1" min="7" max="7" style="1" width="7.19140625"/>
-    <col customWidth="1" min="8" max="8" style="2" width="87.28125"/>
+    <col customWidth="1" min="8" max="8" style="2" width="17.28125"/>
     <col bestFit="1" min="9" max="9" style="1" width="13.8515625"/>
     <col bestFit="1" min="10" max="10" style="1" width="16.57421875"/>
     <col bestFit="1" min="11" max="11" style="1" width="9.28125"/>
@@ -1808,7 +1805,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="28.5">
+    <row r="11" ht="71.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1958,7 +1955,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="28.5">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +1980,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" ht="28.5">
+    <row r="17" ht="156.75">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,7 +2411,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" ht="28.5">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -2507,7 +2504,7 @@
       <c r="E46" s="1"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" ht="28.5">
+    <row r="47" ht="156.75">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -2568,7 +2565,7 @@
       <c r="E49" s="1"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" ht="28.5">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -2796,7 +2793,7 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="1">
@@ -2827,7 +2824,7 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="1">
@@ -2874,7 +2871,7 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="1">
@@ -3612,7 +3609,7 @@
       <c r="H113" s="2"/>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B114" s="1">
@@ -3641,7 +3638,7 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B116" s="1">
@@ -3683,7 +3680,7 @@
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B119" s="1">
@@ -4472,7 +4469,7 @@
       </c>
     </row>
     <row r="173" ht="14.25">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B173" s="1">
@@ -4500,7 +4497,7 @@
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B175" s="1">
@@ -4556,7 +4553,7 @@
       </c>
     </row>
     <row r="179" ht="14.25">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B179" s="1">
@@ -5340,7 +5337,7 @@
       </c>
     </row>
     <row r="232" ht="14.25">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B232" s="1">
@@ -5368,7 +5365,7 @@
       </c>
     </row>
     <row r="234" ht="14.25">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B234" s="1">
@@ -5433,7 +5430,7 @@
       <c r="G237" s="1"/>
     </row>
     <row r="238" ht="14.25">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B238" s="1">
@@ -7889,7 +7886,7 @@
       </c>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B415" s="1">
@@ -7917,7 +7914,7 @@
       </c>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="5" t="s">
+      <c r="A417" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B417" s="1">
@@ -7973,7 +7970,7 @@
       </c>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B421" s="1">
@@ -9503,7 +9500,7 @@
       </c>
     </row>
     <row r="536" ht="14.25">
-      <c r="A536" s="5" t="s">
+      <c r="A536" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B536" s="1">
@@ -9531,7 +9528,7 @@
       </c>
     </row>
     <row r="538" ht="14.25">
-      <c r="A538" s="5" t="s">
+      <c r="A538" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B538" s="1">
@@ -9587,7 +9584,7 @@
       </c>
     </row>
     <row r="542" ht="14.25">
-      <c r="A542" s="5" t="s">
+      <c r="A542" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B542" s="1">
@@ -10876,7 +10873,7 @@
       </c>
     </row>
     <row r="640" ht="14.25">
-      <c r="A640" s="5" t="s">
+      <c r="A640" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B640" s="1">
@@ -10904,7 +10901,7 @@
       </c>
     </row>
     <row r="642" ht="14.25">
-      <c r="A642" s="5" t="s">
+      <c r="A642" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B642" s="1">
@@ -10960,7 +10957,7 @@
       </c>
     </row>
     <row r="646" ht="14.25">
-      <c r="A646" s="5" t="s">
+      <c r="A646" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B646" s="1">
@@ -12426,7 +12423,7 @@
       </c>
     </row>
     <row r="746" ht="14.25">
-      <c r="A746" s="5" t="s">
+      <c r="A746" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B746" s="1">
@@ -12454,7 +12451,7 @@
       </c>
     </row>
     <row r="748" ht="14.25">
-      <c r="A748" s="5" t="s">
+      <c r="A748" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B748" s="1">
@@ -12510,7 +12507,7 @@
       </c>
     </row>
     <row r="752" ht="14.25">
-      <c r="A752" s="5" t="s">
+      <c r="A752" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B752" s="1">
@@ -14042,7 +14039,7 @@
       </c>
     </row>
     <row r="852" ht="14.25">
-      <c r="A852" s="5" t="s">
+      <c r="A852" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B852" s="1">
@@ -14070,7 +14067,7 @@
       </c>
     </row>
     <row r="854" ht="14.25">
-      <c r="A854" s="5" t="s">
+      <c r="A854" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B854" s="1">
@@ -14127,7 +14124,7 @@
       <c r="H857" s="2"/>
     </row>
     <row r="858" ht="14.25">
-      <c r="A858" s="5" t="s">
+      <c r="A858" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B858" s="1">
@@ -15947,7 +15944,7 @@
       </c>
     </row>
     <row r="968" ht="14.25">
-      <c r="A968" s="5" t="s">
+      <c r="A968" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B968" s="1">
@@ -15975,7 +15972,7 @@
       </c>
     </row>
     <row r="970" ht="14.25">
-      <c r="A970" s="5" t="s">
+      <c r="A970" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B970" s="1">
@@ -16031,7 +16028,7 @@
       </c>
     </row>
     <row r="974" ht="14.25">
-      <c r="A974" s="5" t="s">
+      <c r="A974" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B974" s="1">
@@ -17834,7 +17831,7 @@
       </c>
     </row>
     <row r="1083" ht="14.25">
-      <c r="A1083" s="5" t="s">
+      <c r="A1083" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B1083" s="1">
@@ -17862,7 +17859,7 @@
       </c>
     </row>
     <row r="1085" ht="14.25">
-      <c r="A1085" s="5" t="s">
+      <c r="A1085" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1085" s="1">
@@ -17918,7 +17915,7 @@
       </c>
     </row>
     <row r="1089" ht="14.25">
-      <c r="A1089" s="5" t="s">
+      <c r="A1089" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B1089" s="1">
@@ -18706,7 +18703,7 @@
       </c>
     </row>
     <row r="1130" ht="14.25">
-      <c r="A1130" s="6" t="s">
+      <c r="A1130" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B1130" s="1">
@@ -19132,7 +19129,7 @@
       </c>
     </row>
     <row r="1150" ht="14.25">
-      <c r="A1150" s="6" t="s">
+      <c r="A1150" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B1150" s="1">
@@ -19146,7 +19143,7 @@
       </c>
     </row>
     <row r="1151" ht="14.25">
-      <c r="A1151" s="6" t="s">
+      <c r="A1151" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B1151" s="1">
@@ -19160,7 +19157,7 @@
       </c>
     </row>
     <row r="1152" ht="14.25">
-      <c r="A1152" s="6" t="s">
+      <c r="A1152" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B1152" s="1">
@@ -19276,7 +19273,7 @@
       <c r="H1157" s="2"/>
     </row>
     <row r="1158" ht="14.25">
-      <c r="A1158" s="6" t="s">
+      <c r="A1158" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B1158" s="1">
@@ -19297,7 +19294,7 @@
       </c>
     </row>
     <row r="1159" ht="14.25">
-      <c r="A1159" s="6" t="s">
+      <c r="A1159" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B1159" s="1">
@@ -19600,7 +19597,7 @@
       </c>
     </row>
     <row r="1175" ht="14.25">
-      <c r="A1175" s="5" t="s">
+      <c r="A1175" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B1175" s="1">
@@ -19628,7 +19625,7 @@
       </c>
     </row>
     <row r="1177" ht="14.25">
-      <c r="A1177" s="5" t="s">
+      <c r="A1177" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1177" s="1">
@@ -19684,7 +19681,7 @@
       </c>
     </row>
     <row r="1181" ht="14.25">
-      <c r="A1181" s="5" t="s">
+      <c r="A1181" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B1181" s="1">
@@ -20410,7 +20407,7 @@
       </c>
     </row>
     <row r="1220" ht="14.25">
-      <c r="A1220" s="7" t="s">
+      <c r="A1220" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B1220" s="1">
@@ -20770,7 +20767,7 @@
       </c>
     </row>
     <row r="1238" ht="14.25">
-      <c r="A1238" s="7" t="s">
+      <c r="A1238" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B1238" s="1">
@@ -20799,7 +20796,7 @@
       </c>
     </row>
     <row r="1239" ht="14.25">
-      <c r="A1239" s="6" t="s">
+      <c r="A1239" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B1239" s="1">
@@ -20813,7 +20810,7 @@
       </c>
     </row>
     <row r="1240" ht="14.25">
-      <c r="A1240" s="6" t="s">
+      <c r="A1240" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B1240" s="1">
@@ -20827,7 +20824,7 @@
       </c>
     </row>
     <row r="1241" ht="14.25">
-      <c r="A1241" s="6" t="s">
+      <c r="A1241" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B1241" s="1">
@@ -20918,7 +20915,7 @@
       </c>
     </row>
     <row r="1246" ht="14.25">
-      <c r="A1246" s="6" t="s">
+      <c r="A1246" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B1246" s="1">
@@ -20938,7 +20935,7 @@
       </c>
     </row>
     <row r="1247" ht="14.25">
-      <c r="A1247" s="6" t="s">
+      <c r="A1247" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B1247" s="1">
@@ -21293,7 +21290,7 @@
       </c>
     </row>
     <row r="1266" ht="14.25">
-      <c r="A1266" s="5" t="s">
+      <c r="A1266" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B1266" s="1">
@@ -21321,7 +21318,7 @@
       </c>
     </row>
     <row r="1268" ht="14.25">
-      <c r="A1268" s="5" t="s">
+      <c r="A1268" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1268" s="1">
@@ -21377,7 +21374,7 @@
       </c>
     </row>
     <row r="1272" ht="14.25">
-      <c r="A1272" s="5" t="s">
+      <c r="A1272" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B1272" s="1">
